--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JefferyRobichaux\Desktop\Ariento_Quote_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86987A64-504C-4245-883B-90C162B55600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -6247,10 +6247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE40B50-ADD7-4F1C-8302-825C83271F83}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6258,48 +6258,49 @@
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6308,7 +6309,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6370,7 +6371,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6381,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6414,7 +6415,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="10">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6425,7 +6426,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="10">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6447,7 +6448,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6458,7 +6459,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6491,7 +6492,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="10">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6513,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="10">
-        <v>350</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6590,7 +6591,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="10">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6612,7 +6613,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="10">
-        <v>799</v>
+        <v>999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6656,7 +6657,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="10">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -6667,7 +6668,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="10">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -6678,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="10">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -6689,7 +6690,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="10">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -6744,7 +6745,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -6755,7 +6756,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="10">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -6766,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="10">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -6799,7 +6800,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="10">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -6810,7 +6811,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="10">
-        <v>750</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -6876,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="10">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -6898,7 +6899,7 @@
         <v>15</v>
       </c>
       <c r="C53" s="10">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -6909,7 +6910,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="10">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -6920,7 +6921,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="10">
-        <v>349</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -6953,7 +6954,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="10">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -6964,7 +6965,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="10">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -6975,7 +6976,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="10">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6986,7 +6987,7 @@
         <v>13</v>
       </c>
       <c r="C61" s="10">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -6997,7 +6998,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="10">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -7032,8 +7033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JefferyRobichaux\Desktop\Ariento_Quote_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86987A64-504C-4245-883B-90C162B55600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945DA80-DEB0-4006-87A3-0B9F442F785F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Additional Licenses'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ariento Plans'!$A$1:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Microsoft Licenses'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$1341</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7080" uniqueCount="1915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7024" uniqueCount="1915">
   <si>
     <t>License Type</t>
   </si>
@@ -6249,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE40B50-ADD7-4F1C-8302-825C83271F83}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6289,14 +6289,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6306,10 +6302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6343,688 +6339,391 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10">
-        <v>249</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10">
-        <v>227</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>389</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10">
-        <v>299</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="10">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10">
-        <v>249</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="10">
-        <v>229</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10">
-        <v>349</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18" s="10">
-        <v>499</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" s="10">
-        <v>299</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="10">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="10">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10">
-        <v>19</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10">
         <v>9</v>
-      </c>
-      <c r="C23" s="10">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="10">
-        <v>249</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" s="10">
-        <v>99</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="10">
-        <v>349</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="10">
-        <v>999</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>299</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C29" s="10">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" s="10">
-        <v>5</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C31" s="10">
-        <v>9</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C32" s="10">
-        <v>99</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C33" s="10">
-        <v>199</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="10">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C35" s="10">
-        <v>339</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" s="10">
-        <v>789</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="10">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="10">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="10">
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="10">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="10">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="10">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="10">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="10">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="10">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="10">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="10">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="10">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="10">
-        <v>349</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JefferyRobichaux\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BED32-516C-4C00-BFF4-FC873E6C1FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7121BF-9FD0-4163-B828-F3407A66B9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17085" windowHeight="9990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="2595" windowWidth="17085" windowHeight="9990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -6214,7 +6214,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,7 +6261,7 @@
       <c r="A4" s="7" t="s">
         <v>1715</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9">
@@ -6290,7 +6290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6433,18 +6433,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1714</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>1715</v>
       </c>
@@ -6633,9 +6633,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C37" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Turnkey CMMC Level 3 Plan (GCC)"/>
+        <filter val="Standard"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD20CE18-4115-4806-98C9-63C22C10D466}"/>
+  <xr:revisionPtr revIDLastSave="594" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C82CBA8-DB5A-412A-99B2-88D7C5403C08}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2025" windowWidth="17430" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -5098,7 +5098,7 @@
     <t>O365 G1 GCCH Sub Per User</t>
   </si>
   <si>
-    <t>M365 G5 CAO GCCH Sub User ECAL w/OPP</t>
+    <t>M365 G5 FUSL GCCH Sub Per User</t>
   </si>
 </sst>
 </file>
@@ -6276,10 +6276,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6352,7 +6353,7 @@
         <v>1682</v>
       </c>
       <c r="C6" s="19">
-        <v>517.16100000000006</v>
+        <v>963.11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6498,7 +6499,7 @@
         <v>4287.9599999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6520,7 +6521,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6568,7 +6569,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6583,7 +6584,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6598,7 +6599,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6613,7 +6614,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6628,7 +6629,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6643,7 +6644,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6658,7 +6659,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6688,7 +6689,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6703,7 +6704,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6718,7 +6719,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6733,7 +6734,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6748,7 +6749,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -6847,7 +6848,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>56.76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>86.86</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>105.78</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>113.52</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>135.88</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>238.22</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>1682</v>
       </c>
       <c r="C60" s="19">
-        <v>517.16100000000006</v>
+        <v>963.11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7144,7 +7145,7 @@
         <v>4287.9599999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>20.440000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>5.4717499999999992</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>4.1280000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>16.920500000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>20.440000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>10.63</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>5.4717499999999992</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>4.1280000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>16.920500000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>81.27</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>125.39</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>105.26</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>246.91</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>217.49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>250.69</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>578.96</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>928.78</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>111.11</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>196.61</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>384.31</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>160.69999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>361.59</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>602.65</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>204.4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>204.77</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>336.41</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>657.43</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>350.49</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>406.76</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>677.93</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>274.81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>618.72</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>1030.93</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>476.15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>690.32</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>219.73</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>360.88</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>705.08</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>438.86</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>1408.62</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>720.44</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>294.89</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>663.72</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>1105.6600000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>292.63</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>219.73</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>360.88</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>705.08</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>367.69</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>435.83</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>726.55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>294.89</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>663.72</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8201,7 @@
         <v>1105.6600000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>899.02</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>263.43</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>432.54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>845.49</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>526.87</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>865.06</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>1690.96</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>353.56</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>795.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>1325.82</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>610.70000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>5670.74</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>2353.71</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>3604.85</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -8376,7 +8377,7 @@
         <v>7046.18</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>2946.54</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>6629.92</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>11049.32</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>4706.79</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>7208.39</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>14090.83</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>472.25</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>526.66999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>989.53</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>1649.21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>496.94</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>817.87</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>1598.73</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>785.85</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>1768.57</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>2947.35</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>733.76</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>1568.72</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>1453.37</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>2422.2800000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8607,7 +8608,7 @@
         <v>784.36</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>1201.47</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>2348.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>981.92</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>2209.71</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>3682.57</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>3779.24</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>3138.08</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>4805.88</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>9394.56</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>1568.72</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>2402.5100000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>4696.26</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>1963.83</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>4418.6000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>7364.34</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>956.48</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>49.74</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>104.43</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>186.76</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>1490.73</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>190.92</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>341.62</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>155.88999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -8882,7 +8883,7 @@
         <v>351.14</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>584.97</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>2737.23</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>146.4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>306.70999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>549.03</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>250.7</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>564.07000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>940.13</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>419.19</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>65.53</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>127.59</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>120.53</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>200.08</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>720.48</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>1139.6600000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>1440.95</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>974.61</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>99.27</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>169.08</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>330.51</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>138.21</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -9146,7 +9147,7 @@
         <v>310.97000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>518.28</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>21</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>1569.33</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>21</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>2881.9</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -9190,7 +9191,7 @@
         <v>1729.14</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>2803.3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>21</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>4296.66</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>171.41</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>292.27999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>571.86</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>21</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>238.65</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>537.55999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>896.74</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>21</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>483.75</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>362.81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>241.88</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -9388,7 +9389,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>21</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>21</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>21</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>21</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>21</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>21</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>21</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>52.68</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>21</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>21</v>
       </c>
@@ -9586,7 +9587,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>21</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>21</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>21</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>21</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>21</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>21</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>21</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>21</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -9729,7 +9730,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>21</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>21</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>21</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>21</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>21</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>21</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>21</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -9850,7 +9851,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>21</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -9960,7 +9961,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>88.69</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>72.56</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>21</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -10081,7 +10082,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>21</v>
       </c>
@@ -10092,7 +10093,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>21</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>1370.63</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>2418.75</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>21</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>403.13</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>21</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>806.25</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>21</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>2418.75</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>21</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>604.69000000000005</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>21</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>201.56</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>21</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>21</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>4837.5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>21</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>3628.13</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>21</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>1209.3800000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>21</v>
       </c>
@@ -10235,7 +10236,7 @@
         <v>1612.5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -10246,7 +10247,7 @@
         <v>1209.3800000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>21</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>21</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>4111.88</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>21</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>806.25</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>21</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>21</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>21</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>181.41</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>21</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>72.56</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>21</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>217.69</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>21</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>21</v>
       </c>
@@ -10367,7 +10368,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -10378,7 +10379,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>21</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>21</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -10422,7 +10423,7 @@
         <v>157.22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>21</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>21</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>21</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>21</v>
       </c>
@@ -10466,7 +10467,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>21</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>181.41</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>21</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>21</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>161.25</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>21</v>
       </c>
@@ -10510,7 +10511,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>21</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>21</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>21</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>21</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>21</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>21</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>21</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>21</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>21</v>
       </c>
@@ -10609,7 +10610,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>21</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>21</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>21</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>21</v>
       </c>
@@ -10686,7 +10687,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>21</v>
       </c>
@@ -10697,7 +10698,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>21</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>21</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>21</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>21</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>21</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>21</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>21</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1053.5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>21</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>21</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>21</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>21</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>21</v>
       </c>
@@ -10840,7 +10841,7 @@
         <v>304.76</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>21</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>21</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>21</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>100.78</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>21</v>
       </c>
@@ -10884,7 +10885,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>21</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>21</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>21</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>21</v>
       </c>
@@ -10928,7 +10929,7 @@
         <v>63.96</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>21</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>191.89</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>21</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>21</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>3047.63</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>21</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>1015.88</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>21</v>
       </c>
@@ -10983,7 +10984,7 @@
         <v>3047.63</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>21</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>9142.8799999999992</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>21</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>5944.75</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>21</v>
       </c>
@@ -11016,7 +11017,7 @@
         <v>17834.25</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>21</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>27090</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>21</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>9030</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>21</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>21</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>21</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>304.76</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>21</v>
       </c>
@@ -11082,7 +11083,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>21</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>21</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>21</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>21</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>21</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>21</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>21</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>21</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>21</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>21</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>21</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>21</v>
       </c>
@@ -11236,7 +11237,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>21</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>21</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>21</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>157.22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>21</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>21</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>21</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>21</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>21</v>
       </c>
@@ -11324,7 +11325,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>21</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>21</v>
       </c>
@@ -11346,7 +11347,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>21</v>
       </c>
@@ -11357,7 +11358,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>21</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>21</v>
       </c>
@@ -11379,7 +11380,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>21</v>
       </c>
@@ -11390,7 +11391,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -11401,7 +11402,7 @@
         <v>1693.13</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>6772.5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>21</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>27842.5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>21</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>564.38</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>21</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>2257.5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>21</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>21</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>83527.5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>21</v>
       </c>
@@ -11478,7 +11479,7 @@
         <v>12792.5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>21</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>38377.5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>21</v>
       </c>
@@ -11500,7 +11501,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>21</v>
       </c>
@@ -11511,7 +11512,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>21</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>21</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>21</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>21</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>21</v>
       </c>
@@ -11566,7 +11567,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>21</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>21</v>
       </c>
@@ -11588,7 +11589,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>21</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>21</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>21</v>
       </c>
@@ -11621,7 +11622,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>21</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>21</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>81.27</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>21</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>21</v>
       </c>
@@ -11665,7 +11666,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>125.39</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>105.26</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>21</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>246.91</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>21</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>21</v>
       </c>
@@ -11720,7 +11721,7 @@
         <v>217.49</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>21</v>
       </c>
@@ -11731,7 +11732,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>21</v>
       </c>
@@ -11742,7 +11743,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>21</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>21</v>
       </c>
@@ -11764,7 +11765,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>21</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>21</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>21</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>21</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>21</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>21</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>21</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>21</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>21</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>21</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>21</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>21</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>21</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>21</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>21</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>21</v>
       </c>
@@ -11944,7 +11945,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="17"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>21</v>
       </c>
@@ -11959,7 +11960,7 @@
       <c r="F510" s="17"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>21</v>
       </c>
@@ -11974,7 +11975,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="17"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>21</v>
       </c>
@@ -11989,7 +11990,7 @@
       <c r="F512" s="17"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>21</v>
       </c>
@@ -12004,7 +12005,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="17"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>21</v>
       </c>
@@ -12019,7 +12020,7 @@
       <c r="F514" s="17"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>21</v>
       </c>
@@ -12034,7 +12035,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="17"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>21</v>
       </c>
@@ -12049,7 +12050,7 @@
       <c r="F516" s="17"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -12064,7 +12065,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="17"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>21</v>
       </c>
@@ -12079,7 +12080,7 @@
       <c r="F518" s="17"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>21</v>
       </c>
@@ -12094,7 +12095,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="17"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>21</v>
       </c>
@@ -12109,7 +12110,7 @@
       <c r="F520" s="17"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>21</v>
       </c>
@@ -12124,7 +12125,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="17"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>21</v>
       </c>
@@ -12139,7 +12140,7 @@
       <c r="F522" s="17"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>21</v>
       </c>
@@ -12154,7 +12155,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="17"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>21</v>
       </c>
@@ -12169,7 +12170,7 @@
       <c r="F524" s="17"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>21</v>
       </c>
@@ -12184,7 +12185,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="17"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>21</v>
       </c>
@@ -12199,7 +12200,7 @@
       <c r="F526" s="17"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>21</v>
       </c>
@@ -12214,7 +12215,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="17"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>21</v>
       </c>
@@ -12229,7 +12230,7 @@
       <c r="F528" s="17"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>21</v>
       </c>
@@ -12244,7 +12245,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="17"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>21</v>
       </c>
@@ -12259,7 +12260,7 @@
       <c r="F530" s="17"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>21</v>
       </c>
@@ -12274,7 +12275,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="17"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>21</v>
       </c>
@@ -12289,7 +12290,7 @@
       <c r="F532" s="17"/>
       <c r="G532" s="17"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>21</v>
       </c>
@@ -12304,7 +12305,7 @@
       <c r="F533" s="17"/>
       <c r="G533" s="17"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>21</v>
       </c>
@@ -12319,7 +12320,7 @@
       <c r="F534" s="17"/>
       <c r="G534" s="17"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>21</v>
       </c>
@@ -12334,7 +12335,7 @@
       <c r="F535" s="17"/>
       <c r="G535" s="17"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>21</v>
       </c>
@@ -12349,7 +12350,7 @@
       <c r="F536" s="17"/>
       <c r="G536" s="17"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>21</v>
       </c>
@@ -12364,7 +12365,7 @@
       <c r="F537" s="17"/>
       <c r="G537" s="17"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>21</v>
       </c>
@@ -12379,7 +12380,7 @@
       <c r="F538" s="17"/>
       <c r="G538" s="17"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>21</v>
       </c>
@@ -12394,7 +12395,7 @@
       <c r="F539" s="17"/>
       <c r="G539" s="17"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>21</v>
       </c>
@@ -12409,7 +12410,7 @@
       <c r="F540" s="17"/>
       <c r="G540" s="17"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>21</v>
       </c>
@@ -12424,7 +12425,7 @@
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>21</v>
       </c>
@@ -12439,7 +12440,7 @@
       <c r="F542" s="17"/>
       <c r="G542" s="17"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>21</v>
       </c>
@@ -12454,7 +12455,7 @@
       <c r="F543" s="17"/>
       <c r="G543" s="17"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>21</v>
       </c>
@@ -12469,7 +12470,7 @@
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>21</v>
       </c>
@@ -12484,7 +12485,7 @@
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>21</v>
       </c>
@@ -12499,7 +12500,7 @@
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>21</v>
       </c>
@@ -12514,7 +12515,7 @@
       <c r="F547" s="17"/>
       <c r="G547" s="17"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>21</v>
       </c>
@@ -12529,7 +12530,7 @@
       <c r="F548" s="17"/>
       <c r="G548" s="17"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>21</v>
       </c>
@@ -12544,7 +12545,7 @@
       <c r="F549" s="17"/>
       <c r="G549" s="17"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>21</v>
       </c>
@@ -12559,7 +12560,7 @@
       <c r="F550" s="17"/>
       <c r="G550" s="17"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>21</v>
       </c>
@@ -12574,7 +12575,7 @@
       <c r="F551" s="17"/>
       <c r="G551" s="17"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>21</v>
       </c>
@@ -12589,7 +12590,7 @@
       <c r="F552" s="17"/>
       <c r="G552" s="17"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>21</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="F553" s="17"/>
       <c r="G553" s="17"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>21</v>
       </c>
@@ -12619,7 +12620,7 @@
       <c r="F554" s="17"/>
       <c r="G554" s="17"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>21</v>
       </c>
@@ -12634,7 +12635,7 @@
       <c r="F555" s="17"/>
       <c r="G555" s="17"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>21</v>
       </c>
@@ -12649,7 +12650,7 @@
       <c r="F556" s="17"/>
       <c r="G556" s="17"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>21</v>
       </c>
@@ -12664,7 +12665,7 @@
       <c r="F557" s="17"/>
       <c r="G557" s="17"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>21</v>
       </c>
@@ -12679,7 +12680,7 @@
       <c r="F558" s="17"/>
       <c r="G558" s="17"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>21</v>
       </c>
@@ -12694,7 +12695,7 @@
       <c r="F559" s="17"/>
       <c r="G559" s="17"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>21</v>
       </c>
@@ -12709,7 +12710,7 @@
       <c r="F560" s="17"/>
       <c r="G560" s="17"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>21</v>
       </c>
@@ -12724,7 +12725,7 @@
       <c r="F561" s="17"/>
       <c r="G561" s="17"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>21</v>
       </c>
@@ -12739,7 +12740,7 @@
       <c r="F562" s="17"/>
       <c r="G562" s="17"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>21</v>
       </c>
@@ -12754,7 +12755,7 @@
       <c r="F563" s="17"/>
       <c r="G563" s="17"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>21</v>
       </c>
@@ -12769,7 +12770,7 @@
       <c r="F564" s="17"/>
       <c r="G564" s="17"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>21</v>
       </c>
@@ -12784,7 +12785,7 @@
       <c r="F565" s="17"/>
       <c r="G565" s="17"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>21</v>
       </c>
@@ -12799,7 +12800,7 @@
       <c r="F566" s="17"/>
       <c r="G566" s="17"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>21</v>
       </c>
@@ -12814,7 +12815,7 @@
       <c r="F567" s="17"/>
       <c r="G567" s="17"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>21</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="F568" s="17"/>
       <c r="G568" s="17"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>21</v>
       </c>
@@ -12844,7 +12845,7 @@
       <c r="F569" s="17"/>
       <c r="G569" s="17"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>21</v>
       </c>
@@ -12859,7 +12860,7 @@
       <c r="F570" s="17"/>
       <c r="G570" s="17"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>21</v>
       </c>
@@ -12874,7 +12875,7 @@
       <c r="F571" s="17"/>
       <c r="G571" s="17"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>21</v>
       </c>
@@ -12889,7 +12890,7 @@
       <c r="F572" s="17"/>
       <c r="G572" s="17"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>21</v>
       </c>
@@ -12904,7 +12905,7 @@
       <c r="F573" s="17"/>
       <c r="G573" s="17"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>21</v>
       </c>
@@ -12919,7 +12920,7 @@
       <c r="F574" s="17"/>
       <c r="G574" s="17"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>21</v>
       </c>
@@ -12934,7 +12935,7 @@
       <c r="F575" s="17"/>
       <c r="G575" s="17"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>21</v>
       </c>
@@ -12949,7 +12950,7 @@
       <c r="F576" s="17"/>
       <c r="G576" s="17"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>21</v>
       </c>
@@ -12964,7 +12965,7 @@
       <c r="F577" s="17"/>
       <c r="G577" s="17"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>21</v>
       </c>
@@ -12979,7 +12980,7 @@
       <c r="F578" s="17"/>
       <c r="G578" s="17"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>21</v>
       </c>
@@ -12994,7 +12995,7 @@
       <c r="F579" s="17"/>
       <c r="G579" s="17"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>21</v>
       </c>
@@ -13009,7 +13010,7 @@
       <c r="F580" s="17"/>
       <c r="G580" s="17"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>21</v>
       </c>
@@ -13024,7 +13025,7 @@
       <c r="F581" s="17"/>
       <c r="G581" s="17"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>21</v>
       </c>
@@ -13039,7 +13040,7 @@
       <c r="F582" s="17"/>
       <c r="G582" s="17"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>21</v>
       </c>
@@ -13054,7 +13055,7 @@
       <c r="F583" s="17"/>
       <c r="G583" s="17"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>21</v>
       </c>
@@ -13069,7 +13070,7 @@
       <c r="F584" s="17"/>
       <c r="G584" s="17"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>21</v>
       </c>
@@ -13084,7 +13085,7 @@
       <c r="F585" s="17"/>
       <c r="G585" s="17"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>21</v>
       </c>
@@ -13099,7 +13100,7 @@
       <c r="F586" s="17"/>
       <c r="G586" s="17"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>21</v>
       </c>
@@ -13114,7 +13115,7 @@
       <c r="F587" s="17"/>
       <c r="G587" s="17"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>21</v>
       </c>
@@ -13129,7 +13130,7 @@
       <c r="F588" s="17"/>
       <c r="G588" s="17"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>21</v>
       </c>
@@ -13144,7 +13145,7 @@
       <c r="F589" s="17"/>
       <c r="G589" s="17"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>21</v>
       </c>
@@ -13159,7 +13160,7 @@
       <c r="F590" s="17"/>
       <c r="G590" s="17"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>21</v>
       </c>
@@ -13174,7 +13175,7 @@
       <c r="F591" s="17"/>
       <c r="G591" s="17"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>21</v>
       </c>
@@ -13189,7 +13190,7 @@
       <c r="F592" s="17"/>
       <c r="G592" s="17"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>21</v>
       </c>
@@ -13204,7 +13205,7 @@
       <c r="F593" s="17"/>
       <c r="G593" s="17"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>21</v>
       </c>
@@ -13219,7 +13220,7 @@
       <c r="F594" s="17"/>
       <c r="G594" s="17"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>21</v>
       </c>
@@ -13234,7 +13235,7 @@
       <c r="F595" s="17"/>
       <c r="G595" s="17"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>21</v>
       </c>
@@ -13249,7 +13250,7 @@
       <c r="F596" s="17"/>
       <c r="G596" s="17"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>21</v>
       </c>
@@ -13264,7 +13265,7 @@
       <c r="F597" s="17"/>
       <c r="G597" s="17"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>21</v>
       </c>
@@ -13279,7 +13280,7 @@
       <c r="F598" s="17"/>
       <c r="G598" s="17"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>21</v>
       </c>
@@ -13294,7 +13295,7 @@
       <c r="F599" s="17"/>
       <c r="G599" s="17"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>21</v>
       </c>
@@ -13309,7 +13310,7 @@
       <c r="F600" s="17"/>
       <c r="G600" s="17"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>21</v>
       </c>
@@ -13324,7 +13325,7 @@
       <c r="F601" s="17"/>
       <c r="G601" s="17"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>21</v>
       </c>
@@ -13339,7 +13340,7 @@
       <c r="F602" s="17"/>
       <c r="G602" s="17"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>21</v>
       </c>
@@ -13354,7 +13355,7 @@
       <c r="F603" s="17"/>
       <c r="G603" s="17"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>21</v>
       </c>
@@ -13369,7 +13370,7 @@
       <c r="F604" s="17"/>
       <c r="G604" s="17"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>21</v>
       </c>
@@ -13384,7 +13385,7 @@
       <c r="F605" s="17"/>
       <c r="G605" s="17"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>21</v>
       </c>
@@ -13399,7 +13400,7 @@
       <c r="F606" s="17"/>
       <c r="G606" s="17"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>21</v>
       </c>
@@ -13414,7 +13415,7 @@
       <c r="F607" s="17"/>
       <c r="G607" s="17"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>21</v>
       </c>
@@ -13429,7 +13430,7 @@
       <c r="F608" s="17"/>
       <c r="G608" s="17"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>21</v>
       </c>
@@ -13444,7 +13445,7 @@
       <c r="F609" s="17"/>
       <c r="G609" s="17"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>21</v>
       </c>
@@ -13459,7 +13460,7 @@
       <c r="F610" s="17"/>
       <c r="G610" s="17"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>21</v>
       </c>
@@ -13474,7 +13475,7 @@
       <c r="F611" s="17"/>
       <c r="G611" s="17"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>21</v>
       </c>
@@ -13489,7 +13490,7 @@
       <c r="F612" s="17"/>
       <c r="G612" s="17"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>21</v>
       </c>
@@ -13504,7 +13505,7 @@
       <c r="F613" s="17"/>
       <c r="G613" s="17"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>21</v>
       </c>
@@ -13519,7 +13520,7 @@
       <c r="F614" s="17"/>
       <c r="G614" s="17"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>21</v>
       </c>
@@ -13534,7 +13535,7 @@
       <c r="F615" s="17"/>
       <c r="G615" s="17"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>21</v>
       </c>
@@ -13549,7 +13550,7 @@
       <c r="F616" s="17"/>
       <c r="G616" s="17"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>21</v>
       </c>
@@ -13564,7 +13565,7 @@
       <c r="F617" s="17"/>
       <c r="G617" s="17"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3</v>
       </c>
@@ -13641,7 +13642,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>3</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3</v>
       </c>
@@ -13696,7 +13697,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3</v>
       </c>
@@ -13707,7 +13708,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>3</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3</v>
       </c>
@@ -13806,7 +13807,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>3</v>
       </c>
@@ -13828,7 +13829,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>3</v>
       </c>
@@ -13839,7 +13840,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>3</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>3</v>
       </c>
@@ -13861,7 +13862,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>3</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3</v>
       </c>
@@ -13885,6 +13886,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C646" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Turnkey CMMC Level 2 Plan (GCC-High)"/>
+        <filter val="Turnkey CMMC Level 3 Plan (GCC-High)"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:C470">
       <sortCondition ref="A1:A646"/>
     </sortState>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C82CBA8-DB5A-412A-99B2-88D7C5403C08}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552EEB55-A289-4E17-B7CA-EEF45BCC68EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -6276,11 +6276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6499,7 +6498,7 @@
         <v>4287.9599999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6507,10 +6506,10 @@
         <v>1647</v>
       </c>
       <c r="C20" s="18">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6529,10 +6528,10 @@
         <v>1649</v>
       </c>
       <c r="C22" s="18">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6540,10 +6539,10 @@
         <v>1650</v>
       </c>
       <c r="C23" s="18">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6551,10 +6550,10 @@
         <v>1664</v>
       </c>
       <c r="C24" s="18">
-        <v>58.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6562,14 +6561,14 @@
         <v>1658</v>
       </c>
       <c r="C25" s="18">
-        <v>24.08</v>
+        <v>21.67</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6577,14 +6576,14 @@
         <v>1659</v>
       </c>
       <c r="C26" s="18">
-        <v>26.66</v>
+        <v>23.99</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6592,14 +6591,14 @@
         <v>1660</v>
       </c>
       <c r="C27" s="18">
-        <v>34.4</v>
+        <v>30.96</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6607,14 +6606,14 @@
         <v>1657</v>
       </c>
       <c r="C28" s="18">
-        <v>35.26</v>
+        <v>31.73</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6622,14 +6621,14 @@
         <v>1661</v>
       </c>
       <c r="C29" s="18">
-        <v>43</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6637,14 +6636,14 @@
         <v>1652</v>
       </c>
       <c r="C30" s="18">
-        <v>56.76</v>
+        <v>51.08</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6652,14 +6651,14 @@
         <v>1651</v>
       </c>
       <c r="C31" s="18">
-        <v>64.5</v>
+        <v>58.05</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6667,14 +6666,14 @@
         <v>1653</v>
       </c>
       <c r="C32" s="18">
-        <v>86.86</v>
+        <v>78.17</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6682,14 +6681,14 @@
         <v>1656</v>
       </c>
       <c r="C33" s="18">
-        <v>105.78</v>
+        <v>95.2</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6697,14 +6696,14 @@
         <v>1655</v>
       </c>
       <c r="C34" s="18">
-        <v>113.52</v>
+        <v>102.17</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6712,14 +6711,14 @@
         <v>1654</v>
       </c>
       <c r="C35" s="18">
-        <v>135.88</v>
+        <v>122.29</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -6727,14 +6726,14 @@
         <v>1662</v>
       </c>
       <c r="C36" s="18">
-        <v>238.22</v>
+        <v>214.4</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6742,14 +6741,14 @@
         <v>1663</v>
       </c>
       <c r="C37" s="18">
-        <v>270.89999999999998</v>
+        <v>243.81</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -6757,10 +6756,10 @@
         <v>1647</v>
       </c>
       <c r="C38" s="18">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -6779,10 +6778,10 @@
         <v>1649</v>
       </c>
       <c r="C40" s="18">
-        <v>10.32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -6790,10 +6789,10 @@
         <v>1650</v>
       </c>
       <c r="C41" s="18">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6801,10 +6800,10 @@
         <v>1664</v>
       </c>
       <c r="C42" s="18">
-        <v>58.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -6812,10 +6811,10 @@
         <v>1658</v>
       </c>
       <c r="C43" s="18">
-        <v>24.08</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -6823,10 +6822,10 @@
         <v>1659</v>
       </c>
       <c r="C44" s="18">
-        <v>26.66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -6834,10 +6833,10 @@
         <v>1660</v>
       </c>
       <c r="C45" s="18">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -6845,10 +6844,10 @@
         <v>1657</v>
       </c>
       <c r="C46" s="18">
-        <v>35.26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -6856,10 +6855,10 @@
         <v>1661</v>
       </c>
       <c r="C47" s="18">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -6867,10 +6866,10 @@
         <v>1652</v>
       </c>
       <c r="C48" s="18">
-        <v>56.76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>51.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -6878,10 +6877,10 @@
         <v>1651</v>
       </c>
       <c r="C49" s="18">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>58.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -6889,10 +6888,10 @@
         <v>1653</v>
       </c>
       <c r="C50" s="18">
-        <v>86.86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>78.17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -6900,10 +6899,10 @@
         <v>1656</v>
       </c>
       <c r="C51" s="18">
-        <v>105.78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -6911,10 +6910,10 @@
         <v>1655</v>
       </c>
       <c r="C52" s="18">
-        <v>113.52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>102.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -6922,10 +6921,10 @@
         <v>1654</v>
       </c>
       <c r="C53" s="18">
-        <v>135.88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>122.29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -6933,10 +6932,10 @@
         <v>1662</v>
       </c>
       <c r="C54" s="18">
-        <v>238.22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>1663</v>
       </c>
       <c r="C55" s="18">
-        <v>270.89999999999998</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7145,7 +7144,7 @@
         <v>4287.9599999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -7153,10 +7152,10 @@
         <v>164</v>
       </c>
       <c r="C74" s="18">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -7164,10 +7163,10 @@
         <v>195</v>
       </c>
       <c r="C75" s="18">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -7175,10 +7174,10 @@
         <v>319</v>
       </c>
       <c r="C76" s="18">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -7186,10 +7185,10 @@
         <v>320</v>
       </c>
       <c r="C77" s="18">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -7197,10 +7196,10 @@
         <v>321</v>
       </c>
       <c r="C78" s="18">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -7208,10 +7207,10 @@
         <v>322</v>
       </c>
       <c r="C79" s="18">
-        <v>20.440000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -7219,10 +7218,10 @@
         <v>323</v>
       </c>
       <c r="C80" s="18">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -7230,10 +7229,10 @@
         <v>324</v>
       </c>
       <c r="C81" s="18">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -7241,32 +7240,32 @@
         <v>330</v>
       </c>
       <c r="C82" s="18">
-        <v>56.56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="C83" s="19">
-        <v>5.4717499999999992</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="18">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>245</v>
       </c>
-      <c r="C84" s="19">
-        <v>4.1280000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="18">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -7277,18 +7276,18 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
         <v>163</v>
       </c>
-      <c r="C86" s="19">
-        <v>16.920500000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="18">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -7472,10 +7471,10 @@
         <v>164</v>
       </c>
       <c r="C103" s="18">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -7483,10 +7482,10 @@
         <v>195</v>
       </c>
       <c r="C104" s="18">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -7494,10 +7493,10 @@
         <v>319</v>
       </c>
       <c r="C105" s="18">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -7505,10 +7504,10 @@
         <v>320</v>
       </c>
       <c r="C106" s="18">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -7516,10 +7515,10 @@
         <v>321</v>
       </c>
       <c r="C107" s="18">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -7527,10 +7526,10 @@
         <v>322</v>
       </c>
       <c r="C108" s="18">
-        <v>20.440000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -7538,10 +7537,10 @@
         <v>323</v>
       </c>
       <c r="C109" s="18">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -7549,10 +7548,10 @@
         <v>324</v>
       </c>
       <c r="C110" s="18">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -7560,32 +7559,32 @@
         <v>330</v>
       </c>
       <c r="C111" s="18">
-        <v>56.56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
       <c r="B112" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="19">
-        <v>5.4717499999999992</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="18">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
       <c r="B113" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="19">
-        <v>4.1280000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="18">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -7596,18 +7595,18 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>163</v>
       </c>
-      <c r="C115" s="19">
-        <v>16.920500000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="18">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>81.27</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>125.39</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>105.26</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>246.91</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>217.49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>250.69</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>21</v>
       </c>
@@ -7772,7 +7771,7 @@
         <v>355.7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>578.96</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>928.78</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>111.11</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>196.61</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>384.31</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7837,7 @@
         <v>160.69999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>21</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>361.59</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>21</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>602.65</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -7871,7 +7870,7 @@
         <v>204.4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>204.77</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>336.41</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>21</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>657.43</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>21</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>350.49</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>21</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>406.76</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>677.93</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>274.81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>618.72</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>1030.93</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>476.15</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -7992,7 +7991,7 @@
         <v>690.32</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -8003,7 +8002,7 @@
         <v>219.73</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>360.88</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8025,7 +8024,7 @@
         <v>705.08</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>438.86</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>1408.62</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>720.44</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>294.89</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>663.72</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>1105.6600000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>292.63</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>219.73</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>360.88</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>705.08</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>367.69</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>435.83</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>726.55</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -8179,7 +8178,7 @@
         <v>294.89</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -8190,7 +8189,7 @@
         <v>663.72</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>1105.6600000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>594.85</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>899.02</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>263.43</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>432.54</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>845.49</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>526.87</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>865.06</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>1690.96</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>353.56</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>795.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>1325.82</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>610.70000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>5670.74</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>2353.71</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>3604.85</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>7046.18</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -8388,7 +8387,7 @@
         <v>2946.54</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>6629.92</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>11049.32</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>4706.79</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>7208.39</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>14090.83</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>472.25</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>526.66999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>989.53</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>1649.21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>496.94</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>817.87</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>1598.73</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>785.85</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>1768.57</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>2947.35</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>733.76</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>1568.72</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>1453.37</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>2422.2800000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>784.36</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>1201.47</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>2348.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>981.92</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>2209.71</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>3682.57</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>3779.24</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>3138.08</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>4805.88</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>9394.56</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>1568.72</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>2402.5100000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>4696.26</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>1963.83</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>4418.6000000000004</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>7364.34</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>956.48</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>49.74</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>104.43</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>186.76</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v>1490.73</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -8839,7 +8838,7 @@
         <v>91.04</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -8850,7 +8849,7 @@
         <v>190.92</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>341.62</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>155.88999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>351.14</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>584.97</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>2737.23</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>146.4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>306.70999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -8938,7 +8937,7 @@
         <v>549.03</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>250.7</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>564.07000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -8971,7 +8970,7 @@
         <v>940.13</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>419.19</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>65.53</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>127.59</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>53.84</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>21</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>120.53</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>21</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>200.08</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>720.48</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>21</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>1139.6600000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>21</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>1440.95</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>21</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>974.61</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>21</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>99.27</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>21</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>169.08</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -9125,7 +9124,7 @@
         <v>330.51</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>21</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>138.21</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -9147,7 +9146,7 @@
         <v>310.97000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -9158,7 +9157,7 @@
         <v>518.28</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>21</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>1569.33</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>21</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>2881.9</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>21</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>1729.14</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>21</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>2803.3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>21</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>4296.66</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>171.41</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>292.27999999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>21</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>571.86</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>21</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>238.65</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>21</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>537.55999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>21</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>896.74</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>21</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>21</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>483.75</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>362.81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>21</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>241.88</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>21</v>
       </c>
@@ -9378,7 +9377,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -9389,7 +9388,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>21</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>21</v>
       </c>
@@ -9411,7 +9410,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>21</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>21</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>21</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>21</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>21</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>21</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>21</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>21</v>
       </c>
@@ -9499,7 +9498,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>21</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>52.68</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>21</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>21</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>21</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>21</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>21</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>75.25</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>21</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>21</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>21</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>21</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>21</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>21</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>21</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>21</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>21</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>21</v>
       </c>
@@ -9708,7 +9707,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>21</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>21</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>21</v>
       </c>
@@ -9741,7 +9740,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>21</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>21</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>21</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>21</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>21</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>21</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>21</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -9840,7 +9839,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>21</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>21</v>
       </c>
@@ -9862,7 +9861,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>21</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>21</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>21</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -9928,7 +9927,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>21</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>21</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>21</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>23327.5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -10016,7 +10015,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>376.25</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>10911.25</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -10049,7 +10048,7 @@
         <v>88.69</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>72.56</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>21</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>21</v>
       </c>
@@ -10082,7 +10081,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>21</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>76.59</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>21</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>21</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>1370.63</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>2418.75</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>21</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>403.13</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>21</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>806.25</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>21</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>2418.75</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>21</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>604.69000000000005</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>21</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>201.56</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>21</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>21</v>
       </c>
@@ -10203,7 +10202,7 @@
         <v>4837.5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>21</v>
       </c>
@@ -10214,7 +10213,7 @@
         <v>3628.13</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>21</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>1209.3800000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>21</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>1612.5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>21</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>1209.3800000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>21</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>21</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>4111.88</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>21</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>806.25</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>21</v>
       </c>
@@ -10291,7 +10290,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>21</v>
       </c>
@@ -10302,7 +10301,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>21</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>181.41</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>21</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>72.56</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>21</v>
       </c>
@@ -10335,7 +10334,7 @@
         <v>217.69</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>21</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>21</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>21</v>
       </c>
@@ -10390,7 +10389,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>21</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>157.22</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>21</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>21</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>21</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>21</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>21</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>181.41</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>21</v>
       </c>
@@ -10489,7 +10488,7 @@
         <v>60.47</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>21</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>161.25</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>21</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>80.63</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>21</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>21</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>21</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>21</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>21</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>21</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>21</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>21</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>21</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>21</v>
       </c>
@@ -10632,7 +10631,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>21</v>
       </c>
@@ -10643,7 +10642,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>21</v>
       </c>
@@ -10676,7 +10675,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>21</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>21</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>21</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>21</v>
       </c>
@@ -10720,7 +10719,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>21</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>752.5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>21</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>21</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>21</v>
       </c>
@@ -10764,7 +10763,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>21</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>21</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>1053.5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>21</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>21</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>3160.5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>21</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>21</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>21</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>304.76</v>
       </c>
     </row>
-    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>21</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>21</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>21</v>
       </c>
@@ -10874,7 +10873,7 @@
         <v>100.78</v>
       </c>
     </row>
-    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>21</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>112.88</v>
       </c>
     </row>
-    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>21</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>21</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>21</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>21</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>63.96</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>21</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>191.89</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>21</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>21</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>3047.63</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>21</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>1015.88</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>21</v>
       </c>
@@ -10984,7 +10983,7 @@
         <v>3047.63</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>21</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>9142.8799999999992</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>21</v>
       </c>
@@ -11006,7 +11005,7 @@
         <v>5944.75</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>21</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>17834.25</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>21</v>
       </c>
@@ -11028,7 +11027,7 @@
         <v>27090</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>21</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>9030</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>21</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>101.59</v>
       </c>
     </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>21</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>21</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>304.76</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>21</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>21</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>21</v>
       </c>
@@ -11105,7 +11104,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>21</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>21</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>21</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>21</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>253.97</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>21</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>21</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>21</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>21</v>
       </c>
@@ -11215,7 +11214,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>21</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>120.94</v>
       </c>
     </row>
-    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>21</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>21</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>52.41</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>21</v>
       </c>
@@ -11259,7 +11258,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>21</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>157.22</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>21</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>158.03</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>21</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>67.73</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>21</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>21</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>474.08</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>21</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>677.25</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>21</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>225.75</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>21</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>21</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>21</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>21</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>21</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>13545</v>
       </c>
     </row>
-    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>21</v>
       </c>
@@ -11402,7 +11401,7 @@
         <v>1693.13</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>21</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>6772.5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>21</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>27842.5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>21</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>564.38</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>21</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>2257.5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>21</v>
       </c>
@@ -11457,7 +11456,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>21</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>83527.5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>21</v>
       </c>
@@ -11479,7 +11478,7 @@
         <v>12792.5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>21</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>38377.5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>21</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>21</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>21</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>21</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>21</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>21</v>
       </c>
@@ -11556,7 +11555,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>21</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>21</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>21</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>21</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>21</v>
       </c>
@@ -11611,7 +11610,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>21</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>21</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>21</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>81.27</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>21</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>21</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>125.39</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>105.26</v>
       </c>
     </row>
-    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>21</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>246.91</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>21</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>61.15</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>21</v>
       </c>
@@ -11721,7 +11720,7 @@
         <v>217.49</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>21</v>
       </c>
@@ -11732,7 +11731,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>21</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>54.18</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>21</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>21</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>21</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>21</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>21</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>21</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>21</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>21</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>21</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>21</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>21</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>21</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>21</v>
       </c>
@@ -11886,7 +11885,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>21</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>21</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>21</v>
       </c>
@@ -11919,7 +11918,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>21</v>
       </c>
@@ -11930,7 +11929,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>21</v>
       </c>
@@ -11945,7 +11944,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="17"/>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>21</v>
       </c>
@@ -11960,7 +11959,7 @@
       <c r="F510" s="17"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>21</v>
       </c>
@@ -11975,7 +11974,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="17"/>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>21</v>
       </c>
@@ -11990,7 +11989,7 @@
       <c r="F512" s="17"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>21</v>
       </c>
@@ -12005,7 +12004,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="17"/>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>21</v>
       </c>
@@ -12020,7 +12019,7 @@
       <c r="F514" s="17"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>21</v>
       </c>
@@ -12035,7 +12034,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="17"/>
     </row>
-    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>21</v>
       </c>
@@ -12050,7 +12049,7 @@
       <c r="F516" s="17"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>21</v>
       </c>
@@ -12065,7 +12064,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="17"/>
     </row>
-    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>21</v>
       </c>
@@ -12080,7 +12079,7 @@
       <c r="F518" s="17"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>21</v>
       </c>
@@ -12095,7 +12094,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="17"/>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>21</v>
       </c>
@@ -12110,7 +12109,7 @@
       <c r="F520" s="17"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>21</v>
       </c>
@@ -12125,7 +12124,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="17"/>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>21</v>
       </c>
@@ -12140,7 +12139,7 @@
       <c r="F522" s="17"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>21</v>
       </c>
@@ -12155,7 +12154,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="17"/>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>21</v>
       </c>
@@ -12170,7 +12169,7 @@
       <c r="F524" s="17"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>21</v>
       </c>
@@ -12185,7 +12184,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="17"/>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>21</v>
       </c>
@@ -12200,7 +12199,7 @@
       <c r="F526" s="17"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>21</v>
       </c>
@@ -12215,7 +12214,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="17"/>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>21</v>
       </c>
@@ -12230,7 +12229,7 @@
       <c r="F528" s="17"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>21</v>
       </c>
@@ -12245,7 +12244,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="17"/>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>21</v>
       </c>
@@ -12260,7 +12259,7 @@
       <c r="F530" s="17"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>21</v>
       </c>
@@ -12275,7 +12274,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="17"/>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>21</v>
       </c>
@@ -12290,7 +12289,7 @@
       <c r="F532" s="17"/>
       <c r="G532" s="17"/>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>21</v>
       </c>
@@ -12305,7 +12304,7 @@
       <c r="F533" s="17"/>
       <c r="G533" s="17"/>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>21</v>
       </c>
@@ -12320,7 +12319,7 @@
       <c r="F534" s="17"/>
       <c r="G534" s="17"/>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>21</v>
       </c>
@@ -12335,7 +12334,7 @@
       <c r="F535" s="17"/>
       <c r="G535" s="17"/>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>21</v>
       </c>
@@ -12350,7 +12349,7 @@
       <c r="F536" s="17"/>
       <c r="G536" s="17"/>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>21</v>
       </c>
@@ -12365,7 +12364,7 @@
       <c r="F537" s="17"/>
       <c r="G537" s="17"/>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>21</v>
       </c>
@@ -12380,7 +12379,7 @@
       <c r="F538" s="17"/>
       <c r="G538" s="17"/>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>21</v>
       </c>
@@ -12395,7 +12394,7 @@
       <c r="F539" s="17"/>
       <c r="G539" s="17"/>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>21</v>
       </c>
@@ -12410,7 +12409,7 @@
       <c r="F540" s="17"/>
       <c r="G540" s="17"/>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>21</v>
       </c>
@@ -12425,7 +12424,7 @@
       <c r="F541" s="17"/>
       <c r="G541" s="17"/>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>21</v>
       </c>
@@ -12440,7 +12439,7 @@
       <c r="F542" s="17"/>
       <c r="G542" s="17"/>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>21</v>
       </c>
@@ -12455,7 +12454,7 @@
       <c r="F543" s="17"/>
       <c r="G543" s="17"/>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>21</v>
       </c>
@@ -12470,7 +12469,7 @@
       <c r="F544" s="17"/>
       <c r="G544" s="17"/>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>21</v>
       </c>
@@ -12485,7 +12484,7 @@
       <c r="F545" s="17"/>
       <c r="G545" s="17"/>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>21</v>
       </c>
@@ -12500,7 +12499,7 @@
       <c r="F546" s="17"/>
       <c r="G546" s="17"/>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>21</v>
       </c>
@@ -12515,7 +12514,7 @@
       <c r="F547" s="17"/>
       <c r="G547" s="17"/>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>21</v>
       </c>
@@ -12530,7 +12529,7 @@
       <c r="F548" s="17"/>
       <c r="G548" s="17"/>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>21</v>
       </c>
@@ -12545,7 +12544,7 @@
       <c r="F549" s="17"/>
       <c r="G549" s="17"/>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>21</v>
       </c>
@@ -12560,7 +12559,7 @@
       <c r="F550" s="17"/>
       <c r="G550" s="17"/>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>21</v>
       </c>
@@ -12575,7 +12574,7 @@
       <c r="F551" s="17"/>
       <c r="G551" s="17"/>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>21</v>
       </c>
@@ -12590,7 +12589,7 @@
       <c r="F552" s="17"/>
       <c r="G552" s="17"/>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>21</v>
       </c>
@@ -12605,7 +12604,7 @@
       <c r="F553" s="17"/>
       <c r="G553" s="17"/>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>21</v>
       </c>
@@ -12620,7 +12619,7 @@
       <c r="F554" s="17"/>
       <c r="G554" s="17"/>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>21</v>
       </c>
@@ -12635,7 +12634,7 @@
       <c r="F555" s="17"/>
       <c r="G555" s="17"/>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>21</v>
       </c>
@@ -12650,7 +12649,7 @@
       <c r="F556" s="17"/>
       <c r="G556" s="17"/>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>21</v>
       </c>
@@ -12665,7 +12664,7 @@
       <c r="F557" s="17"/>
       <c r="G557" s="17"/>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>21</v>
       </c>
@@ -12680,7 +12679,7 @@
       <c r="F558" s="17"/>
       <c r="G558" s="17"/>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>21</v>
       </c>
@@ -12695,7 +12694,7 @@
       <c r="F559" s="17"/>
       <c r="G559" s="17"/>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>21</v>
       </c>
@@ -12710,7 +12709,7 @@
       <c r="F560" s="17"/>
       <c r="G560" s="17"/>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>21</v>
       </c>
@@ -12725,7 +12724,7 @@
       <c r="F561" s="17"/>
       <c r="G561" s="17"/>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>21</v>
       </c>
@@ -12740,7 +12739,7 @@
       <c r="F562" s="17"/>
       <c r="G562" s="17"/>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>21</v>
       </c>
@@ -12755,7 +12754,7 @@
       <c r="F563" s="17"/>
       <c r="G563" s="17"/>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>21</v>
       </c>
@@ -12770,7 +12769,7 @@
       <c r="F564" s="17"/>
       <c r="G564" s="17"/>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>21</v>
       </c>
@@ -12785,7 +12784,7 @@
       <c r="F565" s="17"/>
       <c r="G565" s="17"/>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>21</v>
       </c>
@@ -12800,7 +12799,7 @@
       <c r="F566" s="17"/>
       <c r="G566" s="17"/>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>21</v>
       </c>
@@ -12815,7 +12814,7 @@
       <c r="F567" s="17"/>
       <c r="G567" s="17"/>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>21</v>
       </c>
@@ -12830,7 +12829,7 @@
       <c r="F568" s="17"/>
       <c r="G568" s="17"/>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>21</v>
       </c>
@@ -12845,7 +12844,7 @@
       <c r="F569" s="17"/>
       <c r="G569" s="17"/>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>21</v>
       </c>
@@ -12860,7 +12859,7 @@
       <c r="F570" s="17"/>
       <c r="G570" s="17"/>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>21</v>
       </c>
@@ -12875,7 +12874,7 @@
       <c r="F571" s="17"/>
       <c r="G571" s="17"/>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>21</v>
       </c>
@@ -12890,7 +12889,7 @@
       <c r="F572" s="17"/>
       <c r="G572" s="17"/>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>21</v>
       </c>
@@ -12905,7 +12904,7 @@
       <c r="F573" s="17"/>
       <c r="G573" s="17"/>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>21</v>
       </c>
@@ -12920,7 +12919,7 @@
       <c r="F574" s="17"/>
       <c r="G574" s="17"/>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>21</v>
       </c>
@@ -12935,7 +12934,7 @@
       <c r="F575" s="17"/>
       <c r="G575" s="17"/>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>21</v>
       </c>
@@ -12950,7 +12949,7 @@
       <c r="F576" s="17"/>
       <c r="G576" s="17"/>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>21</v>
       </c>
@@ -12965,7 +12964,7 @@
       <c r="F577" s="17"/>
       <c r="G577" s="17"/>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>21</v>
       </c>
@@ -12980,7 +12979,7 @@
       <c r="F578" s="17"/>
       <c r="G578" s="17"/>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>21</v>
       </c>
@@ -12995,7 +12994,7 @@
       <c r="F579" s="17"/>
       <c r="G579" s="17"/>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>21</v>
       </c>
@@ -13010,7 +13009,7 @@
       <c r="F580" s="17"/>
       <c r="G580" s="17"/>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>21</v>
       </c>
@@ -13025,7 +13024,7 @@
       <c r="F581" s="17"/>
       <c r="G581" s="17"/>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>21</v>
       </c>
@@ -13040,7 +13039,7 @@
       <c r="F582" s="17"/>
       <c r="G582" s="17"/>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>21</v>
       </c>
@@ -13055,7 +13054,7 @@
       <c r="F583" s="17"/>
       <c r="G583" s="17"/>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>21</v>
       </c>
@@ -13070,7 +13069,7 @@
       <c r="F584" s="17"/>
       <c r="G584" s="17"/>
     </row>
-    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>21</v>
       </c>
@@ -13085,7 +13084,7 @@
       <c r="F585" s="17"/>
       <c r="G585" s="17"/>
     </row>
-    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>21</v>
       </c>
@@ -13100,7 +13099,7 @@
       <c r="F586" s="17"/>
       <c r="G586" s="17"/>
     </row>
-    <row r="587" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>21</v>
       </c>
@@ -13115,7 +13114,7 @@
       <c r="F587" s="17"/>
       <c r="G587" s="17"/>
     </row>
-    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>21</v>
       </c>
@@ -13130,7 +13129,7 @@
       <c r="F588" s="17"/>
       <c r="G588" s="17"/>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>21</v>
       </c>
@@ -13145,7 +13144,7 @@
       <c r="F589" s="17"/>
       <c r="G589" s="17"/>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>21</v>
       </c>
@@ -13160,7 +13159,7 @@
       <c r="F590" s="17"/>
       <c r="G590" s="17"/>
     </row>
-    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>21</v>
       </c>
@@ -13175,7 +13174,7 @@
       <c r="F591" s="17"/>
       <c r="G591" s="17"/>
     </row>
-    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>21</v>
       </c>
@@ -13190,7 +13189,7 @@
       <c r="F592" s="17"/>
       <c r="G592" s="17"/>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>21</v>
       </c>
@@ -13205,7 +13204,7 @@
       <c r="F593" s="17"/>
       <c r="G593" s="17"/>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>21</v>
       </c>
@@ -13220,7 +13219,7 @@
       <c r="F594" s="17"/>
       <c r="G594" s="17"/>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>21</v>
       </c>
@@ -13235,7 +13234,7 @@
       <c r="F595" s="17"/>
       <c r="G595" s="17"/>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>21</v>
       </c>
@@ -13250,7 +13249,7 @@
       <c r="F596" s="17"/>
       <c r="G596" s="17"/>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>21</v>
       </c>
@@ -13265,7 +13264,7 @@
       <c r="F597" s="17"/>
       <c r="G597" s="17"/>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>21</v>
       </c>
@@ -13280,7 +13279,7 @@
       <c r="F598" s="17"/>
       <c r="G598" s="17"/>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>21</v>
       </c>
@@ -13295,7 +13294,7 @@
       <c r="F599" s="17"/>
       <c r="G599" s="17"/>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>21</v>
       </c>
@@ -13310,7 +13309,7 @@
       <c r="F600" s="17"/>
       <c r="G600" s="17"/>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>21</v>
       </c>
@@ -13325,7 +13324,7 @@
       <c r="F601" s="17"/>
       <c r="G601" s="17"/>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>21</v>
       </c>
@@ -13340,7 +13339,7 @@
       <c r="F602" s="17"/>
       <c r="G602" s="17"/>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>21</v>
       </c>
@@ -13355,7 +13354,7 @@
       <c r="F603" s="17"/>
       <c r="G603" s="17"/>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>21</v>
       </c>
@@ -13370,7 +13369,7 @@
       <c r="F604" s="17"/>
       <c r="G604" s="17"/>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>21</v>
       </c>
@@ -13385,7 +13384,7 @@
       <c r="F605" s="17"/>
       <c r="G605" s="17"/>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>21</v>
       </c>
@@ -13400,7 +13399,7 @@
       <c r="F606" s="17"/>
       <c r="G606" s="17"/>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>21</v>
       </c>
@@ -13415,7 +13414,7 @@
       <c r="F607" s="17"/>
       <c r="G607" s="17"/>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>21</v>
       </c>
@@ -13430,7 +13429,7 @@
       <c r="F608" s="17"/>
       <c r="G608" s="17"/>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>21</v>
       </c>
@@ -13445,7 +13444,7 @@
       <c r="F609" s="17"/>
       <c r="G609" s="17"/>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>21</v>
       </c>
@@ -13460,7 +13459,7 @@
       <c r="F610" s="17"/>
       <c r="G610" s="17"/>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>21</v>
       </c>
@@ -13475,7 +13474,7 @@
       <c r="F611" s="17"/>
       <c r="G611" s="17"/>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>21</v>
       </c>
@@ -13490,7 +13489,7 @@
       <c r="F612" s="17"/>
       <c r="G612" s="17"/>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>21</v>
       </c>
@@ -13505,7 +13504,7 @@
       <c r="F613" s="17"/>
       <c r="G613" s="17"/>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>21</v>
       </c>
@@ -13520,7 +13519,7 @@
       <c r="F614" s="17"/>
       <c r="G614" s="17"/>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>21</v>
       </c>
@@ -13535,7 +13534,7 @@
       <c r="F615" s="17"/>
       <c r="G615" s="17"/>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>21</v>
       </c>
@@ -13550,7 +13549,7 @@
       <c r="F616" s="17"/>
       <c r="G616" s="17"/>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>21</v>
       </c>
@@ -13565,7 +13564,7 @@
       <c r="F617" s="17"/>
       <c r="G617" s="17"/>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>3</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>3</v>
       </c>
@@ -13653,7 +13652,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3</v>
       </c>
@@ -13664,7 +13663,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3</v>
       </c>
@@ -13675,7 +13674,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>47.13</v>
       </c>
     </row>
-    <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3</v>
       </c>
@@ -13708,7 +13707,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>102.17</v>
       </c>
     </row>
-    <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>243.81</v>
       </c>
     </row>
-    <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>3</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>58.05</v>
       </c>
     </row>
-    <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>122.29</v>
       </c>
     </row>
-    <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>415.64</v>
       </c>
     </row>
-    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>214.4</v>
       </c>
     </row>
-    <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3</v>
       </c>
@@ -13818,7 +13817,7 @@
         <v>1481.44</v>
       </c>
     </row>
-    <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>3</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>3</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>796.45</v>
       </c>
     </row>
-    <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>3</v>
       </c>
@@ -13851,7 +13850,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>3</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>3</v>
       </c>
@@ -13873,7 +13872,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3</v>
       </c>
@@ -13886,12 +13885,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C646" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Turnkey CMMC Level 2 Plan (GCC-High)"/>
-        <filter val="Turnkey CMMC Level 3 Plan (GCC-High)"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:C470">
       <sortCondition ref="A1:A646"/>
     </sortState>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{552EEB55-A289-4E17-B7CA-EEF45BCC68EF}"/>
+  <xr:revisionPtr revIDLastSave="670" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B5701E-08F6-4DD5-8D15-2ECA10FCCE55}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -22,10 +22,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Additional Licenses'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ariento Plans'!$A$1:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Microsoft Licenses'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$654</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5674" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5697" uniqueCount="1686">
   <si>
     <t>Plan Name</t>
   </si>
@@ -5099,6 +5099,15 @@
   </si>
   <si>
     <t>M365 G5 FUSL GCCH Sub Per User</t>
+  </si>
+  <si>
+    <t>Enclave One (GCC-High)</t>
+  </si>
+  <si>
+    <t>Enclave One</t>
+  </si>
+  <si>
+    <t>Lite User</t>
   </si>
 </sst>
 </file>
@@ -5109,7 +5118,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5173,6 +5182,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5230,7 +5244,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5256,6 +5270,12 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5577,9 +5597,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE40B50-ADD7-4F1C-8302-825C83271F83}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5605,7 +5625,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5615,17 +5635,22 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5635,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,41 +5685,41 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="A2" s="22" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="9">
-        <v>5</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="A3" s="22" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1685</v>
       </c>
       <c r="C3" s="9">
-        <v>0</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="A4" s="22" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="9">
-        <v>5</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5705,51 +5730,51 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
-        <v>299</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -5760,7 +5785,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -5771,120 +5796,120 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9">
-        <v>179</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
-        <v>229</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="9">
-        <v>349</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="9">
-        <v>499</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
-        <v>5</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9">
-        <v>249</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9">
         <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9">
-        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="9">
-        <v>119</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="9">
         <v>249</v>
@@ -5892,139 +5917,139 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9">
-        <v>99</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="9">
-        <v>349</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9">
-        <v>349</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="9">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C27" s="9">
-        <v>9</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C28" s="9">
-        <v>99</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" s="9">
-        <v>199</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9">
-        <v>249</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="9">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C32" s="9">
-        <v>299</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33" s="9">
-        <v>299</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -6035,98 +6060,98 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C36" s="9">
-        <v>9</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C38" s="9">
-        <v>179</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9">
-        <v>349</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9">
-        <v>699</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C41" s="9">
-        <v>299</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C42" s="9">
-        <v>149</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C43" s="9">
-        <v>5</v>
+        <v>699</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" s="9">
         <v>299</v>
@@ -6134,140 +6159,173 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="9">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C46" s="9">
-        <v>299</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="9">
-        <v>179</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9">
-        <v>249</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" s="9">
-        <v>999</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="9">
-        <v>349</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C51" s="9">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C52" s="9">
-        <v>179</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" s="9">
-        <v>99</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C54" s="9">
-        <v>349</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" s="9">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="9">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C56" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:C56">
-      <sortCondition ref="A1:A56"/>
+  <autoFilter ref="A1:C59" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C59">
+      <sortCondition ref="A1:A59"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6276,10 +6334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6465,7 +6523,7 @@
         <v>2043.3600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -6476,7 +6534,7 @@
         <v>2445.8399999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -6487,7 +6545,7 @@
         <v>4876.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -6498,190 +6556,158 @@
         <v>4287.9599999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C20" s="18">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1021.6800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C21" s="18">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C22" s="18">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1563.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1904.0399999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C24" s="18">
-        <v>49.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2043.3600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C25" s="18">
-        <v>21.67</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C25" s="19">
+        <v>2445.8399999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C26" s="18">
-        <v>23.99</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C26" s="19">
+        <v>4287.9599999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C27" s="18">
-        <v>30.96</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1683</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C27" s="19">
+        <v>4876.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="C28" s="18">
-        <v>31.73</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="C29" s="18">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C30" s="18">
-        <v>51.08</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>1651</v>
+      <c r="B31" t="s">
+        <v>1650</v>
       </c>
       <c r="C31" s="18">
-        <v>58.05</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>1653</v>
+      <c r="B32" t="s">
+        <v>1664</v>
       </c>
       <c r="C32" s="18">
-        <v>78.17</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+        <v>49.02</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C33" s="18">
-        <v>95.2</v>
+        <v>21.67</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -6693,10 +6719,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="C34" s="18">
-        <v>102.17</v>
+        <v>23.99</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -6708,10 +6734,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="C35" s="18">
-        <v>122.29</v>
+        <v>30.96</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -6723,10 +6749,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="C36" s="18">
-        <v>214.4</v>
+        <v>31.73</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -6738,10 +6764,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C37" s="18">
-        <v>243.81</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -6750,101 +6776,133 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="C38" s="18">
-        <v>3.44</v>
-      </c>
+        <v>51.08</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C39" s="18">
-        <v>6.02</v>
-      </c>
+        <v>58.05</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="C40" s="18">
-        <v>8.6</v>
-      </c>
+        <v>78.17</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1650</v>
+        <v>4</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>1656</v>
       </c>
       <c r="C41" s="18">
-        <v>1.72</v>
-      </c>
+        <v>95.2</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1664</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1655</v>
       </c>
       <c r="C42" s="18">
-        <v>49.02</v>
-      </c>
+        <v>102.17</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="C43" s="18">
-        <v>21.67</v>
-      </c>
+        <v>122.29</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="C44" s="18">
-        <v>23.99</v>
-      </c>
+        <v>214.4</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="C45" s="18">
-        <v>30.96</v>
-      </c>
+        <v>243.81</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="C46" s="18">
-        <v>31.73</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6852,10 +6910,10 @@
         <v>5</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="C47" s="18">
-        <v>38.700000000000003</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,32 +6921,32 @@
         <v>5</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C48" s="18">
-        <v>51.08</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>1651</v>
+      <c r="B49" t="s">
+        <v>1650</v>
       </c>
       <c r="C49" s="18">
-        <v>58.05</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>1653</v>
+      <c r="B50" t="s">
+        <v>1664</v>
       </c>
       <c r="C50" s="18">
-        <v>78.17</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +6954,10 @@
         <v>5</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="C51" s="18">
-        <v>95.2</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,10 +6965,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="C52" s="18">
-        <v>102.17</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,10 +6976,10 @@
         <v>5</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="C53" s="18">
-        <v>122.29</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6929,10 +6987,10 @@
         <v>5</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="C54" s="18">
-        <v>214.4</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,98 +6998,98 @@
         <v>5</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C55" s="18">
-        <v>243.81</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C56" s="19">
-        <v>57.405000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C56" s="18">
+        <v>51.08</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C57" s="19">
-        <v>162.66899999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C57" s="18">
+        <v>58.05</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C58" s="19">
-        <v>159.31499999999997</v>
+        <v>5</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C58" s="18">
+        <v>78.17</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C59" s="19">
-        <v>26.186999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C59" s="18">
+        <v>95.2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C60" s="19">
-        <v>963.11</v>
+        <v>5</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C60" s="18">
+        <v>102.17</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C61" s="19">
-        <v>479.88</v>
+        <v>5</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C61" s="18">
+        <v>122.29</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C62" s="19">
-        <v>619.19999999999993</v>
+        <v>5</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C62" s="18">
+        <v>214.4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C63" s="19">
-        <v>433.44000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C63" s="18">
+        <v>243.81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7039,10 +7097,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="C64" s="19">
-        <v>634.68000000000006</v>
+        <v>57.405000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7050,10 +7108,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="C65" s="19">
-        <v>774</v>
+        <v>162.66899999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7061,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="C66" s="19">
-        <v>1021.6800000000001</v>
+        <v>159.31499999999997</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,10 +7130,10 @@
         <v>6</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="C67" s="19">
-        <v>1161</v>
+        <v>26.186999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7083,10 +7141,10 @@
         <v>6</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="C68" s="19">
-        <v>1563.48</v>
+        <v>963.11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7094,10 +7152,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="C69" s="19">
-        <v>1904.0399999999997</v>
+        <v>479.88</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7105,10 +7163,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="C70" s="19">
-        <v>2043.3600000000001</v>
+        <v>619.19999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7116,10 +7174,10 @@
         <v>6</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="C71" s="19">
-        <v>2445.8399999999997</v>
+        <v>433.44000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7127,10 +7185,10 @@
         <v>6</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="C72" s="19">
-        <v>4876.2</v>
+        <v>634.68000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7138,109 +7196,109 @@
         <v>6</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="C73" s="19">
-        <v>4287.9599999999991</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="18">
-        <v>3.44</v>
+        <v>6</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C74" s="19">
+        <v>1021.6800000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="18">
-        <v>1.72</v>
+        <v>6</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C75" s="19">
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C76" s="18">
-        <v>5.16</v>
+        <v>6</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C76" s="19">
+        <v>1563.48</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C77" s="18">
-        <v>4.13</v>
+        <v>6</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C77" s="19">
+        <v>1904.0399999999997</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C78" s="18">
-        <v>18.920000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C78" s="19">
+        <v>2043.3600000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C79" s="18">
-        <v>17.03</v>
+        <v>6</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C79" s="19">
+        <v>2445.8399999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C80" s="18">
-        <v>10.75</v>
+        <v>6</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C80" s="19">
+        <v>4876.2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C81" s="18">
-        <v>8.86</v>
+        <v>6</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C81" s="19">
+        <v>4287.9599999999991</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>330</v>
+      <c r="B82" t="s">
+        <v>164</v>
       </c>
       <c r="C82" s="18">
-        <v>47.13</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7248,21 +7306,21 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="C83" s="18">
-        <v>4.5599999999999996</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
-      <c r="B84" t="s">
-        <v>245</v>
+      <c r="B84" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="C84" s="18">
-        <v>3.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7270,21 +7328,21 @@
         <v>2</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>1633</v>
+        <v>320</v>
       </c>
       <c r="C85" s="18">
-        <v>30.48</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
-      <c r="B86" t="s">
-        <v>163</v>
+      <c r="B86" s="17" t="s">
+        <v>321</v>
       </c>
       <c r="C86" s="18">
-        <v>14.1</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7292,10 +7350,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>1136</v>
+        <v>322</v>
       </c>
       <c r="C87" s="18">
-        <v>23.99</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,10 +7361,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>1130</v>
+        <v>323</v>
       </c>
       <c r="C88" s="18">
-        <v>102.17</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7314,10 +7372,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>1141</v>
+        <v>324</v>
       </c>
       <c r="C89" s="18">
-        <v>243.81</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7325,32 +7383,32 @@
         <v>2</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>1129</v>
+        <v>330</v>
       </c>
       <c r="C90" s="18">
-        <v>58.05</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>1132</v>
+      <c r="B91" t="s">
+        <v>244</v>
       </c>
       <c r="C91" s="18">
-        <v>122.29</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>1135</v>
+      <c r="B92" t="s">
+        <v>245</v>
       </c>
       <c r="C92" s="18">
-        <v>21.67</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7358,21 +7416,21 @@
         <v>2</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C93" s="18">
-        <v>415.64</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>1140</v>
+      <c r="B94" t="s">
+        <v>163</v>
       </c>
       <c r="C94" s="18">
-        <v>214.4</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,10 +7438,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C95" s="18">
-        <v>31.73</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7391,10 +7449,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1635</v>
+        <v>1130</v>
       </c>
       <c r="C96" s="18">
-        <v>1481.44</v>
+        <v>102.17</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,10 +7460,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C97" s="18">
-        <v>38.700000000000003</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,10 +7471,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1636</v>
+        <v>1129</v>
       </c>
       <c r="C98" s="18">
-        <v>796.45</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,10 +7482,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C99" s="18">
-        <v>30.96</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,10 +7493,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C100" s="18">
-        <v>51.08</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7446,10 +7504,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1134</v>
+        <v>1634</v>
       </c>
       <c r="C101" s="18">
-        <v>95.2</v>
+        <v>415.64</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,109 +7515,109 @@
         <v>2</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C102" s="18">
-        <v>78.17</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
-        <v>164</v>
+        <v>2</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>1138</v>
       </c>
       <c r="C103" s="18">
-        <v>3.44</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
-        <v>195</v>
+        <v>2</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>1635</v>
       </c>
       <c r="C104" s="18">
-        <v>1.72</v>
+        <v>1481.44</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>319</v>
+        <v>1139</v>
       </c>
       <c r="C105" s="18">
-        <v>5.16</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>320</v>
+        <v>1636</v>
       </c>
       <c r="C106" s="18">
-        <v>4.13</v>
+        <v>796.45</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>321</v>
+        <v>1137</v>
       </c>
       <c r="C107" s="18">
-        <v>18.920000000000002</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>322</v>
+        <v>1133</v>
       </c>
       <c r="C108" s="18">
-        <v>17.03</v>
+        <v>51.08</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>323</v>
+        <v>1134</v>
       </c>
       <c r="C109" s="18">
-        <v>10.75</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>324</v>
+        <v>1131</v>
       </c>
       <c r="C110" s="18">
-        <v>8.86</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>330</v>
+      <c r="B111" t="s">
+        <v>164</v>
       </c>
       <c r="C111" s="18">
-        <v>47.13</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,21 +7625,21 @@
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="C112" s="18">
-        <v>4.5599999999999996</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
-      <c r="B113" t="s">
-        <v>245</v>
+      <c r="B113" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="C113" s="18">
-        <v>3.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,21 +7647,21 @@
         <v>1</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1633</v>
+        <v>320</v>
       </c>
       <c r="C114" s="18">
-        <v>30.48</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
-      <c r="B115" t="s">
-        <v>163</v>
+      <c r="B115" s="17" t="s">
+        <v>321</v>
       </c>
       <c r="C115" s="18">
-        <v>14.1</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1108</v>
+        <v>322</v>
       </c>
       <c r="C116" s="18">
-        <v>34.06</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7622,10 +7680,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>1109</v>
+        <v>323</v>
       </c>
       <c r="C117" s="18">
-        <v>34.83</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,10 +7691,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1102</v>
+        <v>324</v>
       </c>
       <c r="C118" s="18">
-        <v>81.27</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7644,32 +7702,32 @@
         <v>1</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>1107</v>
+        <v>330</v>
       </c>
       <c r="C119" s="18">
-        <v>27.09</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>1105</v>
+      <c r="B120" t="s">
+        <v>244</v>
       </c>
       <c r="C120" s="18">
-        <v>98.3</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>1103</v>
+      <c r="B121" t="s">
+        <v>245</v>
       </c>
       <c r="C121" s="18">
-        <v>125.39</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,21 +7735,21 @@
         <v>1</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>1104</v>
+        <v>1633</v>
       </c>
       <c r="C122" s="18">
-        <v>105.26</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>1113</v>
+      <c r="B123" t="s">
+        <v>163</v>
       </c>
       <c r="C123" s="18">
-        <v>246.91</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,10 +7757,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C124" s="18">
-        <v>61.15</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C125" s="18">
-        <v>217.49</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,10 +7779,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C126" s="18">
-        <v>24.77</v>
+        <v>81.27</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,10 +7790,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C127" s="18">
-        <v>54.18</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7743,98 +7801,98 @@
         <v>1</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C128" s="18">
-        <v>41.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>21</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>1466</v>
+        <v>1</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>1103</v>
       </c>
       <c r="C129" s="18">
-        <v>250.69</v>
+        <v>125.39</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>1467</v>
+        <v>1</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>1104</v>
       </c>
       <c r="C130" s="18">
-        <v>355.7</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>21</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>1468</v>
+        <v>1</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>1113</v>
       </c>
       <c r="C131" s="18">
-        <v>578.96</v>
+        <v>246.91</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>1469</v>
+        <v>1</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>1112</v>
       </c>
       <c r="C132" s="18">
-        <v>928.78</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>1470</v>
+        <v>1</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>1114</v>
       </c>
       <c r="C133" s="18">
-        <v>111.11</v>
+        <v>217.49</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>1471</v>
+        <v>1</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>1106</v>
       </c>
       <c r="C134" s="18">
-        <v>196.61</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>21</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>1472</v>
+        <v>1</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>1111</v>
       </c>
       <c r="C135" s="18">
-        <v>384.31</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="16" t="s">
-        <v>1473</v>
+        <v>1</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>1110</v>
       </c>
       <c r="C136" s="18">
-        <v>160.69999999999999</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -7842,10 +7900,10 @@
         <v>21</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="C137" s="18">
-        <v>361.59</v>
+        <v>250.69</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,10 +7911,10 @@
         <v>21</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="C138" s="18">
-        <v>602.65</v>
+        <v>355.7</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -7864,10 +7922,10 @@
         <v>21</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="C139" s="18">
-        <v>204.4</v>
+        <v>578.96</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,10 +7933,10 @@
         <v>21</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C140" s="18">
-        <v>204.77</v>
+        <v>928.78</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,10 +7944,10 @@
         <v>21</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="C141" s="18">
-        <v>336.41</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,10 +7955,10 @@
         <v>21</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="C142" s="18">
-        <v>657.43</v>
+        <v>196.61</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,10 +7966,10 @@
         <v>21</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="C143" s="18">
-        <v>350.49</v>
+        <v>384.31</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,10 +7977,10 @@
         <v>21</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C144" s="18">
-        <v>406.76</v>
+        <v>160.69999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,10 +7988,10 @@
         <v>21</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="C145" s="18">
-        <v>677.93</v>
+        <v>361.59</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7941,10 +7999,10 @@
         <v>21</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C146" s="18">
-        <v>274.81</v>
+        <v>602.65</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,10 +8010,10 @@
         <v>21</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="C147" s="18">
-        <v>618.72</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,10 +8021,10 @@
         <v>21</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C148" s="18">
-        <v>1030.93</v>
+        <v>204.77</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,10 +8032,10 @@
         <v>21</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C149" s="18">
-        <v>476.15</v>
+        <v>336.41</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,10 +8043,10 @@
         <v>21</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="C150" s="18">
-        <v>690.32</v>
+        <v>657.43</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,10 +8054,10 @@
         <v>21</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="C151" s="18">
-        <v>219.73</v>
+        <v>350.49</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,10 +8065,10 @@
         <v>21</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="C152" s="18">
-        <v>360.88</v>
+        <v>406.76</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,10 +8076,10 @@
         <v>21</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="C153" s="18">
-        <v>705.08</v>
+        <v>677.93</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,10 +8087,10 @@
         <v>21</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="C154" s="18">
-        <v>438.86</v>
+        <v>274.81</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,10 +8098,10 @@
         <v>21</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="C155" s="18">
-        <v>1408.62</v>
+        <v>618.72</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,10 +8109,10 @@
         <v>21</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="C156" s="18">
-        <v>720.44</v>
+        <v>1030.93</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8120,10 @@
         <v>21</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="C157" s="18">
-        <v>294.89</v>
+        <v>476.15</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,10 +8131,10 @@
         <v>21</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="C158" s="18">
-        <v>663.72</v>
+        <v>690.32</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,10 +8142,10 @@
         <v>21</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="C159" s="18">
-        <v>1105.6600000000001</v>
+        <v>219.73</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,10 +8153,10 @@
         <v>21</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="C160" s="18">
-        <v>292.63</v>
+        <v>360.88</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,10 +8164,10 @@
         <v>21</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="C161" s="18">
-        <v>219.73</v>
+        <v>705.08</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,10 +8175,10 @@
         <v>21</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="C162" s="18">
-        <v>360.88</v>
+        <v>438.86</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8186,10 @@
         <v>21</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="C163" s="18">
-        <v>705.08</v>
+        <v>1408.62</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,10 +8197,10 @@
         <v>21</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="C164" s="18">
-        <v>367.69</v>
+        <v>720.44</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,10 +8208,10 @@
         <v>21</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="C165" s="18">
-        <v>435.83</v>
+        <v>294.89</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -8161,10 +8219,10 @@
         <v>21</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="C166" s="18">
-        <v>726.55</v>
+        <v>663.72</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8172,10 +8230,10 @@
         <v>21</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="C167" s="18">
-        <v>294.89</v>
+        <v>1105.6600000000001</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,10 +8241,10 @@
         <v>21</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C168" s="18">
-        <v>663.72</v>
+        <v>292.63</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,10 +8252,10 @@
         <v>21</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="C169" s="18">
-        <v>1105.6600000000001</v>
+        <v>219.73</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8205,10 +8263,10 @@
         <v>21</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C170" s="18">
-        <v>594.85</v>
+        <v>360.88</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,10 +8274,10 @@
         <v>21</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="C171" s="18">
-        <v>899.02</v>
+        <v>705.08</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,10 +8285,10 @@
         <v>21</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="C172" s="18">
-        <v>263.43</v>
+        <v>367.69</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,10 +8296,10 @@
         <v>21</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="C173" s="18">
-        <v>432.54</v>
+        <v>435.83</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,10 +8307,10 @@
         <v>21</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="C174" s="18">
-        <v>845.49</v>
+        <v>726.55</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,10 +8318,10 @@
         <v>21</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="C175" s="18">
-        <v>526.87</v>
+        <v>294.89</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,10 +8329,10 @@
         <v>21</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="C176" s="18">
-        <v>865.06</v>
+        <v>663.72</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,10 +8340,10 @@
         <v>21</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="C177" s="18">
-        <v>1690.96</v>
+        <v>1105.6600000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,10 +8351,10 @@
         <v>21</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="C178" s="18">
-        <v>353.56</v>
+        <v>594.85</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,10 +8362,10 @@
         <v>21</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>1514</v>
+        <v>1506</v>
       </c>
       <c r="C179" s="18">
-        <v>795.5</v>
+        <v>899.02</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,10 +8373,10 @@
         <v>21</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>1515</v>
+        <v>1507</v>
       </c>
       <c r="C180" s="18">
-        <v>1325.82</v>
+        <v>263.43</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,10 +8384,10 @@
         <v>21</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C181" s="18">
-        <v>610.70000000000005</v>
+        <v>432.54</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,10 +8395,10 @@
         <v>21</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="C182" s="18">
-        <v>5670.74</v>
+        <v>845.49</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,10 +8406,10 @@
         <v>21</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="C183" s="18">
-        <v>2353.71</v>
+        <v>526.87</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,10 +8417,10 @@
         <v>21</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="C184" s="18">
-        <v>3604.85</v>
+        <v>865.06</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,10 +8428,10 @@
         <v>21</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="C185" s="18">
-        <v>7046.18</v>
+        <v>1690.96</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,10 +8439,10 @@
         <v>21</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="C186" s="18">
-        <v>2946.54</v>
+        <v>353.56</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,10 +8450,10 @@
         <v>21</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="C187" s="18">
-        <v>6629.92</v>
+        <v>795.5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,10 +8461,10 @@
         <v>21</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="C188" s="18">
-        <v>11049.32</v>
+        <v>1325.82</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,10 +8472,10 @@
         <v>21</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="C189" s="18">
-        <v>4706.79</v>
+        <v>610.70000000000005</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,10 +8483,10 @@
         <v>21</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>1524</v>
+        <v>1516</v>
       </c>
       <c r="C190" s="18">
-        <v>7208.39</v>
+        <v>5670.74</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,10 +8494,10 @@
         <v>21</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="C191" s="18">
-        <v>14090.83</v>
+        <v>2353.71</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,10 +8505,10 @@
         <v>21</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="C192" s="18">
-        <v>472.25</v>
+        <v>3604.85</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,10 +8516,10 @@
         <v>21</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="C193" s="18">
-        <v>526.66999999999996</v>
+        <v>7046.18</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,10 +8527,10 @@
         <v>21</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="C194" s="18">
-        <v>989.53</v>
+        <v>2946.54</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,10 +8538,10 @@
         <v>21</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="C195" s="18">
-        <v>1649.21</v>
+        <v>6629.92</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,10 +8549,10 @@
         <v>21</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="C196" s="18">
-        <v>496.94</v>
+        <v>11049.32</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,10 +8560,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="C197" s="18">
-        <v>817.87</v>
+        <v>4706.79</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,10 +8571,10 @@
         <v>21</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
       <c r="C198" s="18">
-        <v>1598.73</v>
+        <v>7208.39</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,10 +8582,10 @@
         <v>21</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="C199" s="18">
-        <v>785.85</v>
+        <v>14090.83</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,10 +8593,10 @@
         <v>21</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>1534</v>
+        <v>1526</v>
       </c>
       <c r="C200" s="18">
-        <v>1768.57</v>
+        <v>472.25</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,10 +8604,10 @@
         <v>21</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="C201" s="18">
-        <v>2947.35</v>
+        <v>526.66999999999996</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,10 +8615,10 @@
         <v>21</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="C202" s="18">
-        <v>733.76</v>
+        <v>989.53</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,10 +8626,10 @@
         <v>21</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C203" s="18">
-        <v>1568.72</v>
+        <v>1649.21</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,10 +8637,10 @@
         <v>21</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="C204" s="18">
-        <v>1453.37</v>
+        <v>496.94</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,10 +8648,10 @@
         <v>21</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>1539</v>
+        <v>1531</v>
       </c>
       <c r="C205" s="18">
-        <v>2422.2800000000002</v>
+        <v>817.87</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,10 +8659,10 @@
         <v>21</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>1540</v>
+        <v>1532</v>
       </c>
       <c r="C206" s="18">
-        <v>784.36</v>
+        <v>1598.73</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,10 +8670,10 @@
         <v>21</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
       <c r="C207" s="18">
-        <v>1201.47</v>
+        <v>785.85</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,10 +8681,10 @@
         <v>21</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
       <c r="C208" s="18">
-        <v>2348.38</v>
+        <v>1768.57</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,10 +8692,10 @@
         <v>21</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
       <c r="C209" s="18">
-        <v>981.92</v>
+        <v>2947.35</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,10 +8703,10 @@
         <v>21</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
       <c r="C210" s="18">
-        <v>2209.71</v>
+        <v>733.76</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,10 +8714,10 @@
         <v>21</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
       <c r="C211" s="18">
-        <v>3682.57</v>
+        <v>1568.72</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,10 +8725,10 @@
         <v>21</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
       <c r="C212" s="18">
-        <v>3779.24</v>
+        <v>1453.37</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,10 +8736,10 @@
         <v>21</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
       <c r="C213" s="18">
-        <v>3138.08</v>
+        <v>2422.2800000000002</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8747,10 @@
         <v>21</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
       <c r="C214" s="18">
-        <v>4805.88</v>
+        <v>784.36</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,10 +8758,10 @@
         <v>21</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>1549</v>
+        <v>1541</v>
       </c>
       <c r="C215" s="18">
-        <v>9394.56</v>
+        <v>1201.47</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,10 +8769,10 @@
         <v>21</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>1550</v>
+        <v>1542</v>
       </c>
       <c r="C216" s="18">
-        <v>1568.72</v>
+        <v>2348.38</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,10 +8780,10 @@
         <v>21</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1551</v>
+        <v>1543</v>
       </c>
       <c r="C217" s="18">
-        <v>2402.5100000000002</v>
+        <v>981.92</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,10 +8791,10 @@
         <v>21</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
       <c r="C218" s="18">
-        <v>4696.26</v>
+        <v>2209.71</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,10 +8802,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>1553</v>
+        <v>1545</v>
       </c>
       <c r="C219" s="18">
-        <v>1963.83</v>
+        <v>3682.57</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,10 +8813,10 @@
         <v>21</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>1554</v>
+        <v>1546</v>
       </c>
       <c r="C220" s="18">
-        <v>4418.6000000000004</v>
+        <v>3779.24</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,10 +8824,10 @@
         <v>21</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="C221" s="18">
-        <v>7364.34</v>
+        <v>3138.08</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,10 +8835,10 @@
         <v>21</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>1556</v>
+        <v>1548</v>
       </c>
       <c r="C222" s="18">
-        <v>956.48</v>
+        <v>4805.88</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,10 +8846,10 @@
         <v>21</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
       <c r="C223" s="18">
-        <v>49.74</v>
+        <v>9394.56</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,10 +8857,10 @@
         <v>21</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="C224" s="18">
-        <v>104.43</v>
+        <v>1568.72</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,10 +8868,10 @@
         <v>21</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>1559</v>
+        <v>1551</v>
       </c>
       <c r="C225" s="18">
-        <v>186.76</v>
+        <v>2402.5100000000002</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,10 +8879,10 @@
         <v>21</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="C226" s="18">
-        <v>1490.73</v>
+        <v>4696.26</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,10 +8890,10 @@
         <v>21</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="C227" s="18">
-        <v>91.04</v>
+        <v>1963.83</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,10 +8901,10 @@
         <v>21</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="C228" s="18">
-        <v>190.92</v>
+        <v>4418.6000000000004</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,10 +8912,10 @@
         <v>21</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="C229" s="18">
-        <v>341.62</v>
+        <v>7364.34</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,10 +8923,10 @@
         <v>21</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="C230" s="18">
-        <v>155.88999999999999</v>
+        <v>956.48</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,10 +8934,10 @@
         <v>21</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="C231" s="18">
-        <v>351.14</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,10 +8945,10 @@
         <v>21</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="C232" s="18">
-        <v>584.97</v>
+        <v>104.43</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,10 +8956,10 @@
         <v>21</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="C233" s="18">
-        <v>2737.23</v>
+        <v>186.76</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,10 +8967,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="C234" s="18">
-        <v>146.4</v>
+        <v>1490.73</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8920,10 +8978,10 @@
         <v>21</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="C235" s="18">
-        <v>306.70999999999998</v>
+        <v>91.04</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,10 +8989,10 @@
         <v>21</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="C236" s="18">
-        <v>549.03</v>
+        <v>190.92</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,10 +9000,10 @@
         <v>21</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="C237" s="18">
-        <v>250.7</v>
+        <v>341.62</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +9011,10 @@
         <v>21</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="C238" s="18">
-        <v>564.07000000000005</v>
+        <v>155.88999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +9022,10 @@
         <v>21</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="C239" s="18">
-        <v>940.13</v>
+        <v>351.14</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +9033,10 @@
         <v>21</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="C240" s="18">
-        <v>419.19</v>
+        <v>584.97</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +9044,10 @@
         <v>21</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="C241" s="18">
-        <v>38.67</v>
+        <v>2737.23</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +9055,10 @@
         <v>21</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="C242" s="18">
-        <v>65.53</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +9066,10 @@
         <v>21</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="C243" s="18">
-        <v>127.59</v>
+        <v>306.70999999999998</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +9077,10 @@
         <v>21</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="C244" s="18">
-        <v>53.84</v>
+        <v>549.03</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +9088,10 @@
         <v>21</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="C245" s="18">
-        <v>120.53</v>
+        <v>250.7</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,10 +9099,10 @@
         <v>21</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="C246" s="18">
-        <v>200.08</v>
+        <v>564.07000000000005</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,10 +9110,10 @@
         <v>21</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="C247" s="18">
-        <v>720.48</v>
+        <v>940.13</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,10 +9121,10 @@
         <v>21</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="C248" s="18">
-        <v>1139.6600000000001</v>
+        <v>419.19</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,10 +9132,10 @@
         <v>21</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="C249" s="18">
-        <v>1440.95</v>
+        <v>38.67</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,10 +9143,10 @@
         <v>21</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="C250" s="18">
-        <v>974.61</v>
+        <v>65.53</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,10 +9154,10 @@
         <v>21</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="C251" s="18">
-        <v>99.27</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,10 +9165,10 @@
         <v>21</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="C252" s="18">
-        <v>169.08</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,10 +9176,10 @@
         <v>21</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="C253" s="18">
-        <v>330.51</v>
+        <v>120.53</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,10 +9187,10 @@
         <v>21</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C254" s="18">
-        <v>138.21</v>
+        <v>200.08</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,10 +9198,10 @@
         <v>21</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="C255" s="18">
-        <v>310.97000000000003</v>
+        <v>720.48</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,10 +9209,10 @@
         <v>21</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="C256" s="18">
-        <v>518.28</v>
+        <v>1139.6600000000001</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,10 +9220,10 @@
         <v>21</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="C257" s="18">
-        <v>1569.33</v>
+        <v>1440.95</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,10 +9231,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="C258" s="18">
-        <v>2881.9</v>
+        <v>974.61</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,10 +9242,10 @@
         <v>21</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="C259" s="18">
-        <v>1729.14</v>
+        <v>99.27</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,10 +9253,10 @@
         <v>21</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="C260" s="18">
-        <v>2803.3</v>
+        <v>169.08</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9264,10 @@
         <v>21</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="C261" s="18">
-        <v>4296.66</v>
+        <v>330.51</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="C262" s="18">
-        <v>171.41</v>
+        <v>138.21</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9286,10 @@
         <v>21</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="C263" s="18">
-        <v>292.27999999999997</v>
+        <v>310.97000000000003</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9297,10 @@
         <v>21</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="C264" s="18">
-        <v>571.86</v>
+        <v>518.28</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9308,10 @@
         <v>21</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="C265" s="18">
-        <v>238.65</v>
+        <v>1569.33</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9319,10 @@
         <v>21</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="C266" s="18">
-        <v>537.55999999999995</v>
+        <v>2881.9</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,98 +9330,98 @@
         <v>21</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="C267" s="18">
-        <v>896.74</v>
+        <v>1729.14</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="17" t="s">
-        <v>1632</v>
+      <c r="B268" s="16" t="s">
+        <v>1594</v>
       </c>
       <c r="C268" s="18">
-        <v>1.1499999999999999</v>
+        <v>2803.3</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>21</v>
       </c>
-      <c r="B269" s="17" t="s">
-        <v>22</v>
+      <c r="B269" s="16" t="s">
+        <v>1595</v>
       </c>
       <c r="C269" s="18">
-        <v>1.72</v>
+        <v>4296.66</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>21</v>
       </c>
-      <c r="B270" s="17" t="s">
-        <v>23</v>
+      <c r="B270" s="16" t="s">
+        <v>1596</v>
       </c>
       <c r="C270" s="18">
-        <v>10.32</v>
+        <v>171.41</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>21</v>
       </c>
-      <c r="B271" s="17" t="s">
-        <v>24</v>
+      <c r="B271" s="16" t="s">
+        <v>1597</v>
       </c>
       <c r="C271" s="18">
-        <v>86</v>
+        <v>292.27999999999997</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>21</v>
       </c>
-      <c r="B272" s="17" t="s">
-        <v>25</v>
+      <c r="B272" s="16" t="s">
+        <v>1598</v>
       </c>
       <c r="C272" s="18">
-        <v>483.75</v>
+        <v>571.86</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>21</v>
       </c>
-      <c r="B273" s="17" t="s">
-        <v>27</v>
+      <c r="B273" s="16" t="s">
+        <v>1599</v>
       </c>
       <c r="C273" s="18">
-        <v>362.81</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>21</v>
       </c>
-      <c r="B274" s="17" t="s">
-        <v>26</v>
+      <c r="B274" s="16" t="s">
+        <v>1600</v>
       </c>
       <c r="C274" s="18">
-        <v>241.88</v>
+        <v>537.55999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>21</v>
       </c>
-      <c r="B275" s="17" t="s">
-        <v>28</v>
+      <c r="B275" s="16" t="s">
+        <v>1601</v>
       </c>
       <c r="C275" s="18">
-        <v>32.25</v>
+        <v>896.74</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,10 +9429,10 @@
         <v>21</v>
       </c>
       <c r="B276" s="17" t="s">
-        <v>29</v>
+        <v>1632</v>
       </c>
       <c r="C276" s="18">
-        <v>24.19</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,10 +9440,10 @@
         <v>21</v>
       </c>
       <c r="B277" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C277" s="18">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,10 +9451,10 @@
         <v>21</v>
       </c>
       <c r="B278" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C278" s="18">
-        <v>8.06</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -9404,10 +9462,10 @@
         <v>21</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C279" s="18">
-        <v>376.25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,10 +9473,10 @@
         <v>21</v>
       </c>
       <c r="B280" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C280" s="18">
-        <v>75.25</v>
+        <v>483.75</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,10 +9484,10 @@
         <v>21</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C281" s="18">
-        <v>225.75</v>
+        <v>362.81</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -9437,10 +9495,10 @@
         <v>21</v>
       </c>
       <c r="B282" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C282" s="18">
-        <v>225.75</v>
+        <v>241.88</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,10 +9506,10 @@
         <v>21</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C283" s="18">
-        <v>3.76</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,10 +9517,10 @@
         <v>21</v>
       </c>
       <c r="B284" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C284" s="18">
-        <v>7.53</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,10 +9528,10 @@
         <v>21</v>
       </c>
       <c r="B285" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C285" s="18">
-        <v>376.25</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,10 +9539,10 @@
         <v>21</v>
       </c>
       <c r="B286" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C286" s="18">
-        <v>90.3</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,10 +9550,10 @@
         <v>21</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C287" s="18">
-        <v>30.1</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,10 +9561,10 @@
         <v>21</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C288" s="18">
-        <v>52.68</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,10 +9572,10 @@
         <v>21</v>
       </c>
       <c r="B289" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C289" s="18">
-        <v>158.03</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,10 +9583,10 @@
         <v>21</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C290" s="18">
-        <v>16.13</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,10 +9594,10 @@
         <v>21</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C291" s="18">
-        <v>48.38</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,10 +9605,10 @@
         <v>21</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C292" s="18">
-        <v>225.75</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,10 +9616,10 @@
         <v>21</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C293" s="18">
-        <v>75.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,10 +9627,10 @@
         <v>21</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C294" s="18">
-        <v>6.02</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,10 +9638,10 @@
         <v>21</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C295" s="18">
-        <v>18.059999999999999</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,10 +9649,10 @@
         <v>21</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C296" s="18">
-        <v>12.09</v>
+        <v>52.68</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,10 +9660,10 @@
         <v>21</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C297" s="18">
-        <v>3010</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,10 +9671,10 @@
         <v>21</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C298" s="18">
-        <v>376.25</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,10 +9682,10 @@
         <v>21</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C299" s="18">
-        <v>3010</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,10 +9693,10 @@
         <v>21</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C300" s="18">
-        <v>23327.5</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,10 +9704,10 @@
         <v>21</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C301" s="18">
-        <v>376.25</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -9657,10 +9715,10 @@
         <v>21</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C302" s="18">
-        <v>376.25</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -9668,10 +9726,10 @@
         <v>21</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C303" s="18">
-        <v>376.25</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -9679,10 +9737,10 @@
         <v>21</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C304" s="18">
-        <v>376.25</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,10 +9748,10 @@
         <v>21</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C305" s="18">
-        <v>158.03</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -9701,7 +9759,7 @@
         <v>21</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C306" s="18">
         <v>376.25</v>
@@ -9712,7 +9770,7 @@
         <v>21</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C307" s="18">
         <v>3010</v>
@@ -9723,10 +9781,10 @@
         <v>21</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C308" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -9734,10 +9792,10 @@
         <v>21</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C309" s="18">
-        <v>3010</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -9745,7 +9803,7 @@
         <v>21</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C310" s="18">
         <v>376.25</v>
@@ -9756,10 +9814,10 @@
         <v>21</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C311" s="18">
-        <v>474.08</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -9767,10 +9825,10 @@
         <v>21</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C312" s="18">
-        <v>3010</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,10 +9836,10 @@
         <v>21</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C313" s="18">
-        <v>376.25</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -9789,10 +9847,10 @@
         <v>21</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C314" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -9800,10 +9858,10 @@
         <v>21</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C315" s="18">
-        <v>22.58</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,10 +9869,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C316" s="18">
-        <v>23327.5</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -9822,10 +9880,10 @@
         <v>21</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C317" s="18">
-        <v>23327.5</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -9833,7 +9891,7 @@
         <v>21</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C318" s="18">
         <v>376.25</v>
@@ -9844,10 +9902,10 @@
         <v>21</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C319" s="18">
-        <v>10911.25</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,7 +9913,7 @@
         <v>21</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C320" s="18">
         <v>3010</v>
@@ -9866,7 +9924,7 @@
         <v>21</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C321" s="18">
         <v>376.25</v>
@@ -9877,10 +9935,10 @@
         <v>21</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C322" s="18">
-        <v>376.25</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,10 +9946,10 @@
         <v>21</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C323" s="18">
-        <v>376.25</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -9899,10 +9957,10 @@
         <v>21</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C324" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,10 +9968,10 @@
         <v>21</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C325" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,7 +9979,7 @@
         <v>21</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C326" s="18">
         <v>376.25</v>
@@ -9932,10 +9990,10 @@
         <v>21</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C327" s="18">
-        <v>23327.5</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,10 +10001,10 @@
         <v>21</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C328" s="18">
-        <v>23327.5</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,10 +10012,10 @@
         <v>21</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C329" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -9965,10 +10023,10 @@
         <v>21</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C330" s="18">
-        <v>23327.5</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -9976,10 +10034,10 @@
         <v>21</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C331" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,10 +10045,10 @@
         <v>21</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C332" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -9998,10 +10056,10 @@
         <v>21</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C333" s="18">
-        <v>67.73</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -10009,7 +10067,7 @@
         <v>21</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C334" s="18">
         <v>376.25</v>
@@ -10020,10 +10078,10 @@
         <v>21</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C335" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -10031,10 +10089,10 @@
         <v>21</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C336" s="18">
-        <v>10911.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -10042,10 +10100,10 @@
         <v>21</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C337" s="18">
-        <v>88.69</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -10053,10 +10111,10 @@
         <v>21</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C338" s="18">
-        <v>72.56</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -10064,10 +10122,10 @@
         <v>21</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C339" s="18">
-        <v>60.47</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -10075,10 +10133,10 @@
         <v>21</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C340" s="18">
-        <v>76.59</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -10086,10 +10144,10 @@
         <v>21</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C341" s="18">
-        <v>76.59</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -10097,10 +10155,10 @@
         <v>21</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C342" s="18">
-        <v>60.47</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,10 +10166,10 @@
         <v>21</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C343" s="18">
-        <v>1370.63</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,10 +10177,10 @@
         <v>21</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C344" s="18">
-        <v>2418.75</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -10130,10 +10188,10 @@
         <v>21</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C345" s="18">
-        <v>403.13</v>
+        <v>88.69</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -10141,10 +10199,10 @@
         <v>21</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C346" s="18">
-        <v>806.25</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -10152,10 +10210,10 @@
         <v>21</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C347" s="18">
-        <v>2418.75</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -10163,10 +10221,10 @@
         <v>21</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C348" s="18">
-        <v>604.69000000000005</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -10174,10 +10232,10 @@
         <v>21</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C349" s="18">
-        <v>201.56</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -10185,10 +10243,10 @@
         <v>21</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C350" s="18">
-        <v>774</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -10196,10 +10254,10 @@
         <v>21</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C351" s="18">
-        <v>4837.5</v>
+        <v>1370.63</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,10 +10265,10 @@
         <v>21</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C352" s="18">
-        <v>3628.13</v>
+        <v>2418.75</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -10218,10 +10276,10 @@
         <v>21</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C353" s="18">
-        <v>1209.3800000000001</v>
+        <v>403.13</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -10229,10 +10287,10 @@
         <v>21</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C354" s="18">
-        <v>1612.5</v>
+        <v>806.25</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,10 +10298,10 @@
         <v>21</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C355" s="18">
-        <v>1209.3800000000001</v>
+        <v>2418.75</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -10251,10 +10309,10 @@
         <v>21</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C356" s="18">
-        <v>258</v>
+        <v>604.69000000000005</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -10262,10 +10320,10 @@
         <v>21</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C357" s="18">
-        <v>4111.88</v>
+        <v>201.56</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -10273,10 +10331,10 @@
         <v>21</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C358" s="18">
-        <v>806.25</v>
+        <v>774</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -10284,10 +10342,10 @@
         <v>21</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C359" s="18">
-        <v>48.38</v>
+        <v>4837.5</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -10295,10 +10353,10 @@
         <v>21</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C360" s="18">
-        <v>60.47</v>
+        <v>3628.13</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -10306,10 +10364,10 @@
         <v>21</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C361" s="18">
-        <v>181.41</v>
+        <v>1209.3800000000001</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -10317,10 +10375,10 @@
         <v>21</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C362" s="18">
-        <v>72.56</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -10328,10 +10386,10 @@
         <v>21</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C363" s="18">
-        <v>217.69</v>
+        <v>1209.3800000000001</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -10339,10 +10397,10 @@
         <v>21</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C364" s="18">
-        <v>16.13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -10350,10 +10408,10 @@
         <v>21</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C365" s="18">
-        <v>48.38</v>
+        <v>4111.88</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -10361,10 +10419,10 @@
         <v>21</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C366" s="18">
-        <v>84.66</v>
+        <v>806.25</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -10372,10 +10430,10 @@
         <v>21</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C367" s="18">
-        <v>645</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -10383,10 +10441,10 @@
         <v>21</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C368" s="18">
-        <v>253.97</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -10394,10 +10452,10 @@
         <v>21</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C369" s="18">
-        <v>387</v>
+        <v>181.41</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -10405,10 +10463,10 @@
         <v>21</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C370" s="18">
-        <v>129</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,10 +10474,10 @@
         <v>21</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C371" s="18">
-        <v>157.22</v>
+        <v>217.69</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -10427,10 +10485,10 @@
         <v>21</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C372" s="18">
-        <v>120.94</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -10438,10 +10496,10 @@
         <v>21</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C373" s="18">
-        <v>16.13</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -10449,10 +10507,10 @@
         <v>21</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C374" s="18">
-        <v>40.31</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -10460,10 +10518,10 @@
         <v>21</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C375" s="18">
-        <v>48.38</v>
+        <v>645</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -10471,10 +10529,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C376" s="18">
-        <v>181.41</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -10482,10 +10540,10 @@
         <v>21</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C377" s="18">
-        <v>60.47</v>
+        <v>387</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -10493,10 +10551,10 @@
         <v>21</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C378" s="18">
-        <v>161.25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -10504,10 +10562,10 @@
         <v>21</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C379" s="18">
-        <v>80.63</v>
+        <v>157.22</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -10515,10 +10573,10 @@
         <v>21</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C380" s="18">
-        <v>677.25</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -10526,10 +10584,10 @@
         <v>21</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C381" s="18">
-        <v>225.75</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -10537,10 +10595,10 @@
         <v>21</v>
       </c>
       <c r="B382" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C382" s="18">
-        <v>84.66</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -10548,10 +10606,10 @@
         <v>21</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C383" s="18">
-        <v>16.13</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -10559,10 +10617,10 @@
         <v>21</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C384" s="18">
-        <v>129</v>
+        <v>181.41</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -10570,10 +10628,10 @@
         <v>21</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C385" s="18">
-        <v>253.97</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -10581,10 +10639,10 @@
         <v>21</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C386" s="18">
-        <v>48.38</v>
+        <v>161.25</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -10592,10 +10650,10 @@
         <v>21</v>
       </c>
       <c r="B387" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C387" s="18">
-        <v>24.19</v>
+        <v>80.63</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -10603,10 +10661,10 @@
         <v>21</v>
       </c>
       <c r="B388" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C388" s="18">
-        <v>67.73</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -10614,10 +10672,10 @@
         <v>21</v>
       </c>
       <c r="B389" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C389" s="18">
-        <v>22.58</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -10625,10 +10683,10 @@
         <v>21</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C390" s="18">
-        <v>158.03</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -10636,10 +10694,10 @@
         <v>21</v>
       </c>
       <c r="B391" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C391" s="18">
-        <v>474.08</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -10647,10 +10705,10 @@
         <v>21</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C392" s="18">
-        <v>225.75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -10658,10 +10716,10 @@
         <v>21</v>
       </c>
       <c r="B393" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C393" s="18">
-        <v>677.25</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -10669,10 +10727,10 @@
         <v>21</v>
       </c>
       <c r="B394" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C394" s="18">
-        <v>112.88</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -10680,10 +10738,10 @@
         <v>21</v>
       </c>
       <c r="B395" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C395" s="18">
-        <v>752.5</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -10691,10 +10749,10 @@
         <v>21</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C396" s="18">
-        <v>112.88</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -10702,10 +10760,10 @@
         <v>21</v>
       </c>
       <c r="B397" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C397" s="18">
-        <v>752.5</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -10713,10 +10771,10 @@
         <v>21</v>
       </c>
       <c r="B398" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C398" s="18">
-        <v>112.88</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -10724,10 +10782,10 @@
         <v>21</v>
       </c>
       <c r="B399" s="17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C399" s="18">
-        <v>752.5</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -10735,10 +10793,10 @@
         <v>21</v>
       </c>
       <c r="B400" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C400" s="18">
-        <v>55.9</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -10746,10 +10804,10 @@
         <v>21</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C401" s="18">
-        <v>559</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -10757,10 +10815,10 @@
         <v>21</v>
       </c>
       <c r="B402" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C402" s="18">
-        <v>1677</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -10768,10 +10826,10 @@
         <v>21</v>
       </c>
       <c r="B403" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C403" s="18">
-        <v>67.73</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -10779,10 +10837,10 @@
         <v>21</v>
       </c>
       <c r="B404" s="17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C404" s="18">
-        <v>1053.5</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -10790,10 +10848,10 @@
         <v>21</v>
       </c>
       <c r="B405" s="17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C405" s="18">
-        <v>22.58</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -10801,10 +10859,10 @@
         <v>21</v>
       </c>
       <c r="B406" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C406" s="18">
-        <v>3160.5</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -10812,10 +10870,10 @@
         <v>21</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C407" s="18">
-        <v>3.01</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -10823,10 +10881,10 @@
         <v>21</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C408" s="18">
-        <v>101.59</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -10834,10 +10892,10 @@
         <v>21</v>
       </c>
       <c r="B409" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C409" s="18">
-        <v>304.76</v>
+        <v>559</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -10845,10 +10903,10 @@
         <v>21</v>
       </c>
       <c r="B410" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C410" s="18">
-        <v>9.0299999999999994</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -10856,10 +10914,10 @@
         <v>21</v>
       </c>
       <c r="B411" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C411" s="18">
-        <v>225.75</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -10867,10 +10925,10 @@
         <v>21</v>
       </c>
       <c r="B412" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C412" s="18">
-        <v>100.78</v>
+        <v>1053.5</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -10878,10 +10936,10 @@
         <v>21</v>
       </c>
       <c r="B413" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C413" s="18">
-        <v>112.88</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -10889,10 +10947,10 @@
         <v>21</v>
       </c>
       <c r="B414" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C414" s="18">
-        <v>37.630000000000003</v>
+        <v>3160.5</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -10900,10 +10958,10 @@
         <v>21</v>
       </c>
       <c r="B415" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C415" s="18">
-        <v>30.1</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -10911,10 +10969,10 @@
         <v>21</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C416" s="18">
-        <v>22.58</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -10922,10 +10980,10 @@
         <v>21</v>
       </c>
       <c r="B417" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C417" s="18">
-        <v>63.96</v>
+        <v>304.76</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -10933,10 +10991,10 @@
         <v>21</v>
       </c>
       <c r="B418" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C418" s="18">
-        <v>191.89</v>
+        <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -10944,10 +11002,10 @@
         <v>21</v>
       </c>
       <c r="B419" s="17" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C419" s="18">
-        <v>1.51</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -10955,10 +11013,10 @@
         <v>21</v>
       </c>
       <c r="B420" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C420" s="18">
-        <v>3047.63</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -10966,10 +11024,10 @@
         <v>21</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C421" s="18">
-        <v>1015.88</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -10977,10 +11035,10 @@
         <v>21</v>
       </c>
       <c r="B422" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C422" s="18">
-        <v>3047.63</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -10988,10 +11046,10 @@
         <v>21</v>
       </c>
       <c r="B423" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C423" s="18">
-        <v>9142.8799999999992</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -10999,10 +11057,10 @@
         <v>21</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C424" s="18">
-        <v>5944.75</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -11010,10 +11068,10 @@
         <v>21</v>
       </c>
       <c r="B425" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C425" s="18">
-        <v>17834.25</v>
+        <v>63.96</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -11021,10 +11079,10 @@
         <v>21</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C426" s="18">
-        <v>27090</v>
+        <v>191.89</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -11032,10 +11090,10 @@
         <v>21</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C427" s="18">
-        <v>9030</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -11043,10 +11101,10 @@
         <v>21</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C428" s="18">
-        <v>101.59</v>
+        <v>3047.63</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -11054,10 +11112,10 @@
         <v>21</v>
       </c>
       <c r="B429" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C429" s="18">
-        <v>67.73</v>
+        <v>1015.88</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -11065,10 +11123,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C430" s="18">
-        <v>304.76</v>
+        <v>3047.63</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -11076,10 +11134,10 @@
         <v>21</v>
       </c>
       <c r="B431" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C431" s="18">
-        <v>22.58</v>
+        <v>9142.8799999999992</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,10 +11145,10 @@
         <v>21</v>
       </c>
       <c r="B432" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C432" s="18">
-        <v>55.9</v>
+        <v>5944.75</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -11098,10 +11156,10 @@
         <v>21</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C433" s="18">
-        <v>17.2</v>
+        <v>17834.25</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -11109,10 +11167,10 @@
         <v>21</v>
       </c>
       <c r="B434" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C434" s="18">
-        <v>1677</v>
+        <v>27090</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -11120,10 +11178,10 @@
         <v>21</v>
       </c>
       <c r="B435" s="17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C435" s="18">
-        <v>559</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -11131,10 +11189,10 @@
         <v>21</v>
       </c>
       <c r="B436" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C436" s="18">
-        <v>84.66</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -11142,10 +11200,10 @@
         <v>21</v>
       </c>
       <c r="B437" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C437" s="18">
-        <v>16.13</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -11153,10 +11211,10 @@
         <v>21</v>
       </c>
       <c r="B438" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C438" s="18">
-        <v>253.97</v>
+        <v>304.76</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -11164,10 +11222,10 @@
         <v>21</v>
       </c>
       <c r="B439" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C439" s="18">
-        <v>48.38</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -11175,10 +11233,10 @@
         <v>21</v>
       </c>
       <c r="B440" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C440" s="18">
-        <v>387</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -11186,10 +11244,10 @@
         <v>21</v>
       </c>
       <c r="B441" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C441" s="18">
-        <v>129</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -11197,10 +11255,10 @@
         <v>21</v>
       </c>
       <c r="B442" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C442" s="18">
-        <v>40.31</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -11208,10 +11266,10 @@
         <v>21</v>
       </c>
       <c r="B443" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C443" s="18">
-        <v>120.94</v>
+        <v>559</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -11219,10 +11277,10 @@
         <v>21</v>
       </c>
       <c r="B444" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C444" s="18">
-        <v>120.94</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -11230,7 +11288,7 @@
         <v>21</v>
       </c>
       <c r="B445" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C445" s="18">
         <v>16.13</v>
@@ -11241,10 +11299,10 @@
         <v>21</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C446" s="18">
-        <v>52.41</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -11252,7 +11310,7 @@
         <v>21</v>
       </c>
       <c r="B447" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C447" s="18">
         <v>48.38</v>
@@ -11263,10 +11321,10 @@
         <v>21</v>
       </c>
       <c r="B448" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C448" s="18">
-        <v>157.22</v>
+        <v>387</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -11274,10 +11332,10 @@
         <v>21</v>
       </c>
       <c r="B449" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C449" s="18">
-        <v>158.03</v>
+        <v>129</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -11285,10 +11343,10 @@
         <v>21</v>
       </c>
       <c r="B450" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C450" s="18">
-        <v>67.73</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -11296,10 +11354,10 @@
         <v>21</v>
       </c>
       <c r="B451" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C451" s="18">
-        <v>22.58</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -11307,10 +11365,10 @@
         <v>21</v>
       </c>
       <c r="B452" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C452" s="18">
-        <v>474.08</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -11318,10 +11376,10 @@
         <v>21</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C453" s="18">
-        <v>677.25</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -11329,10 +11387,10 @@
         <v>21</v>
       </c>
       <c r="B454" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C454" s="18">
-        <v>225.75</v>
+        <v>52.41</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -11340,10 +11398,10 @@
         <v>21</v>
       </c>
       <c r="B455" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C455" s="18">
-        <v>19.350000000000001</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -11351,10 +11409,10 @@
         <v>21</v>
       </c>
       <c r="B456" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C456" s="18">
-        <v>6.45</v>
+        <v>157.22</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -11362,10 +11420,10 @@
         <v>21</v>
       </c>
       <c r="B457" s="17" t="s">
-        <v>1156</v>
+        <v>152</v>
       </c>
       <c r="C457" s="18">
-        <v>10.84</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -11373,10 +11431,10 @@
         <v>21</v>
       </c>
       <c r="B458" s="17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C458" s="18">
-        <v>0.43</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -11384,10 +11442,10 @@
         <v>21</v>
       </c>
       <c r="B459" s="17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C459" s="18">
-        <v>13545</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -11395,10 +11453,10 @@
         <v>21</v>
       </c>
       <c r="B460" s="17" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C460" s="18">
-        <v>1693.13</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -11406,10 +11464,10 @@
         <v>21</v>
       </c>
       <c r="B461" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C461" s="18">
-        <v>6772.5</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -11417,10 +11475,10 @@
         <v>21</v>
       </c>
       <c r="B462" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C462" s="18">
-        <v>27842.5</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -11428,10 +11486,10 @@
         <v>21</v>
       </c>
       <c r="B463" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C463" s="18">
-        <v>564.38</v>
+        <v>19.350000000000001</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -11439,10 +11497,10 @@
         <v>21</v>
       </c>
       <c r="B464" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C464" s="18">
-        <v>2257.5</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -11450,10 +11508,10 @@
         <v>21</v>
       </c>
       <c r="B465" s="17" t="s">
-        <v>160</v>
+        <v>1156</v>
       </c>
       <c r="C465" s="18">
-        <v>4515</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -11461,10 +11519,10 @@
         <v>21</v>
       </c>
       <c r="B466" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C466" s="18">
-        <v>83527.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -11472,10 +11530,10 @@
         <v>21</v>
       </c>
       <c r="B467" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C467" s="18">
-        <v>12792.5</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -11483,10 +11541,10 @@
         <v>21</v>
       </c>
       <c r="B468" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C468" s="18">
-        <v>38377.5</v>
+        <v>1693.13</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -11494,10 +11552,10 @@
         <v>21</v>
       </c>
       <c r="B469" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C469" s="18">
-        <v>9.1199999999999992</v>
+        <v>6772.5</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -11505,10 +11563,10 @@
         <v>21</v>
       </c>
       <c r="B470" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C470" s="18">
-        <v>14.1</v>
+        <v>27842.5</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -11516,10 +11574,10 @@
         <v>21</v>
       </c>
       <c r="B471" s="17" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="C471" s="18">
-        <v>18.920000000000002</v>
+        <v>564.38</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,10 +11585,10 @@
         <v>21</v>
       </c>
       <c r="B472" s="17" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="C472" s="18">
-        <v>17.03</v>
+        <v>2257.5</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -11538,10 +11596,10 @@
         <v>21</v>
       </c>
       <c r="B473" s="17" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="C473" s="18">
-        <v>8.86</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -11549,10 +11607,10 @@
         <v>21</v>
       </c>
       <c r="B474" s="17" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="C474" s="18">
-        <v>10.75</v>
+        <v>83527.5</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -11560,10 +11618,10 @@
         <v>21</v>
       </c>
       <c r="B475" s="17" t="s">
-        <v>1633</v>
+        <v>159</v>
       </c>
       <c r="C475" s="18">
-        <v>50.79</v>
+        <v>12792.5</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -11571,10 +11629,10 @@
         <v>21</v>
       </c>
       <c r="B476" s="17" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="C476" s="18">
-        <v>29.07</v>
+        <v>38377.5</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -11582,10 +11640,10 @@
         <v>21</v>
       </c>
       <c r="B477" s="17" t="s">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="C477" s="18">
-        <v>47.13</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -11593,10 +11651,10 @@
         <v>21</v>
       </c>
       <c r="B478" s="17" t="s">
-        <v>320</v>
+        <v>163</v>
       </c>
       <c r="C478" s="18">
-        <v>4.13</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -11604,10 +11662,10 @@
         <v>21</v>
       </c>
       <c r="B479" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C479" s="18">
-        <v>5.16</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -11615,10 +11673,10 @@
         <v>21</v>
       </c>
       <c r="B480" s="17" t="s">
-        <v>1108</v>
+        <v>322</v>
       </c>
       <c r="C480" s="18">
-        <v>34.06</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -11626,10 +11684,10 @@
         <v>21</v>
       </c>
       <c r="B481" s="17" t="s">
-        <v>1109</v>
+        <v>324</v>
       </c>
       <c r="C481" s="18">
-        <v>34.83</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -11637,10 +11695,10 @@
         <v>21</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>1102</v>
+        <v>323</v>
       </c>
       <c r="C482" s="18">
-        <v>81.27</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -11648,10 +11706,10 @@
         <v>21</v>
       </c>
       <c r="B483" s="17" t="s">
-        <v>1107</v>
+        <v>1633</v>
       </c>
       <c r="C483" s="18">
-        <v>27.09</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -11659,10 +11717,10 @@
         <v>21</v>
       </c>
       <c r="B484" s="17" t="s">
-        <v>1105</v>
+        <v>328</v>
       </c>
       <c r="C484" s="18">
-        <v>98.3</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -11670,10 +11728,10 @@
         <v>21</v>
       </c>
       <c r="B485" s="17" t="s">
-        <v>1103</v>
+        <v>330</v>
       </c>
       <c r="C485" s="18">
-        <v>125.39</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -11681,10 +11739,10 @@
         <v>21</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>1104</v>
+        <v>320</v>
       </c>
       <c r="C486" s="18">
-        <v>105.26</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -11692,10 +11750,10 @@
         <v>21</v>
       </c>
       <c r="B487" s="17" t="s">
-        <v>1113</v>
+        <v>319</v>
       </c>
       <c r="C487" s="18">
-        <v>246.91</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -11703,10 +11761,10 @@
         <v>21</v>
       </c>
       <c r="B488" s="17" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C488" s="18">
-        <v>61.15</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -11714,10 +11772,10 @@
         <v>21</v>
       </c>
       <c r="B489" s="17" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C489" s="18">
-        <v>217.49</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -11725,10 +11783,10 @@
         <v>21</v>
       </c>
       <c r="B490" s="17" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C490" s="18">
-        <v>24.77</v>
+        <v>81.27</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -11736,10 +11794,10 @@
         <v>21</v>
       </c>
       <c r="B491" s="17" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C491" s="18">
-        <v>54.18</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,10 +11805,10 @@
         <v>21</v>
       </c>
       <c r="B492" s="17" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C492" s="18">
-        <v>41.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -11758,10 +11816,10 @@
         <v>21</v>
       </c>
       <c r="B493" s="17" t="s">
-        <v>1136</v>
+        <v>1103</v>
       </c>
       <c r="C493" s="18">
-        <v>23.99</v>
+        <v>125.39</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -11769,10 +11827,10 @@
         <v>21</v>
       </c>
       <c r="B494" s="17" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
       <c r="C494" s="18">
-        <v>102.17</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -11780,10 +11838,10 @@
         <v>21</v>
       </c>
       <c r="B495" s="17" t="s">
-        <v>1141</v>
+        <v>1113</v>
       </c>
       <c r="C495" s="18">
-        <v>243.81</v>
+        <v>246.91</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -11791,273 +11849,241 @@
         <v>21</v>
       </c>
       <c r="B496" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C496" s="18">
+        <v>61.15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>21</v>
+      </c>
+      <c r="B497" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C497" s="18">
+        <v>217.49</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>21</v>
+      </c>
+      <c r="B498" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C498" s="18">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>21</v>
+      </c>
+      <c r="B499" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C499" s="18">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>21</v>
+      </c>
+      <c r="B500" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C500" s="18">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>21</v>
+      </c>
+      <c r="B501" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C501" s="18">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>21</v>
+      </c>
+      <c r="B502" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C502" s="18">
+        <v>102.17</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>21</v>
+      </c>
+      <c r="B503" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C503" s="18">
+        <v>243.81</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>21</v>
+      </c>
+      <c r="B504" s="17" t="s">
         <v>1129</v>
       </c>
-      <c r="C496" s="18">
+      <c r="C504" s="18">
         <v>58.05</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>21</v>
-      </c>
-      <c r="B497" s="17" t="s">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>21</v>
+      </c>
+      <c r="B505" s="17" t="s">
         <v>1132</v>
       </c>
-      <c r="C497" s="18">
+      <c r="C505" s="18">
         <v>122.29</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>21</v>
-      </c>
-      <c r="B498" s="17" t="s">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>21</v>
+      </c>
+      <c r="B506" s="17" t="s">
         <v>1135</v>
       </c>
-      <c r="C498" s="18">
+      <c r="C506" s="18">
         <v>21.67</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>21</v>
-      </c>
-      <c r="B499" s="17" t="s">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>21</v>
+      </c>
+      <c r="B507" s="17" t="s">
         <v>1634</v>
       </c>
-      <c r="C499" s="18">
+      <c r="C507" s="18">
         <v>415.64</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>21</v>
-      </c>
-      <c r="B500" s="17" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>21</v>
+      </c>
+      <c r="B508" s="17" t="s">
         <v>1140</v>
       </c>
-      <c r="C500" s="18">
+      <c r="C508" s="18">
         <v>214.4</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>21</v>
-      </c>
-      <c r="B501" s="17" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>21</v>
+      </c>
+      <c r="B509" s="17" t="s">
         <v>1138</v>
       </c>
-      <c r="C501" s="18">
+      <c r="C509" s="18">
         <v>31.73</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>21</v>
-      </c>
-      <c r="B502" s="17" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>21</v>
+      </c>
+      <c r="B510" s="17" t="s">
         <v>1635</v>
       </c>
-      <c r="C502" s="18">
+      <c r="C510" s="18">
         <v>1481.44</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>21</v>
-      </c>
-      <c r="B503" s="17" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>21</v>
+      </c>
+      <c r="B511" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="C503" s="18">
+      <c r="C511" s="18">
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>21</v>
-      </c>
-      <c r="B504" s="17" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>21</v>
+      </c>
+      <c r="B512" s="17" t="s">
         <v>1636</v>
       </c>
-      <c r="C504" s="18">
+      <c r="C512" s="18">
         <v>796.45</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>21</v>
-      </c>
-      <c r="B505" s="17" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C505" s="18">
-        <v>30.96</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>21</v>
-      </c>
-      <c r="B506" s="17" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C506" s="18">
-        <v>51.08</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>21</v>
-      </c>
-      <c r="B507" s="17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C507" s="18">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>21</v>
-      </c>
-      <c r="B508" s="17" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C508" s="18">
-        <v>78.17</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>21</v>
-      </c>
-      <c r="B509" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C509" s="18">
-        <v>3.01</v>
-      </c>
-      <c r="D509" s="17"/>
-      <c r="E509" s="17"/>
-      <c r="F509" s="17"/>
-      <c r="G509" s="17"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>21</v>
-      </c>
-      <c r="B510" s="17" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C510" s="18">
-        <v>3.44</v>
-      </c>
-      <c r="D510" s="17"/>
-      <c r="E510" s="17"/>
-      <c r="F510" s="17"/>
-      <c r="G510" s="17"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>21</v>
-      </c>
-      <c r="B511" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C511" s="18">
-        <v>4.04</v>
-      </c>
-      <c r="D511" s="17"/>
-      <c r="E511" s="17"/>
-      <c r="F511" s="17"/>
-      <c r="G511" s="17"/>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>21</v>
-      </c>
-      <c r="B512" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C512" s="18">
-        <v>6.02</v>
-      </c>
-      <c r="D512" s="17"/>
-      <c r="E512" s="17"/>
-      <c r="F512" s="17"/>
-      <c r="G512" s="17"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>21</v>
       </c>
       <c r="B513" s="17" t="s">
-        <v>1638</v>
+        <v>1137</v>
       </c>
       <c r="C513" s="18">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D513" s="17"/>
-      <c r="E513" s="17"/>
-      <c r="F513" s="17"/>
-      <c r="G513" s="17"/>
+        <v>30.96</v>
+      </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>21</v>
       </c>
       <c r="B514" s="17" t="s">
-        <v>212</v>
+        <v>1133</v>
       </c>
       <c r="C514" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="D514" s="17"/>
-      <c r="E514" s="17"/>
-      <c r="F514" s="17"/>
-      <c r="G514" s="17"/>
+        <v>51.08</v>
+      </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>21</v>
       </c>
       <c r="B515" s="17" t="s">
-        <v>214</v>
+        <v>1134</v>
       </c>
       <c r="C515" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="D515" s="17"/>
-      <c r="E515" s="17"/>
-      <c r="F515" s="17"/>
-      <c r="G515" s="17"/>
+        <v>95.2</v>
+      </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>21</v>
       </c>
       <c r="B516" s="17" t="s">
-        <v>213</v>
+        <v>1131</v>
       </c>
       <c r="C516" s="18">
-        <v>7.74</v>
-      </c>
-      <c r="D516" s="17"/>
-      <c r="E516" s="17"/>
-      <c r="F516" s="17"/>
-      <c r="G516" s="17"/>
+        <v>78.17</v>
+      </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>21</v>
       </c>
       <c r="B517" s="17" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C517" s="18">
-        <v>8.94</v>
+        <v>3.01</v>
       </c>
       <c r="D517" s="17"/>
       <c r="E517" s="17"/>
@@ -12069,10 +12095,10 @@
         <v>21</v>
       </c>
       <c r="B518" s="17" t="s">
-        <v>215</v>
+        <v>1637</v>
       </c>
       <c r="C518" s="18">
-        <v>26.83</v>
+        <v>3.44</v>
       </c>
       <c r="D518" s="17"/>
       <c r="E518" s="17"/>
@@ -12084,10 +12110,10 @@
         <v>21</v>
       </c>
       <c r="B519" s="17" t="s">
-        <v>1639</v>
+        <v>211</v>
       </c>
       <c r="C519" s="18">
-        <v>2.92</v>
+        <v>4.04</v>
       </c>
       <c r="D519" s="17"/>
       <c r="E519" s="17"/>
@@ -12099,10 +12125,10 @@
         <v>21</v>
       </c>
       <c r="B520" s="17" t="s">
-        <v>1640</v>
+        <v>208</v>
       </c>
       <c r="C520" s="18">
-        <v>2.92</v>
+        <v>6.02</v>
       </c>
       <c r="D520" s="17"/>
       <c r="E520" s="17"/>
@@ -12114,10 +12140,10 @@
         <v>21</v>
       </c>
       <c r="B521" s="17" t="s">
-        <v>205</v>
+        <v>1638</v>
       </c>
       <c r="C521" s="18">
-        <v>4.3</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D521" s="17"/>
       <c r="E521" s="17"/>
@@ -12129,10 +12155,10 @@
         <v>21</v>
       </c>
       <c r="B522" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C522" s="18">
-        <v>2.58</v>
+        <v>5.16</v>
       </c>
       <c r="D522" s="17"/>
       <c r="E522" s="17"/>
@@ -12144,10 +12170,10 @@
         <v>21</v>
       </c>
       <c r="B523" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C523" s="18">
-        <v>4.3</v>
+        <v>5.16</v>
       </c>
       <c r="D523" s="17"/>
       <c r="E523" s="17"/>
@@ -12159,10 +12185,10 @@
         <v>21</v>
       </c>
       <c r="B524" s="17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C524" s="18">
-        <v>10.32</v>
+        <v>7.74</v>
       </c>
       <c r="D524" s="17"/>
       <c r="E524" s="17"/>
@@ -12174,10 +12200,10 @@
         <v>21</v>
       </c>
       <c r="B525" s="17" t="s">
-        <v>1641</v>
+        <v>215</v>
       </c>
       <c r="C525" s="18">
-        <v>5.16</v>
+        <v>8.94</v>
       </c>
       <c r="D525" s="17"/>
       <c r="E525" s="17"/>
@@ -12189,10 +12215,10 @@
         <v>21</v>
       </c>
       <c r="B526" s="17" t="s">
-        <v>1642</v>
+        <v>215</v>
       </c>
       <c r="C526" s="18">
-        <v>7.74</v>
+        <v>26.83</v>
       </c>
       <c r="D526" s="17"/>
       <c r="E526" s="17"/>
@@ -12204,10 +12230,10 @@
         <v>21</v>
       </c>
       <c r="B527" s="17" t="s">
-        <v>216</v>
+        <v>1639</v>
       </c>
       <c r="C527" s="18">
-        <v>6.88</v>
+        <v>2.92</v>
       </c>
       <c r="D527" s="17"/>
       <c r="E527" s="17"/>
@@ -12219,10 +12245,10 @@
         <v>21</v>
       </c>
       <c r="B528" s="17" t="s">
-        <v>220</v>
+        <v>1640</v>
       </c>
       <c r="C528" s="18">
-        <v>7.74</v>
+        <v>2.92</v>
       </c>
       <c r="D528" s="17"/>
       <c r="E528" s="17"/>
@@ -12234,10 +12260,10 @@
         <v>21</v>
       </c>
       <c r="B529" s="17" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C529" s="18">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="D529" s="17"/>
       <c r="E529" s="17"/>
@@ -12249,10 +12275,10 @@
         <v>21</v>
       </c>
       <c r="B530" s="17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C530" s="18">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="D530" s="17"/>
       <c r="E530" s="17"/>
@@ -12264,7 +12290,7 @@
         <v>21</v>
       </c>
       <c r="B531" s="17" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C531" s="18">
         <v>4.3</v>
@@ -12279,10 +12305,10 @@
         <v>21</v>
       </c>
       <c r="B532" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C532" s="18">
-        <v>1.72</v>
+        <v>10.32</v>
       </c>
       <c r="D532" s="17"/>
       <c r="E532" s="17"/>
@@ -12294,10 +12320,10 @@
         <v>21</v>
       </c>
       <c r="B533" s="17" t="s">
-        <v>223</v>
+        <v>1641</v>
       </c>
       <c r="C533" s="18">
-        <v>2.58</v>
+        <v>5.16</v>
       </c>
       <c r="D533" s="17"/>
       <c r="E533" s="17"/>
@@ -12309,10 +12335,10 @@
         <v>21</v>
       </c>
       <c r="B534" s="17" t="s">
-        <v>225</v>
+        <v>1642</v>
       </c>
       <c r="C534" s="18">
-        <v>1.72</v>
+        <v>7.74</v>
       </c>
       <c r="D534" s="17"/>
       <c r="E534" s="17"/>
@@ -12324,10 +12350,10 @@
         <v>21</v>
       </c>
       <c r="B535" s="17" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C535" s="18">
-        <v>1.1499999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D535" s="17"/>
       <c r="E535" s="17"/>
@@ -12339,10 +12365,10 @@
         <v>21</v>
       </c>
       <c r="B536" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C536" s="18">
-        <v>6.88</v>
+        <v>7.74</v>
       </c>
       <c r="D536" s="17"/>
       <c r="E536" s="17"/>
@@ -12354,10 +12380,10 @@
         <v>21</v>
       </c>
       <c r="B537" s="17" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C537" s="18">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="D537" s="17"/>
       <c r="E537" s="17"/>
@@ -12369,10 +12395,10 @@
         <v>21</v>
       </c>
       <c r="B538" s="17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C538" s="18">
-        <v>2.3199999999999998</v>
+        <v>2.92</v>
       </c>
       <c r="D538" s="17"/>
       <c r="E538" s="17"/>
@@ -12384,10 +12410,10 @@
         <v>21</v>
       </c>
       <c r="B539" s="17" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C539" s="18">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="D539" s="17"/>
       <c r="E539" s="17"/>
@@ -12399,10 +12425,10 @@
         <v>21</v>
       </c>
       <c r="B540" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C540" s="18">
-        <v>2.3199999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="D540" s="17"/>
       <c r="E540" s="17"/>
@@ -12414,10 +12440,10 @@
         <v>21</v>
       </c>
       <c r="B541" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C541" s="18">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="D541" s="17"/>
       <c r="E541" s="17"/>
@@ -12429,10 +12455,10 @@
         <v>21</v>
       </c>
       <c r="B542" s="17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C542" s="18">
-        <v>5.85</v>
+        <v>1.72</v>
       </c>
       <c r="D542" s="17"/>
       <c r="E542" s="17"/>
@@ -12444,10 +12470,10 @@
         <v>21</v>
       </c>
       <c r="B543" s="17" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C543" s="18">
-        <v>8.6</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D543" s="17"/>
       <c r="E543" s="17"/>
@@ -12459,10 +12485,10 @@
         <v>21</v>
       </c>
       <c r="B544" s="17" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C544" s="18">
-        <v>1.72</v>
+        <v>6.88</v>
       </c>
       <c r="D544" s="17"/>
       <c r="E544" s="17"/>
@@ -12474,10 +12500,10 @@
         <v>21</v>
       </c>
       <c r="B545" s="17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C545" s="18">
-        <v>86</v>
+        <v>3.44</v>
       </c>
       <c r="D545" s="17"/>
       <c r="E545" s="17"/>
@@ -12489,10 +12515,10 @@
         <v>21</v>
       </c>
       <c r="B546" s="17" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C546" s="18">
-        <v>3225</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D546" s="17"/>
       <c r="E546" s="17"/>
@@ -12504,10 +12530,10 @@
         <v>21</v>
       </c>
       <c r="B547" s="17" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C547" s="18">
-        <v>9675</v>
+        <v>3.44</v>
       </c>
       <c r="D547" s="17"/>
       <c r="E547" s="17"/>
@@ -12519,10 +12545,10 @@
         <v>21</v>
       </c>
       <c r="B548" s="17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C548" s="18">
-        <v>1.72</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D548" s="17"/>
       <c r="E548" s="17"/>
@@ -12534,10 +12560,10 @@
         <v>21</v>
       </c>
       <c r="B549" s="17" t="s">
-        <v>1643</v>
+        <v>232</v>
       </c>
       <c r="C549" s="18">
-        <v>6.88</v>
+        <v>2.06</v>
       </c>
       <c r="D549" s="17"/>
       <c r="E549" s="17"/>
@@ -12549,10 +12575,10 @@
         <v>21</v>
       </c>
       <c r="B550" s="17" t="s">
-        <v>1644</v>
+        <v>234</v>
       </c>
       <c r="C550" s="18">
-        <v>4.5599999999999996</v>
+        <v>5.85</v>
       </c>
       <c r="D550" s="17"/>
       <c r="E550" s="17"/>
@@ -12564,10 +12590,10 @@
         <v>21</v>
       </c>
       <c r="B551" s="17" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C551" s="18">
-        <v>4.5599999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="D551" s="17"/>
       <c r="E551" s="17"/>
@@ -12579,10 +12605,10 @@
         <v>21</v>
       </c>
       <c r="B552" s="17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C552" s="18">
-        <v>3.44</v>
+        <v>1.72</v>
       </c>
       <c r="D552" s="17"/>
       <c r="E552" s="17"/>
@@ -12594,10 +12620,10 @@
         <v>21</v>
       </c>
       <c r="B553" s="17" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C553" s="18">
-        <v>10.32</v>
+        <v>86</v>
       </c>
       <c r="D553" s="17"/>
       <c r="E553" s="17"/>
@@ -12609,10 +12635,10 @@
         <v>21</v>
       </c>
       <c r="B554" s="17" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C554" s="18">
-        <v>6.88</v>
+        <v>3225</v>
       </c>
       <c r="D554" s="17"/>
       <c r="E554" s="17"/>
@@ -12624,10 +12650,10 @@
         <v>21</v>
       </c>
       <c r="B555" s="17" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C555" s="18">
-        <v>34.4</v>
+        <v>9675</v>
       </c>
       <c r="D555" s="17"/>
       <c r="E555" s="17"/>
@@ -12639,10 +12665,10 @@
         <v>21</v>
       </c>
       <c r="B556" s="17" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C556" s="18">
-        <v>34.4</v>
+        <v>1.72</v>
       </c>
       <c r="D556" s="17"/>
       <c r="E556" s="17"/>
@@ -12654,7 +12680,7 @@
         <v>21</v>
       </c>
       <c r="B557" s="17" t="s">
-        <v>256</v>
+        <v>1643</v>
       </c>
       <c r="C557" s="18">
         <v>6.88</v>
@@ -12669,10 +12695,10 @@
         <v>21</v>
       </c>
       <c r="B558" s="17" t="s">
-        <v>1092</v>
+        <v>1644</v>
       </c>
       <c r="C558" s="18">
-        <v>1.72</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D558" s="17"/>
       <c r="E558" s="17"/>
@@ -12684,10 +12710,10 @@
         <v>21</v>
       </c>
       <c r="B559" s="17" t="s">
-        <v>1093</v>
+        <v>244</v>
       </c>
       <c r="C559" s="18">
-        <v>1.72</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D559" s="17"/>
       <c r="E559" s="17"/>
@@ -12699,10 +12725,10 @@
         <v>21</v>
       </c>
       <c r="B560" s="17" t="s">
-        <v>1094</v>
+        <v>245</v>
       </c>
       <c r="C560" s="18">
-        <v>5.16</v>
+        <v>3.44</v>
       </c>
       <c r="D560" s="17"/>
       <c r="E560" s="17"/>
@@ -12714,10 +12740,10 @@
         <v>21</v>
       </c>
       <c r="B561" s="17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C561" s="18">
-        <v>4300</v>
+        <v>10.32</v>
       </c>
       <c r="D561" s="17"/>
       <c r="E561" s="17"/>
@@ -12729,10 +12755,10 @@
         <v>21</v>
       </c>
       <c r="B562" s="17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C562" s="18">
-        <v>3.44</v>
+        <v>6.88</v>
       </c>
       <c r="D562" s="17"/>
       <c r="E562" s="17"/>
@@ -12744,10 +12770,10 @@
         <v>21</v>
       </c>
       <c r="B563" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C563" s="18">
-        <v>10.32</v>
+        <v>34.4</v>
       </c>
       <c r="D563" s="17"/>
       <c r="E563" s="17"/>
@@ -12759,10 +12785,10 @@
         <v>21</v>
       </c>
       <c r="B564" s="17" t="s">
-        <v>1095</v>
+        <v>255</v>
       </c>
       <c r="C564" s="18">
-        <v>1.72</v>
+        <v>34.4</v>
       </c>
       <c r="D564" s="17"/>
       <c r="E564" s="17"/>
@@ -12774,10 +12800,10 @@
         <v>21</v>
       </c>
       <c r="B565" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C565" s="18">
-        <v>2.58</v>
+        <v>6.88</v>
       </c>
       <c r="D565" s="17"/>
       <c r="E565" s="17"/>
@@ -12789,10 +12815,10 @@
         <v>21</v>
       </c>
       <c r="B566" s="17" t="s">
-        <v>262</v>
+        <v>1092</v>
       </c>
       <c r="C566" s="18">
-        <v>6.71</v>
+        <v>1.72</v>
       </c>
       <c r="D566" s="17"/>
       <c r="E566" s="17"/>
@@ -12804,10 +12830,10 @@
         <v>21</v>
       </c>
       <c r="B567" s="17" t="s">
-        <v>264</v>
+        <v>1093</v>
       </c>
       <c r="C567" s="18">
-        <v>17.89</v>
+        <v>1.72</v>
       </c>
       <c r="D567" s="17"/>
       <c r="E567" s="17"/>
@@ -12819,10 +12845,10 @@
         <v>21</v>
       </c>
       <c r="B568" s="17" t="s">
-        <v>267</v>
+        <v>1094</v>
       </c>
       <c r="C568" s="18">
-        <v>30.79</v>
+        <v>5.16</v>
       </c>
       <c r="D568" s="17"/>
       <c r="E568" s="17"/>
@@ -12834,10 +12860,10 @@
         <v>21</v>
       </c>
       <c r="B569" s="17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C569" s="18">
-        <v>0.17</v>
+        <v>4300</v>
       </c>
       <c r="D569" s="17"/>
       <c r="E569" s="17"/>
@@ -12849,7 +12875,7 @@
         <v>21</v>
       </c>
       <c r="B570" s="17" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C570" s="18">
         <v>3.44</v>
@@ -12864,10 +12890,10 @@
         <v>21</v>
       </c>
       <c r="B571" s="17" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C571" s="18">
-        <v>3.01</v>
+        <v>10.32</v>
       </c>
       <c r="D571" s="17"/>
       <c r="E571" s="17"/>
@@ -12879,10 +12905,10 @@
         <v>21</v>
       </c>
       <c r="B572" s="17" t="s">
-        <v>271</v>
+        <v>1095</v>
       </c>
       <c r="C572" s="18">
-        <v>4.3</v>
+        <v>1.72</v>
       </c>
       <c r="D572" s="17"/>
       <c r="E572" s="17"/>
@@ -12894,10 +12920,10 @@
         <v>21</v>
       </c>
       <c r="B573" s="17" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C573" s="18">
-        <v>8.6</v>
+        <v>2.58</v>
       </c>
       <c r="D573" s="17"/>
       <c r="E573" s="17"/>
@@ -12909,10 +12935,10 @@
         <v>21</v>
       </c>
       <c r="B574" s="17" t="s">
-        <v>1645</v>
+        <v>262</v>
       </c>
       <c r="C574" s="18">
-        <v>25.8</v>
+        <v>6.71</v>
       </c>
       <c r="D574" s="17"/>
       <c r="E574" s="17"/>
@@ -12924,10 +12950,10 @@
         <v>21</v>
       </c>
       <c r="B575" s="17" t="s">
-        <v>1646</v>
+        <v>264</v>
       </c>
       <c r="C575" s="18">
-        <v>47.3</v>
+        <v>17.89</v>
       </c>
       <c r="D575" s="17"/>
       <c r="E575" s="17"/>
@@ -12939,10 +12965,10 @@
         <v>21</v>
       </c>
       <c r="B576" s="17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C576" s="18">
-        <v>8.6</v>
+        <v>30.79</v>
       </c>
       <c r="D576" s="17"/>
       <c r="E576" s="17"/>
@@ -12954,10 +12980,10 @@
         <v>21</v>
       </c>
       <c r="B577" s="17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C577" s="18">
-        <v>40.31</v>
+        <v>0.17</v>
       </c>
       <c r="D577" s="17"/>
       <c r="E577" s="17"/>
@@ -12969,10 +12995,10 @@
         <v>21</v>
       </c>
       <c r="B578" s="17" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C578" s="18">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="D578" s="17"/>
       <c r="E578" s="17"/>
@@ -12984,10 +13010,10 @@
         <v>21</v>
       </c>
       <c r="B579" s="17" t="s">
-        <v>1096</v>
+        <v>270</v>
       </c>
       <c r="C579" s="18">
-        <v>9.68</v>
+        <v>3.01</v>
       </c>
       <c r="D579" s="17"/>
       <c r="E579" s="17"/>
@@ -12999,10 +13025,10 @@
         <v>21</v>
       </c>
       <c r="B580" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C580" s="18">
-        <v>16.13</v>
+        <v>4.3</v>
       </c>
       <c r="D580" s="17"/>
       <c r="E580" s="17"/>
@@ -13014,10 +13040,10 @@
         <v>21</v>
       </c>
       <c r="B581" s="17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C581" s="18">
-        <v>173.34</v>
+        <v>8.6</v>
       </c>
       <c r="D581" s="17"/>
       <c r="E581" s="17"/>
@@ -13029,10 +13055,10 @@
         <v>21</v>
       </c>
       <c r="B582" s="17" t="s">
-        <v>278</v>
+        <v>1645</v>
       </c>
       <c r="C582" s="18">
-        <v>80.63</v>
+        <v>25.8</v>
       </c>
       <c r="D582" s="17"/>
       <c r="E582" s="17"/>
@@ -13044,10 +13070,10 @@
         <v>21</v>
       </c>
       <c r="B583" s="17" t="s">
-        <v>279</v>
+        <v>1646</v>
       </c>
       <c r="C583" s="18">
-        <v>12.09</v>
+        <v>47.3</v>
       </c>
       <c r="D583" s="17"/>
       <c r="E583" s="17"/>
@@ -13059,10 +13085,10 @@
         <v>21</v>
       </c>
       <c r="B584" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C584" s="18">
-        <v>12.09</v>
+        <v>8.6</v>
       </c>
       <c r="D584" s="17"/>
       <c r="E584" s="17"/>
@@ -13074,10 +13100,10 @@
         <v>21</v>
       </c>
       <c r="B585" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C585" s="18">
-        <v>129</v>
+        <v>40.31</v>
       </c>
       <c r="D585" s="17"/>
       <c r="E585" s="17"/>
@@ -13089,10 +13115,10 @@
         <v>21</v>
       </c>
       <c r="B586" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C586" s="18">
-        <v>4300</v>
+        <v>4.3</v>
       </c>
       <c r="D586" s="17"/>
       <c r="E586" s="17"/>
@@ -13104,10 +13130,10 @@
         <v>21</v>
       </c>
       <c r="B587" s="17" t="s">
-        <v>283</v>
+        <v>1096</v>
       </c>
       <c r="C587" s="18">
-        <v>120.94</v>
+        <v>9.68</v>
       </c>
       <c r="D587" s="17"/>
       <c r="E587" s="17"/>
@@ -13119,10 +13145,10 @@
         <v>21</v>
       </c>
       <c r="B588" s="17" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C588" s="18">
-        <v>17.2</v>
+        <v>16.13</v>
       </c>
       <c r="D588" s="17"/>
       <c r="E588" s="17"/>
@@ -13134,10 +13160,10 @@
         <v>21</v>
       </c>
       <c r="B589" s="17" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C589" s="18">
-        <v>8.6</v>
+        <v>173.34</v>
       </c>
       <c r="D589" s="17"/>
       <c r="E589" s="17"/>
@@ -13149,10 +13175,10 @@
         <v>21</v>
       </c>
       <c r="B590" s="17" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C590" s="18">
-        <v>8.6</v>
+        <v>80.63</v>
       </c>
       <c r="D590" s="17"/>
       <c r="E590" s="17"/>
@@ -13164,10 +13190,10 @@
         <v>21</v>
       </c>
       <c r="B591" s="17" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C591" s="18">
-        <v>21.5</v>
+        <v>12.09</v>
       </c>
       <c r="D591" s="17"/>
       <c r="E591" s="17"/>
@@ -13179,10 +13205,10 @@
         <v>21</v>
       </c>
       <c r="B592" s="17" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C592" s="18">
-        <v>64.5</v>
+        <v>12.09</v>
       </c>
       <c r="D592" s="17"/>
       <c r="E592" s="17"/>
@@ -13194,10 +13220,10 @@
         <v>21</v>
       </c>
       <c r="B593" s="17" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C593" s="18">
-        <v>32.25</v>
+        <v>129</v>
       </c>
       <c r="D593" s="17"/>
       <c r="E593" s="17"/>
@@ -13209,10 +13235,10 @@
         <v>21</v>
       </c>
       <c r="B594" s="17" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C594" s="18">
-        <v>64.5</v>
+        <v>4300</v>
       </c>
       <c r="D594" s="17"/>
       <c r="E594" s="17"/>
@@ -13224,10 +13250,10 @@
         <v>21</v>
       </c>
       <c r="B595" s="17" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C595" s="18">
-        <v>43</v>
+        <v>120.94</v>
       </c>
       <c r="D595" s="17"/>
       <c r="E595" s="17"/>
@@ -13239,10 +13265,10 @@
         <v>21</v>
       </c>
       <c r="B596" s="17" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C596" s="18">
-        <v>172</v>
+        <v>17.2</v>
       </c>
       <c r="D596" s="17"/>
       <c r="E596" s="17"/>
@@ -13254,10 +13280,10 @@
         <v>21</v>
       </c>
       <c r="B597" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C597" s="18">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="D597" s="17"/>
       <c r="E597" s="17"/>
@@ -13269,10 +13295,10 @@
         <v>21</v>
       </c>
       <c r="B598" s="17" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C598" s="18">
-        <v>143.36000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D598" s="17"/>
       <c r="E598" s="17"/>
@@ -13284,10 +13310,10 @@
         <v>21</v>
       </c>
       <c r="B599" s="17" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C599" s="18">
-        <v>14.36</v>
+        <v>21.5</v>
       </c>
       <c r="D599" s="17"/>
       <c r="E599" s="17"/>
@@ -13299,10 +13325,10 @@
         <v>21</v>
       </c>
       <c r="B600" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C600" s="18">
-        <v>1433.36</v>
+        <v>64.5</v>
       </c>
       <c r="D600" s="17"/>
       <c r="E600" s="17"/>
@@ -13314,10 +13340,10 @@
         <v>21</v>
       </c>
       <c r="B601" s="17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C601" s="18">
-        <v>9.68</v>
+        <v>32.25</v>
       </c>
       <c r="D601" s="17"/>
       <c r="E601" s="17"/>
@@ -13329,10 +13355,10 @@
         <v>21</v>
       </c>
       <c r="B602" s="17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C602" s="18">
-        <v>6.02</v>
+        <v>64.5</v>
       </c>
       <c r="D602" s="17"/>
       <c r="E602" s="17"/>
@@ -13344,10 +13370,10 @@
         <v>21</v>
       </c>
       <c r="B603" s="17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C603" s="18">
-        <v>4.3</v>
+        <v>43</v>
       </c>
       <c r="D603" s="17"/>
       <c r="E603" s="17"/>
@@ -13359,10 +13385,10 @@
         <v>21</v>
       </c>
       <c r="B604" s="17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C604" s="18">
-        <v>8.6</v>
+        <v>172</v>
       </c>
       <c r="D604" s="17"/>
       <c r="E604" s="17"/>
@@ -13374,10 +13400,10 @@
         <v>21</v>
       </c>
       <c r="B605" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C605" s="18">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="D605" s="17"/>
       <c r="E605" s="17"/>
@@ -13389,10 +13415,10 @@
         <v>21</v>
       </c>
       <c r="B606" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C606" s="18">
-        <v>1.72</v>
+        <v>143.36000000000001</v>
       </c>
       <c r="D606" s="17"/>
       <c r="E606" s="17"/>
@@ -13404,10 +13430,10 @@
         <v>21</v>
       </c>
       <c r="B607" s="17" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C607" s="18">
-        <v>6.02</v>
+        <v>14.36</v>
       </c>
       <c r="D607" s="17"/>
       <c r="E607" s="17"/>
@@ -13419,10 +13445,10 @@
         <v>21</v>
       </c>
       <c r="B608" s="17" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C608" s="18">
-        <v>3.44</v>
+        <v>1433.36</v>
       </c>
       <c r="D608" s="17"/>
       <c r="E608" s="17"/>
@@ -13434,10 +13460,10 @@
         <v>21</v>
       </c>
       <c r="B609" s="17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C609" s="18">
-        <v>21.5</v>
+        <v>9.68</v>
       </c>
       <c r="D609" s="17"/>
       <c r="E609" s="17"/>
@@ -13449,10 +13475,10 @@
         <v>21</v>
       </c>
       <c r="B610" s="17" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C610" s="18">
-        <v>258</v>
+        <v>6.02</v>
       </c>
       <c r="D610" s="17"/>
       <c r="E610" s="17"/>
@@ -13464,7 +13490,7 @@
         <v>21</v>
       </c>
       <c r="B611" s="17" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C611" s="18">
         <v>4.3</v>
@@ -13479,10 +13505,10 @@
         <v>21</v>
       </c>
       <c r="B612" s="17" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C612" s="18">
-        <v>12.9</v>
+        <v>8.6</v>
       </c>
       <c r="D612" s="17"/>
       <c r="E612" s="17"/>
@@ -13494,10 +13520,10 @@
         <v>21</v>
       </c>
       <c r="B613" s="17" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C613" s="18">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="D613" s="17"/>
       <c r="E613" s="17"/>
@@ -13509,10 +13535,10 @@
         <v>21</v>
       </c>
       <c r="B614" s="17" t="s">
-        <v>1099</v>
+        <v>309</v>
       </c>
       <c r="C614" s="18">
-        <v>6.02</v>
+        <v>1.72</v>
       </c>
       <c r="D614" s="17"/>
       <c r="E614" s="17"/>
@@ -13524,10 +13550,10 @@
         <v>21</v>
       </c>
       <c r="B615" s="17" t="s">
-        <v>1098</v>
+        <v>312</v>
       </c>
       <c r="C615" s="18">
-        <v>11.35</v>
+        <v>6.02</v>
       </c>
       <c r="D615" s="17"/>
       <c r="E615" s="17"/>
@@ -13539,10 +13565,10 @@
         <v>21</v>
       </c>
       <c r="B616" s="17" t="s">
-        <v>1100</v>
+        <v>313</v>
       </c>
       <c r="C616" s="18">
-        <v>6.02</v>
+        <v>3.44</v>
       </c>
       <c r="D616" s="17"/>
       <c r="E616" s="17"/>
@@ -13554,10 +13580,10 @@
         <v>21</v>
       </c>
       <c r="B617" s="17" t="s">
-        <v>1101</v>
+        <v>315</v>
       </c>
       <c r="C617" s="18">
-        <v>9.6999999999999993</v>
+        <v>21.5</v>
       </c>
       <c r="D617" s="17"/>
       <c r="E617" s="17"/>
@@ -13566,255 +13592,287 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>3</v>
-      </c>
-      <c r="B618" t="s">
-        <v>164</v>
+        <v>21</v>
+      </c>
+      <c r="B618" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="C618" s="18">
-        <v>3.44</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D618" s="17"/>
+      <c r="E618" s="17"/>
+      <c r="F618" s="17"/>
+      <c r="G618" s="17"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>3</v>
-      </c>
-      <c r="B619" t="s">
-        <v>339</v>
+        <v>21</v>
+      </c>
+      <c r="B619" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="C619" s="18">
-        <v>6.88</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="D619" s="17"/>
+      <c r="E619" s="17"/>
+      <c r="F619" s="17"/>
+      <c r="G619" s="17"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>3</v>
-      </c>
-      <c r="B620" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="B620" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="C620" s="18">
-        <v>4.3</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="D620" s="17"/>
+      <c r="E620" s="17"/>
+      <c r="F620" s="17"/>
+      <c r="G620" s="17"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>3</v>
-      </c>
-      <c r="B621" t="s">
-        <v>195</v>
+        <v>21</v>
+      </c>
+      <c r="B621" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="C621" s="18">
-        <v>1.72</v>
-      </c>
+        <v>3.44</v>
+      </c>
+      <c r="D621" s="17"/>
+      <c r="E621" s="17"/>
+      <c r="F621" s="17"/>
+      <c r="G621" s="17"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B622" s="17" t="s">
-        <v>321</v>
+        <v>1099</v>
       </c>
       <c r="C622" s="18">
-        <v>18.920000000000002</v>
-      </c>
+        <v>6.02</v>
+      </c>
+      <c r="D622" s="17"/>
+      <c r="E622" s="17"/>
+      <c r="F622" s="17"/>
+      <c r="G622" s="17"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B623" s="17" t="s">
-        <v>322</v>
+        <v>1098</v>
       </c>
       <c r="C623" s="18">
-        <v>17.03</v>
-      </c>
+        <v>11.35</v>
+      </c>
+      <c r="D623" s="17"/>
+      <c r="E623" s="17"/>
+      <c r="F623" s="17"/>
+      <c r="G623" s="17"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B624" s="17" t="s">
-        <v>324</v>
+        <v>1100</v>
       </c>
       <c r="C624" s="18">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.02</v>
+      </c>
+      <c r="D624" s="17"/>
+      <c r="E624" s="17"/>
+      <c r="F624" s="17"/>
+      <c r="G624" s="17"/>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B625" s="17" t="s">
-        <v>323</v>
+        <v>1101</v>
       </c>
       <c r="C625" s="18">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D625" s="17"/>
+      <c r="E625" s="17"/>
+      <c r="F625" s="17"/>
+      <c r="G625" s="17"/>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3</v>
       </c>
-      <c r="B626" s="17" t="s">
-        <v>1633</v>
+      <c r="B626" t="s">
+        <v>164</v>
       </c>
       <c r="C626" s="18">
-        <v>50.79</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3</v>
       </c>
-      <c r="B627" s="17" t="s">
-        <v>328</v>
+      <c r="B627" t="s">
+        <v>339</v>
       </c>
       <c r="C627" s="18">
-        <v>29.07</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3</v>
       </c>
-      <c r="B628" s="17" t="s">
-        <v>330</v>
+      <c r="B628" t="s">
+        <v>197</v>
       </c>
       <c r="C628" s="18">
-        <v>47.13</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3</v>
       </c>
-      <c r="B629" s="17" t="s">
-        <v>320</v>
+      <c r="B629" t="s">
+        <v>195</v>
       </c>
       <c r="C629" s="18">
-        <v>4.13</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3</v>
       </c>
       <c r="B630" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C630" s="18">
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3</v>
       </c>
       <c r="B631" s="17" t="s">
-        <v>1136</v>
+        <v>322</v>
       </c>
       <c r="C631" s="18">
-        <v>23.99</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3</v>
       </c>
       <c r="B632" s="17" t="s">
-        <v>1130</v>
+        <v>324</v>
       </c>
       <c r="C632" s="18">
-        <v>102.17</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3</v>
       </c>
       <c r="B633" s="17" t="s">
-        <v>1141</v>
+        <v>323</v>
       </c>
       <c r="C633" s="18">
-        <v>243.81</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>3</v>
       </c>
       <c r="B634" s="17" t="s">
-        <v>1129</v>
+        <v>1633</v>
       </c>
       <c r="C634" s="18">
-        <v>58.05</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50.79</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3</v>
       </c>
       <c r="B635" s="17" t="s">
-        <v>1132</v>
+        <v>328</v>
       </c>
       <c r="C635" s="18">
-        <v>122.29</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3</v>
       </c>
       <c r="B636" s="17" t="s">
-        <v>1135</v>
+        <v>330</v>
       </c>
       <c r="C636" s="18">
-        <v>21.67</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3</v>
       </c>
       <c r="B637" s="17" t="s">
-        <v>1634</v>
+        <v>320</v>
       </c>
       <c r="C637" s="18">
-        <v>415.64</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3</v>
       </c>
       <c r="B638" s="17" t="s">
-        <v>1140</v>
+        <v>319</v>
       </c>
       <c r="C638" s="18">
-        <v>214.4</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3</v>
       </c>
       <c r="B639" s="17" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C639" s="18">
-        <v>31.73</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3</v>
       </c>
       <c r="B640" s="17" t="s">
-        <v>1635</v>
+        <v>1130</v>
       </c>
       <c r="C640" s="18">
-        <v>1481.44</v>
+        <v>102.17</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -13822,10 +13880,10 @@
         <v>3</v>
       </c>
       <c r="B641" s="17" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C641" s="18">
-        <v>38.700000000000003</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,10 +13891,10 @@
         <v>3</v>
       </c>
       <c r="B642" s="17" t="s">
-        <v>1636</v>
+        <v>1129</v>
       </c>
       <c r="C642" s="18">
-        <v>796.45</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -13844,10 +13902,10 @@
         <v>3</v>
       </c>
       <c r="B643" s="17" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C643" s="18">
-        <v>30.96</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -13855,10 +13913,10 @@
         <v>3</v>
       </c>
       <c r="B644" s="17" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C644" s="18">
-        <v>51.08</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -13866,10 +13924,10 @@
         <v>3</v>
       </c>
       <c r="B645" s="17" t="s">
-        <v>1134</v>
+        <v>1634</v>
       </c>
       <c r="C645" s="18">
-        <v>95.2</v>
+        <v>415.64</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -13877,16 +13935,104 @@
         <v>3</v>
       </c>
       <c r="B646" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C646" s="18">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>3</v>
+      </c>
+      <c r="B647" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C647" s="18">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>3</v>
+      </c>
+      <c r="B648" s="17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C648" s="18">
+        <v>1481.44</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>3</v>
+      </c>
+      <c r="B649" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C649" s="18">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>3</v>
+      </c>
+      <c r="B650" s="17" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C650" s="18">
+        <v>796.45</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>3</v>
+      </c>
+      <c r="B651" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C651" s="18">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>3</v>
+      </c>
+      <c r="B652" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C652" s="18">
+        <v>51.08</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>3</v>
+      </c>
+      <c r="B653" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C653" s="18">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>3</v>
+      </c>
+      <c r="B654" s="17" t="s">
         <v>1131</v>
       </c>
-      <c r="C646" s="18">
+      <c r="C654" s="18">
         <v>78.17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C646" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A75:C470">
-      <sortCondition ref="A1:A646"/>
+  <autoFilter ref="A1:C654" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:C478">
+      <sortCondition ref="A1:A654"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="670" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B5701E-08F6-4DD5-8D15-2ECA10FCCE55}"/>
+  <xr:revisionPtr revIDLastSave="673" documentId="13_ncr:1_{2B31B76D-B9D1-454A-BEE1-589F3332AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99A127E-30CA-4252-9406-580C6EEB3AAC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5697" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5697" uniqueCount="1685">
   <si>
     <t>Plan Name</t>
   </si>
@@ -5099,9 +5099,6 @@
   </si>
   <si>
     <t>M365 G5 FUSL GCCH Sub Per User</t>
-  </si>
-  <si>
-    <t>Enclave One (GCC-High)</t>
   </si>
   <si>
     <t>Enclave One</t>
@@ -5599,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE40B50-ADD7-4F1C-8302-825C83271F83}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5686,7 +5683,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>13</v>
@@ -5697,10 +5694,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1684</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1685</v>
       </c>
       <c r="C3" s="9">
         <v>4188</v>
@@ -5708,7 +5705,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>15</v>
@@ -6336,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G654"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1986166-C41C-46D3-9FFA-BCD26539D987}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ariento Plans'!$A$1:$A$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Microsoft Licenses'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$674</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$684</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5744" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="1713">
   <si>
     <t>Plan Name</t>
   </si>
@@ -4993,18 +4993,6 @@
     <t>Planner and Project Plan 5</t>
   </si>
   <si>
-    <t>Exchange Online (Plan 1) (GCC Pricing)</t>
-  </si>
-  <si>
-    <t>Microsoft Teams Premium (GCC Pricing)</t>
-  </si>
-  <si>
-    <t>Office 365 G1 (GCC Pricing)</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Office 365 (Plan 1) (GCC Pricing)</t>
-  </si>
-  <si>
     <t>CloudPC Ent 4 vCPU, 16 GB, 256 GB for FedRAMP (GCC Pricing)</t>
   </si>
   <si>
@@ -5044,9 +5032,6 @@
     <t>CloudPC Ent 16 vCPU, 64 GB, 1 TB for FedRAMP (GCC Pricing)</t>
   </si>
   <si>
-    <t>Microsoft 365 G5 (GCC Pricing)</t>
-  </si>
-  <si>
     <t>Defender O365 P1 GCCH Sub Per User</t>
   </si>
   <si>
@@ -5174,6 +5159,36 @@
   </si>
   <si>
     <t>Microsoft 365 Business Premium *Monthly</t>
+  </si>
+  <si>
+    <t>Exchange Online (Plan 1) (GCC Pricing) *Monthly Term</t>
+  </si>
+  <si>
+    <t>Exchange Online (Plan 1) (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Microsoft Teams Premium (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Microsoft Teams Premium (GCC Pricing) *Monthly Term</t>
+  </si>
+  <si>
+    <t>Office 365 G1 (GCC Pricing) *Monthly Term</t>
+  </si>
+  <si>
+    <t>Office 365 G1 (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Office 365 (Plan 1) (GCC Pricing) *Monthly Term</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Office 365 (Plan 1) (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Microsoft 365 G5 (GCC Pricing) *Monthly Term</t>
+  </si>
+  <si>
+    <t>Microsoft 365 G5 (GCC Pricing) *Annual Term</t>
   </si>
 </sst>
 </file>
@@ -5676,12 +5691,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -5742,7 +5757,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -5753,10 +5768,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B3" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C3" s="9">
         <v>4188</v>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5775,7 +5790,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -5786,10 +5801,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B6" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="C6" s="9">
         <v>349</v>
@@ -5797,7 +5812,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -6423,16 +6438,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G674"/>
+  <dimension ref="A1:G684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6452,7 +6467,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="C2" s="19">
         <v>57.405000000000001</v>
@@ -6463,7 +6478,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="C3" s="19">
         <v>162.66899999999998</v>
@@ -6474,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="C4" s="19">
         <v>159.31499999999997</v>
@@ -6485,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="C5" s="19">
         <v>26.186999999999998</v>
@@ -6496,7 +6511,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="C6" s="19">
         <v>963.11</v>
@@ -6507,7 +6522,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="C7" s="19">
         <v>479.88</v>
@@ -6518,7 +6533,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="C8" s="19">
         <v>619.19999999999993</v>
@@ -6529,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="C9" s="19">
         <v>433.44000000000005</v>
@@ -6540,7 +6555,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="C10" s="19">
         <v>634.68000000000006</v>
@@ -6551,7 +6566,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="C11" s="19">
         <v>774</v>
@@ -6562,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="C12" s="19">
         <v>1021.6800000000001</v>
@@ -6573,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="C13" s="19">
         <v>1161</v>
@@ -6584,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="C14" s="19">
         <v>1563.48</v>
@@ -6595,7 +6610,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C15" s="19">
         <v>1904.0399999999997</v>
@@ -6606,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="C16" s="19">
         <v>2043.3600000000001</v>
@@ -6617,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="C17" s="19">
         <v>2445.8399999999997</v>
@@ -6628,7 +6643,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="C18" s="19">
         <v>4876.2</v>
@@ -6639,7 +6654,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="C19" s="19">
         <v>4287.9599999999991</v>
@@ -6647,10 +6662,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="C20" s="19">
         <v>35.26</v>
@@ -6658,10 +6673,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="C21" s="19">
         <v>58.05</v>
@@ -6669,10 +6684,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="C22" s="19">
         <v>67.94</v>
@@ -6680,10 +6695,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="C23" s="19">
         <v>51.08</v>
@@ -6691,10 +6706,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="C24" s="19">
         <v>56.76</v>
@@ -6702,10 +6717,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="C25" s="19">
         <v>78.17</v>
@@ -6713,10 +6728,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="C26" s="19">
         <v>95.2</v>
@@ -6724,10 +6739,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="C27" s="19">
         <v>102.17</v>
@@ -6735,10 +6750,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>1685</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>1690</v>
       </c>
       <c r="C28" s="19">
         <v>122.29</v>
@@ -6746,10 +6761,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
       <c r="C29" s="19">
         <v>214.4</v>
@@ -6757,10 +6772,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
       <c r="C30" s="19">
         <v>243.81</v>
@@ -6768,10 +6783,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
       <c r="C31" s="19">
         <v>76.63</v>
@@ -6779,10 +6794,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="C32" s="19">
         <v>87.46</v>
@@ -6790,10 +6805,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="C33" s="19">
         <v>117.65</v>
@@ -6801,10 +6816,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="C34" s="19">
         <v>143.19</v>
@@ -6812,10 +6827,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="C35" s="19">
         <v>153.25</v>
@@ -6823,10 +6838,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="C36" s="19">
         <v>183.44</v>
@@ -6834,10 +6849,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="C37" s="19">
         <v>321.98</v>
@@ -6845,10 +6860,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C38" s="19">
         <v>366.1</v>
@@ -6856,10 +6871,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="19">
         <v>1161</v>
@@ -6867,10 +6882,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="C40" s="19">
         <v>1021.6800000000001</v>
@@ -6878,10 +6893,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="C41" s="19">
         <v>1563.48</v>
@@ -6889,10 +6904,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="C42" s="19">
         <v>1904.0399999999997</v>
@@ -6900,10 +6915,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="C43" s="19">
         <v>2043.3600000000001</v>
@@ -6911,10 +6926,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="C44" s="19">
         <v>2445.8399999999997</v>
@@ -6922,10 +6937,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="C45" s="19">
         <v>4287.9599999999991</v>
@@ -6933,10 +6948,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="C46" s="19">
         <v>4876.2</v>
@@ -6947,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1647</v>
+        <v>1704</v>
       </c>
       <c r="C47" s="18">
         <v>3.44</v>
@@ -6958,10 +6973,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1648</v>
+        <v>1703</v>
       </c>
       <c r="C48" s="18">
-        <v>6.02</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -6969,32 +6984,32 @@
         <v>4</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1649</v>
+        <v>1705</v>
       </c>
       <c r="C49" s="18">
-        <v>8.6</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
-        <v>1650</v>
+      <c r="B50" s="17" t="s">
+        <v>1706</v>
       </c>
       <c r="C50" s="18">
-        <v>1.72</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="B51" t="s">
-        <v>1664</v>
+      <c r="B51" s="17" t="s">
+        <v>1708</v>
       </c>
       <c r="C51" s="18">
-        <v>49.02</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -7002,85 +7017,65 @@
         <v>4</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1658</v>
+        <v>1707</v>
       </c>
       <c r="C52" s="18">
-        <v>21.67</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+        <v>10.32</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>1659</v>
+      <c r="B53" t="s">
+        <v>1710</v>
       </c>
       <c r="C53" s="18">
-        <v>23.99</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+        <v>1.72</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>1660</v>
+      <c r="B54" t="s">
+        <v>1709</v>
       </c>
       <c r="C54" s="18">
-        <v>30.96</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+        <v>2.06</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>1657</v>
+      <c r="B55" t="s">
+        <v>1712</v>
       </c>
       <c r="C55" s="18">
-        <v>31.73</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+        <v>49.02</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>1661</v>
+      <c r="B56" t="s">
+        <v>1711</v>
       </c>
       <c r="C56" s="18">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+        <v>58.82</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="C57" s="18">
-        <v>51.08</v>
+        <v>21.67</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
@@ -7092,10 +7087,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="C58" s="18">
-        <v>58.05</v>
+        <v>23.99</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -7107,10 +7102,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C59" s="18">
-        <v>78.17</v>
+        <v>30.96</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
@@ -7122,10 +7117,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C60" s="18">
-        <v>95.2</v>
+        <v>31.73</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
@@ -7137,10 +7132,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="C61" s="18">
-        <v>102.17</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
@@ -7152,10 +7147,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="C62" s="18">
-        <v>122.29</v>
+        <v>51.08</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -7167,10 +7162,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="C63" s="18">
-        <v>214.4</v>
+        <v>58.05</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
@@ -7182,182 +7177,202 @@
         <v>4</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="C64" s="18">
-        <v>243.81</v>
+        <v>78.17</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="C65" s="18">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95.2</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C66" s="18">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>102.17</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C67" s="18">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122.29</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1650</v>
+        <v>4</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>1658</v>
       </c>
       <c r="C68" s="18">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214.4</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1664</v>
+        <v>4</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>1659</v>
       </c>
       <c r="C69" s="18">
-        <v>49.02</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>243.81</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>1658</v>
+        <v>1704</v>
       </c>
       <c r="C70" s="18">
-        <v>21.67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>1659</v>
+        <v>1703</v>
       </c>
       <c r="C71" s="18">
-        <v>23.99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>1660</v>
+        <v>1705</v>
       </c>
       <c r="C72" s="18">
-        <v>30.96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>1657</v>
+        <v>1706</v>
       </c>
       <c r="C73" s="18">
-        <v>31.73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>1661</v>
+        <v>1708</v>
       </c>
       <c r="C74" s="18">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>1652</v>
+        <v>1707</v>
       </c>
       <c r="C75" s="18">
-        <v>51.08</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>1651</v>
+      <c r="B76" t="s">
+        <v>1710</v>
       </c>
       <c r="C76" s="18">
-        <v>58.05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>1653</v>
+      <c r="B77" t="s">
+        <v>1709</v>
       </c>
       <c r="C77" s="18">
-        <v>78.17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>1656</v>
+      <c r="B78" t="s">
+        <v>1712</v>
       </c>
       <c r="C78" s="18">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="17" t="s">
-        <v>1655</v>
+      <c r="B79" t="s">
+        <v>1711</v>
       </c>
       <c r="C79" s="18">
-        <v>102.17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -7365,7 +7380,7 @@
         <v>1654</v>
       </c>
       <c r="C80" s="18">
-        <v>122.29</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -7373,10 +7388,10 @@
         <v>5</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="C81" s="18">
-        <v>214.4</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7384,120 +7399,120 @@
         <v>5</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="C82" s="18">
-        <v>243.81</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C83" s="19">
-        <v>57.405000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C83" s="18">
+        <v>31.73</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C84" s="19">
-        <v>162.66899999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C84" s="18">
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C85" s="19">
-        <v>159.31499999999997</v>
+        <v>5</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C85" s="18">
+        <v>51.08</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C86" s="19">
-        <v>26.186999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C86" s="18">
+        <v>58.05</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C87" s="19">
-        <v>963.11</v>
+        <v>5</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C87" s="18">
+        <v>78.17</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C88" s="19">
-        <v>479.88</v>
+        <v>5</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C88" s="18">
+        <v>95.2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C89" s="19">
-        <v>619.19999999999993</v>
+        <v>5</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C89" s="18">
+        <v>102.17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C90" s="19">
-        <v>433.44000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C90" s="18">
+        <v>122.29</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C91" s="19">
-        <v>634.68000000000006</v>
+        <v>5</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C91" s="18">
+        <v>214.4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C92" s="19">
-        <v>774</v>
+        <v>5</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C92" s="18">
+        <v>243.81</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7505,10 +7520,10 @@
         <v>6</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="C93" s="19">
-        <v>1021.6800000000001</v>
+        <v>57.405000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7519,7 +7534,7 @@
         <v>1675</v>
       </c>
       <c r="C94" s="19">
-        <v>1161</v>
+        <v>162.66899999999998</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7530,7 +7545,7 @@
         <v>1676</v>
       </c>
       <c r="C95" s="19">
-        <v>1563.48</v>
+        <v>159.31499999999997</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7538,10 +7553,10 @@
         <v>6</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>1677</v>
+        <v>1660</v>
       </c>
       <c r="C96" s="19">
-        <v>1904.0399999999997</v>
+        <v>26.186999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7549,10 +7564,10 @@
         <v>6</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C97" s="19">
-        <v>2043.3600000000001</v>
+        <v>963.11</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7560,10 +7575,10 @@
         <v>6</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="C98" s="19">
-        <v>2445.8399999999997</v>
+        <v>479.88</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7571,10 +7586,10 @@
         <v>6</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C99" s="19">
-        <v>4876.2</v>
+        <v>619.19999999999993</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7582,120 +7597,120 @@
         <v>6</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C100" s="19">
-        <v>4287.9599999999991</v>
+        <v>433.44000000000005</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="18">
-        <v>3.44</v>
+        <v>6</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C101" s="19">
+        <v>634.68000000000006</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="18">
-        <v>1.72</v>
+        <v>6</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C102" s="19">
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C103" s="18">
-        <v>5.16</v>
+        <v>6</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C103" s="19">
+        <v>1021.6800000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C104" s="18">
-        <v>4.13</v>
+        <v>6</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C104" s="19">
+        <v>1161</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="18">
-        <v>18.920000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C105" s="19">
+        <v>1563.48</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C106" s="18">
-        <v>17.03</v>
+        <v>6</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C106" s="19">
+        <v>1904.0399999999997</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C107" s="18">
-        <v>10.75</v>
+        <v>6</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C107" s="19">
+        <v>2043.3600000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="18">
-        <v>8.86</v>
+        <v>6</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C108" s="19">
+        <v>2445.8399999999997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C109" s="18">
-        <v>47.13</v>
+        <v>6</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C109" s="19">
+        <v>4876.2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" t="s">
-        <v>244</v>
-      </c>
-      <c r="C110" s="18">
-        <v>4.5599999999999996</v>
+        <v>6</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C110" s="19">
+        <v>4287.9599999999991</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -7703,7 +7718,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="C111" s="18">
         <v>3.44</v>
@@ -7713,22 +7728,22 @@
       <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="17" t="s">
-        <v>1633</v>
+      <c r="B112" t="s">
+        <v>195</v>
       </c>
       <c r="C112" s="18">
-        <v>30.48</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2</v>
       </c>
-      <c r="B113" t="s">
-        <v>163</v>
+      <c r="B113" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="C113" s="18">
-        <v>14.1</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -7736,10 +7751,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>1136</v>
+        <v>320</v>
       </c>
       <c r="C114" s="18">
-        <v>23.99</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -7747,10 +7762,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>1130</v>
+        <v>321</v>
       </c>
       <c r="C115" s="18">
-        <v>102.17</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -7758,10 +7773,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>1141</v>
+        <v>322</v>
       </c>
       <c r="C116" s="18">
-        <v>243.81</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -7769,10 +7784,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>1129</v>
+        <v>323</v>
       </c>
       <c r="C117" s="18">
-        <v>58.05</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -7780,10 +7795,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>1132</v>
+        <v>324</v>
       </c>
       <c r="C118" s="18">
-        <v>122.29</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -7791,32 +7806,32 @@
         <v>2</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>1135</v>
+        <v>330</v>
       </c>
       <c r="C119" s="18">
-        <v>21.67</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>1634</v>
+      <c r="B120" t="s">
+        <v>244</v>
       </c>
       <c r="C120" s="18">
-        <v>415.64</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>1140</v>
+      <c r="B121" t="s">
+        <v>245</v>
       </c>
       <c r="C121" s="18">
-        <v>214.4</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -7824,21 +7839,21 @@
         <v>2</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>1138</v>
+        <v>1633</v>
       </c>
       <c r="C122" s="18">
-        <v>31.73</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>1635</v>
+      <c r="B123" t="s">
+        <v>163</v>
       </c>
       <c r="C123" s="18">
-        <v>1481.44</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -7846,10 +7861,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C124" s="18">
-        <v>38.700000000000003</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -7857,10 +7872,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>1636</v>
+        <v>1130</v>
       </c>
       <c r="C125" s="18">
-        <v>796.45</v>
+        <v>102.17</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -7868,10 +7883,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C126" s="18">
-        <v>30.96</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -7879,10 +7894,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C127" s="18">
-        <v>51.08</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -7890,10 +7905,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C128" s="18">
-        <v>95.2</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -7901,120 +7916,120 @@
         <v>2</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C129" s="18">
-        <v>78.17</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>1</v>
-      </c>
-      <c r="B130" t="s">
-        <v>164</v>
+        <v>2</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>1634</v>
       </c>
       <c r="C130" s="18">
-        <v>3.44</v>
+        <v>415.64</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1</v>
-      </c>
-      <c r="B131" t="s">
-        <v>195</v>
+        <v>2</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>1140</v>
       </c>
       <c r="C131" s="18">
-        <v>1.72</v>
+        <v>214.4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>319</v>
+        <v>1138</v>
       </c>
       <c r="C132" s="18">
-        <v>5.16</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>320</v>
+        <v>1635</v>
       </c>
       <c r="C133" s="18">
-        <v>4.13</v>
+        <v>1481.44</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>321</v>
+        <v>1139</v>
       </c>
       <c r="C134" s="18">
-        <v>18.920000000000002</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>322</v>
+        <v>1636</v>
       </c>
       <c r="C135" s="18">
-        <v>17.03</v>
+        <v>796.45</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>323</v>
+        <v>1137</v>
       </c>
       <c r="C136" s="18">
-        <v>10.75</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>324</v>
+        <v>1133</v>
       </c>
       <c r="C137" s="18">
-        <v>8.86</v>
+        <v>51.08</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>330</v>
+        <v>1134</v>
       </c>
       <c r="C138" s="18">
-        <v>47.13</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" t="s">
-        <v>244</v>
+        <v>2</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>1131</v>
       </c>
       <c r="C139" s="18">
-        <v>4.5599999999999996</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8022,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="C140" s="18">
         <v>3.44</v>
@@ -8032,22 +8047,22 @@
       <c r="A141" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="17" t="s">
-        <v>1633</v>
+      <c r="B141" t="s">
+        <v>195</v>
       </c>
       <c r="C141" s="18">
-        <v>30.48</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1</v>
       </c>
-      <c r="B142" t="s">
-        <v>163</v>
+      <c r="B142" s="17" t="s">
+        <v>319</v>
       </c>
       <c r="C142" s="18">
-        <v>14.1</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8055,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>1108</v>
+        <v>320</v>
       </c>
       <c r="C143" s="18">
-        <v>34.06</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8066,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>1109</v>
+        <v>321</v>
       </c>
       <c r="C144" s="18">
-        <v>34.83</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -8077,10 +8092,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>1102</v>
+        <v>322</v>
       </c>
       <c r="C145" s="18">
-        <v>81.27</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8088,10 +8103,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>1107</v>
+        <v>323</v>
       </c>
       <c r="C146" s="18">
-        <v>27.09</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -8099,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>1105</v>
+        <v>324</v>
       </c>
       <c r="C147" s="18">
-        <v>98.3</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -8110,32 +8125,32 @@
         <v>1</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>1103</v>
+        <v>330</v>
       </c>
       <c r="C148" s="18">
-        <v>125.39</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>1104</v>
+      <c r="B149" t="s">
+        <v>244</v>
       </c>
       <c r="C149" s="18">
-        <v>105.26</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="17" t="s">
-        <v>1113</v>
+      <c r="B150" t="s">
+        <v>245</v>
       </c>
       <c r="C150" s="18">
-        <v>246.91</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -8143,21 +8158,21 @@
         <v>1</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>1112</v>
+        <v>1633</v>
       </c>
       <c r="C151" s="18">
-        <v>61.15</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="17" t="s">
-        <v>1114</v>
+      <c r="B152" t="s">
+        <v>163</v>
       </c>
       <c r="C152" s="18">
-        <v>217.49</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8165,10 +8180,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C153" s="18">
-        <v>24.77</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8176,10 +8191,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C154" s="18">
-        <v>54.18</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -8187,120 +8202,120 @@
         <v>1</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C155" s="18">
-        <v>41.8</v>
+        <v>81.27</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>21</v>
-      </c>
-      <c r="B156" s="16" t="s">
-        <v>1466</v>
+        <v>1</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>1107</v>
       </c>
       <c r="C156" s="18">
-        <v>250.69</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>21</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>1467</v>
+        <v>1</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>1105</v>
       </c>
       <c r="C157" s="18">
-        <v>355.7</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>21</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>1468</v>
+        <v>1</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>1103</v>
       </c>
       <c r="C158" s="18">
-        <v>578.96</v>
+        <v>125.39</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>21</v>
-      </c>
-      <c r="B159" s="16" t="s">
-        <v>1469</v>
+        <v>1</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>1104</v>
       </c>
       <c r="C159" s="18">
-        <v>928.78</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>21</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>1470</v>
+        <v>1</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>1113</v>
       </c>
       <c r="C160" s="18">
-        <v>111.11</v>
+        <v>246.91</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>21</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>1471</v>
+        <v>1</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>1112</v>
       </c>
       <c r="C161" s="18">
-        <v>196.61</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>1472</v>
+        <v>1</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>1114</v>
       </c>
       <c r="C162" s="18">
-        <v>384.31</v>
+        <v>217.49</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="B163" s="16" t="s">
-        <v>1473</v>
+        <v>1</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1106</v>
       </c>
       <c r="C163" s="18">
-        <v>160.69999999999999</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="16" t="s">
-        <v>1474</v>
+        <v>1</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>1111</v>
       </c>
       <c r="C164" s="18">
-        <v>361.59</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>21</v>
-      </c>
-      <c r="B165" s="16" t="s">
-        <v>1475</v>
+        <v>1</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>1110</v>
       </c>
       <c r="C165" s="18">
-        <v>602.65</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8308,10 +8323,10 @@
         <v>21</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="C166" s="18">
-        <v>204.4</v>
+        <v>250.69</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8319,10 +8334,10 @@
         <v>21</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C167" s="18">
-        <v>204.77</v>
+        <v>355.7</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8330,10 +8345,10 @@
         <v>21</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="C168" s="18">
-        <v>336.41</v>
+        <v>578.96</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -8341,10 +8356,10 @@
         <v>21</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="C169" s="18">
-        <v>657.43</v>
+        <v>928.78</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8352,10 +8367,10 @@
         <v>21</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="C170" s="18">
-        <v>350.49</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -8363,10 +8378,10 @@
         <v>21</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="C171" s="18">
-        <v>406.76</v>
+        <v>196.61</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8374,10 +8389,10 @@
         <v>21</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="C172" s="18">
-        <v>677.93</v>
+        <v>384.31</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8385,10 +8400,10 @@
         <v>21</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="C173" s="18">
-        <v>274.81</v>
+        <v>160.69999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -8396,10 +8411,10 @@
         <v>21</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="C174" s="18">
-        <v>618.72</v>
+        <v>361.59</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -8407,10 +8422,10 @@
         <v>21</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="C175" s="18">
-        <v>1030.93</v>
+        <v>602.65</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8418,10 +8433,10 @@
         <v>21</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C176" s="18">
-        <v>476.15</v>
+        <v>204.4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8429,10 +8444,10 @@
         <v>21</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="C177" s="18">
-        <v>690.32</v>
+        <v>204.77</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8440,10 +8455,10 @@
         <v>21</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="C178" s="18">
-        <v>219.73</v>
+        <v>336.41</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -8451,10 +8466,10 @@
         <v>21</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="C179" s="18">
-        <v>360.88</v>
+        <v>657.43</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -8462,10 +8477,10 @@
         <v>21</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="C180" s="18">
-        <v>705.08</v>
+        <v>350.49</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -8473,10 +8488,10 @@
         <v>21</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="C181" s="18">
-        <v>438.86</v>
+        <v>406.76</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -8484,10 +8499,10 @@
         <v>21</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="C182" s="18">
-        <v>1408.62</v>
+        <v>677.93</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -8495,10 +8510,10 @@
         <v>21</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="C183" s="18">
-        <v>720.44</v>
+        <v>274.81</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -8506,10 +8521,10 @@
         <v>21</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="C184" s="18">
-        <v>294.89</v>
+        <v>618.72</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -8517,10 +8532,10 @@
         <v>21</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="C185" s="18">
-        <v>663.72</v>
+        <v>1030.93</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -8528,10 +8543,10 @@
         <v>21</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="C186" s="18">
-        <v>1105.6600000000001</v>
+        <v>476.15</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -8539,10 +8554,10 @@
         <v>21</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="C187" s="18">
-        <v>292.63</v>
+        <v>690.32</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -8550,7 +8565,7 @@
         <v>21</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="C188" s="18">
         <v>219.73</v>
@@ -8561,7 +8576,7 @@
         <v>21</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="C189" s="18">
         <v>360.88</v>
@@ -8572,7 +8587,7 @@
         <v>21</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="C190" s="18">
         <v>705.08</v>
@@ -8583,10 +8598,10 @@
         <v>21</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="C191" s="18">
-        <v>367.69</v>
+        <v>438.86</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -8594,10 +8609,10 @@
         <v>21</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="C192" s="18">
-        <v>435.83</v>
+        <v>1408.62</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -8605,10 +8620,10 @@
         <v>21</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="C193" s="18">
-        <v>726.55</v>
+        <v>720.44</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -8616,7 +8631,7 @@
         <v>21</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="C194" s="18">
         <v>294.89</v>
@@ -8627,7 +8642,7 @@
         <v>21</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="C195" s="18">
         <v>663.72</v>
@@ -8638,7 +8653,7 @@
         <v>21</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="C196" s="18">
         <v>1105.6600000000001</v>
@@ -8649,10 +8664,10 @@
         <v>21</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C197" s="18">
-        <v>594.85</v>
+        <v>292.63</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -8660,10 +8675,10 @@
         <v>21</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="C198" s="18">
-        <v>899.02</v>
+        <v>219.73</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -8671,10 +8686,10 @@
         <v>21</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="C199" s="18">
-        <v>263.43</v>
+        <v>360.88</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -8682,10 +8697,10 @@
         <v>21</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="C200" s="18">
-        <v>432.54</v>
+        <v>705.08</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -8693,10 +8708,10 @@
         <v>21</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="C201" s="18">
-        <v>845.49</v>
+        <v>367.69</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -8704,10 +8719,10 @@
         <v>21</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="C202" s="18">
-        <v>526.87</v>
+        <v>435.83</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -8715,10 +8730,10 @@
         <v>21</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="C203" s="18">
-        <v>865.06</v>
+        <v>726.55</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -8726,10 +8741,10 @@
         <v>21</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="C204" s="18">
-        <v>1690.96</v>
+        <v>294.89</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -8737,10 +8752,10 @@
         <v>21</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="C205" s="18">
-        <v>353.56</v>
+        <v>663.72</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -8748,10 +8763,10 @@
         <v>21</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="C206" s="18">
-        <v>795.5</v>
+        <v>1105.6600000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -8759,10 +8774,10 @@
         <v>21</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="C207" s="18">
-        <v>1325.82</v>
+        <v>594.85</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -8770,10 +8785,10 @@
         <v>21</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C208" s="18">
-        <v>610.70000000000005</v>
+        <v>899.02</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -8781,10 +8796,10 @@
         <v>21</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="C209" s="18">
-        <v>5670.74</v>
+        <v>263.43</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -8792,10 +8807,10 @@
         <v>21</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="C210" s="18">
-        <v>2353.71</v>
+        <v>432.54</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -8803,10 +8818,10 @@
         <v>21</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="C211" s="18">
-        <v>3604.85</v>
+        <v>845.49</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -8814,10 +8829,10 @@
         <v>21</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="C212" s="18">
-        <v>7046.18</v>
+        <v>526.87</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -8825,10 +8840,10 @@
         <v>21</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="C213" s="18">
-        <v>2946.54</v>
+        <v>865.06</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -8836,10 +8851,10 @@
         <v>21</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="C214" s="18">
-        <v>6629.92</v>
+        <v>1690.96</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -8847,10 +8862,10 @@
         <v>21</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="C215" s="18">
-        <v>11049.32</v>
+        <v>353.56</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -8858,10 +8873,10 @@
         <v>21</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="C216" s="18">
-        <v>4706.79</v>
+        <v>795.5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -8869,10 +8884,10 @@
         <v>21</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="C217" s="18">
-        <v>7208.39</v>
+        <v>1325.82</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -8880,10 +8895,10 @@
         <v>21</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
       <c r="C218" s="18">
-        <v>14090.83</v>
+        <v>610.70000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -8891,10 +8906,10 @@
         <v>21</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="C219" s="18">
-        <v>472.25</v>
+        <v>5670.74</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -8902,10 +8917,10 @@
         <v>21</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="C220" s="18">
-        <v>526.66999999999996</v>
+        <v>2353.71</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -8913,10 +8928,10 @@
         <v>21</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="C221" s="18">
-        <v>989.53</v>
+        <v>3604.85</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -8924,10 +8939,10 @@
         <v>21</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="C222" s="18">
-        <v>1649.21</v>
+        <v>7046.18</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -8935,10 +8950,10 @@
         <v>21</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="C223" s="18">
-        <v>496.94</v>
+        <v>2946.54</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -8946,10 +8961,10 @@
         <v>21</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="C224" s="18">
-        <v>817.87</v>
+        <v>6629.92</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -8957,10 +8972,10 @@
         <v>21</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="C225" s="18">
-        <v>1598.73</v>
+        <v>11049.32</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -8968,10 +8983,10 @@
         <v>21</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="C226" s="18">
-        <v>785.85</v>
+        <v>4706.79</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -8979,10 +8994,10 @@
         <v>21</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="C227" s="18">
-        <v>1768.57</v>
+        <v>7208.39</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -8990,10 +9005,10 @@
         <v>21</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="C228" s="18">
-        <v>2947.35</v>
+        <v>14090.83</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -9001,10 +9016,10 @@
         <v>21</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="C229" s="18">
-        <v>733.76</v>
+        <v>472.25</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -9012,10 +9027,10 @@
         <v>21</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="C230" s="18">
-        <v>1568.72</v>
+        <v>526.66999999999996</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -9023,10 +9038,10 @@
         <v>21</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="C231" s="18">
-        <v>1453.37</v>
+        <v>989.53</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -9034,10 +9049,10 @@
         <v>21</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="C232" s="18">
-        <v>2422.2800000000002</v>
+        <v>1649.21</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -9045,10 +9060,10 @@
         <v>21</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="C233" s="18">
-        <v>784.36</v>
+        <v>496.94</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -9056,10 +9071,10 @@
         <v>21</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="C234" s="18">
-        <v>1201.47</v>
+        <v>817.87</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -9067,10 +9082,10 @@
         <v>21</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="C235" s="18">
-        <v>2348.38</v>
+        <v>1598.73</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -9078,10 +9093,10 @@
         <v>21</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="C236" s="18">
-        <v>981.92</v>
+        <v>785.85</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -9089,10 +9104,10 @@
         <v>21</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="C237" s="18">
-        <v>2209.71</v>
+        <v>1768.57</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -9100,10 +9115,10 @@
         <v>21</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="C238" s="18">
-        <v>3682.57</v>
+        <v>2947.35</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -9111,10 +9126,10 @@
         <v>21</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="C239" s="18">
-        <v>3779.24</v>
+        <v>733.76</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -9122,10 +9137,10 @@
         <v>21</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="C240" s="18">
-        <v>3138.08</v>
+        <v>1568.72</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -9133,10 +9148,10 @@
         <v>21</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="C241" s="18">
-        <v>4805.88</v>
+        <v>1453.37</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9144,10 +9159,10 @@
         <v>21</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="C242" s="18">
-        <v>9394.56</v>
+        <v>2422.2800000000002</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -9155,10 +9170,10 @@
         <v>21</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="C243" s="18">
-        <v>1568.72</v>
+        <v>784.36</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9166,10 +9181,10 @@
         <v>21</v>
       </c>
       <c r="B244" s="16" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="C244" s="18">
-        <v>2402.5100000000002</v>
+        <v>1201.47</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9177,10 +9192,10 @@
         <v>21</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="C245" s="18">
-        <v>4696.26</v>
+        <v>2348.38</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9188,10 +9203,10 @@
         <v>21</v>
       </c>
       <c r="B246" s="16" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="C246" s="18">
-        <v>1963.83</v>
+        <v>981.92</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9199,10 +9214,10 @@
         <v>21</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="C247" s="18">
-        <v>4418.6000000000004</v>
+        <v>2209.71</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9210,10 +9225,10 @@
         <v>21</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="C248" s="18">
-        <v>7364.34</v>
+        <v>3682.57</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9221,10 +9236,10 @@
         <v>21</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="C249" s="18">
-        <v>956.48</v>
+        <v>3779.24</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9232,10 +9247,10 @@
         <v>21</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="C250" s="18">
-        <v>49.74</v>
+        <v>3138.08</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9243,10 +9258,10 @@
         <v>21</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="C251" s="18">
-        <v>104.43</v>
+        <v>4805.88</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9254,10 +9269,10 @@
         <v>21</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="C252" s="18">
-        <v>186.76</v>
+        <v>9394.56</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -9265,10 +9280,10 @@
         <v>21</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="C253" s="18">
-        <v>1490.73</v>
+        <v>1568.72</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -9276,10 +9291,10 @@
         <v>21</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="C254" s="18">
-        <v>91.04</v>
+        <v>2402.5100000000002</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -9287,10 +9302,10 @@
         <v>21</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="C255" s="18">
-        <v>190.92</v>
+        <v>4696.26</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -9298,10 +9313,10 @@
         <v>21</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="C256" s="18">
-        <v>341.62</v>
+        <v>1963.83</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -9309,10 +9324,10 @@
         <v>21</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="C257" s="18">
-        <v>155.88999999999999</v>
+        <v>4418.6000000000004</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -9320,10 +9335,10 @@
         <v>21</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="C258" s="18">
-        <v>351.14</v>
+        <v>7364.34</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -9331,10 +9346,10 @@
         <v>21</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="C259" s="18">
-        <v>584.97</v>
+        <v>956.48</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -9342,10 +9357,10 @@
         <v>21</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="C260" s="18">
-        <v>2737.23</v>
+        <v>49.74</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -9353,10 +9368,10 @@
         <v>21</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="C261" s="18">
-        <v>146.4</v>
+        <v>104.43</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -9364,10 +9379,10 @@
         <v>21</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="C262" s="18">
-        <v>306.70999999999998</v>
+        <v>186.76</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -9375,10 +9390,10 @@
         <v>21</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="C263" s="18">
-        <v>549.03</v>
+        <v>1490.73</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -9386,10 +9401,10 @@
         <v>21</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="C264" s="18">
-        <v>250.7</v>
+        <v>91.04</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -9397,10 +9412,10 @@
         <v>21</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="C265" s="18">
-        <v>564.07000000000005</v>
+        <v>190.92</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -9408,10 +9423,10 @@
         <v>21</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="C266" s="18">
-        <v>940.13</v>
+        <v>341.62</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9419,10 +9434,10 @@
         <v>21</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="C267" s="18">
-        <v>419.19</v>
+        <v>155.88999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -9430,10 +9445,10 @@
         <v>21</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="C268" s="18">
-        <v>38.67</v>
+        <v>351.14</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -9441,10 +9456,10 @@
         <v>21</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="C269" s="18">
-        <v>65.53</v>
+        <v>584.97</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -9452,10 +9467,10 @@
         <v>21</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="C270" s="18">
-        <v>127.59</v>
+        <v>2737.23</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -9463,10 +9478,10 @@
         <v>21</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="C271" s="18">
-        <v>53.84</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -9474,10 +9489,10 @@
         <v>21</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="C272" s="18">
-        <v>120.53</v>
+        <v>306.70999999999998</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -9485,10 +9500,10 @@
         <v>21</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="C273" s="18">
-        <v>200.08</v>
+        <v>549.03</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -9496,10 +9511,10 @@
         <v>21</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="C274" s="18">
-        <v>720.48</v>
+        <v>250.7</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -9507,10 +9522,10 @@
         <v>21</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="C275" s="18">
-        <v>1139.6600000000001</v>
+        <v>564.07000000000005</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -9518,10 +9533,10 @@
         <v>21</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="C276" s="18">
-        <v>1440.95</v>
+        <v>940.13</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -9529,10 +9544,10 @@
         <v>21</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="C277" s="18">
-        <v>974.61</v>
+        <v>419.19</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -9540,10 +9555,10 @@
         <v>21</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="C278" s="18">
-        <v>99.27</v>
+        <v>38.67</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -9551,10 +9566,10 @@
         <v>21</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="C279" s="18">
-        <v>169.08</v>
+        <v>65.53</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -9562,10 +9577,10 @@
         <v>21</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="C280" s="18">
-        <v>330.51</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -9573,10 +9588,10 @@
         <v>21</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="C281" s="18">
-        <v>138.21</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -9584,10 +9599,10 @@
         <v>21</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="C282" s="18">
-        <v>310.97000000000003</v>
+        <v>120.53</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -9595,10 +9610,10 @@
         <v>21</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="C283" s="18">
-        <v>518.28</v>
+        <v>200.08</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -9606,10 +9621,10 @@
         <v>21</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="C284" s="18">
-        <v>1569.33</v>
+        <v>720.48</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -9617,10 +9632,10 @@
         <v>21</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="C285" s="18">
-        <v>2881.9</v>
+        <v>1139.6600000000001</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -9628,10 +9643,10 @@
         <v>21</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="C286" s="18">
-        <v>1729.14</v>
+        <v>1440.95</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -9639,10 +9654,10 @@
         <v>21</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="C287" s="18">
-        <v>2803.3</v>
+        <v>974.61</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -9650,10 +9665,10 @@
         <v>21</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="C288" s="18">
-        <v>4296.66</v>
+        <v>99.27</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -9661,10 +9676,10 @@
         <v>21</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="C289" s="18">
-        <v>171.41</v>
+        <v>169.08</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -9672,10 +9687,10 @@
         <v>21</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="C290" s="18">
-        <v>292.27999999999997</v>
+        <v>330.51</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -9683,10 +9698,10 @@
         <v>21</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="C291" s="18">
-        <v>571.86</v>
+        <v>138.21</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -9694,10 +9709,10 @@
         <v>21</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="C292" s="18">
-        <v>238.65</v>
+        <v>310.97000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -9705,10 +9720,10 @@
         <v>21</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="C293" s="18">
-        <v>537.55999999999995</v>
+        <v>518.28</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -9716,120 +9731,120 @@
         <v>21</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="C294" s="18">
-        <v>896.74</v>
+        <v>1569.33</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>21</v>
       </c>
-      <c r="B295" s="17" t="s">
-        <v>1632</v>
+      <c r="B295" s="16" t="s">
+        <v>1592</v>
       </c>
       <c r="C295" s="18">
-        <v>1.1499999999999999</v>
+        <v>2881.9</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>21</v>
       </c>
-      <c r="B296" s="17" t="s">
-        <v>22</v>
+      <c r="B296" s="16" t="s">
+        <v>1593</v>
       </c>
       <c r="C296" s="18">
-        <v>1.72</v>
+        <v>1729.14</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>21</v>
       </c>
-      <c r="B297" s="17" t="s">
-        <v>23</v>
+      <c r="B297" s="16" t="s">
+        <v>1594</v>
       </c>
       <c r="C297" s="18">
-        <v>10.32</v>
+        <v>2803.3</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>21</v>
       </c>
-      <c r="B298" s="17" t="s">
-        <v>24</v>
+      <c r="B298" s="16" t="s">
+        <v>1595</v>
       </c>
       <c r="C298" s="18">
-        <v>86</v>
+        <v>4296.66</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>21</v>
       </c>
-      <c r="B299" s="17" t="s">
-        <v>25</v>
+      <c r="B299" s="16" t="s">
+        <v>1596</v>
       </c>
       <c r="C299" s="18">
-        <v>483.75</v>
+        <v>171.41</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>21</v>
       </c>
-      <c r="B300" s="17" t="s">
-        <v>27</v>
+      <c r="B300" s="16" t="s">
+        <v>1597</v>
       </c>
       <c r="C300" s="18">
-        <v>362.81</v>
+        <v>292.27999999999997</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>21</v>
       </c>
-      <c r="B301" s="17" t="s">
-        <v>26</v>
+      <c r="B301" s="16" t="s">
+        <v>1598</v>
       </c>
       <c r="C301" s="18">
-        <v>241.88</v>
+        <v>571.86</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>21</v>
       </c>
-      <c r="B302" s="17" t="s">
-        <v>28</v>
+      <c r="B302" s="16" t="s">
+        <v>1599</v>
       </c>
       <c r="C302" s="18">
-        <v>32.25</v>
+        <v>238.65</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>21</v>
       </c>
-      <c r="B303" s="17" t="s">
-        <v>29</v>
+      <c r="B303" s="16" t="s">
+        <v>1600</v>
       </c>
       <c r="C303" s="18">
-        <v>24.19</v>
+        <v>537.55999999999995</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>21</v>
       </c>
-      <c r="B304" s="17" t="s">
-        <v>30</v>
+      <c r="B304" s="16" t="s">
+        <v>1601</v>
       </c>
       <c r="C304" s="18">
-        <v>1.61</v>
+        <v>896.74</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -9837,10 +9852,10 @@
         <v>21</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>31</v>
+        <v>1632</v>
       </c>
       <c r="C305" s="18">
-        <v>8.06</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -9848,10 +9863,10 @@
         <v>21</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C306" s="18">
-        <v>376.25</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -9859,10 +9874,10 @@
         <v>21</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C307" s="18">
-        <v>75.25</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -9870,10 +9885,10 @@
         <v>21</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C308" s="18">
-        <v>225.75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -9881,10 +9896,10 @@
         <v>21</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C309" s="18">
-        <v>225.75</v>
+        <v>483.75</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -9892,10 +9907,10 @@
         <v>21</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C310" s="18">
-        <v>3.76</v>
+        <v>362.81</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -9903,10 +9918,10 @@
         <v>21</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C311" s="18">
-        <v>7.53</v>
+        <v>241.88</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -9914,10 +9929,10 @@
         <v>21</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C312" s="18">
-        <v>376.25</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -9925,10 +9940,10 @@
         <v>21</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C313" s="18">
-        <v>90.3</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -9936,10 +9951,10 @@
         <v>21</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C314" s="18">
-        <v>30.1</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -9947,10 +9962,10 @@
         <v>21</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C315" s="18">
-        <v>52.68</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -9958,10 +9973,10 @@
         <v>21</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C316" s="18">
-        <v>158.03</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -9969,10 +9984,10 @@
         <v>21</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C317" s="18">
-        <v>16.13</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -9980,10 +9995,10 @@
         <v>21</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C318" s="18">
-        <v>48.38</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -9991,7 +10006,7 @@
         <v>21</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C319" s="18">
         <v>225.75</v>
@@ -10002,10 +10017,10 @@
         <v>21</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C320" s="18">
-        <v>75.25</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -10013,10 +10028,10 @@
         <v>21</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C321" s="18">
-        <v>6.02</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -10024,10 +10039,10 @@
         <v>21</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C322" s="18">
-        <v>18.059999999999999</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -10035,10 +10050,10 @@
         <v>21</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C323" s="18">
-        <v>12.09</v>
+        <v>90.3</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -10046,10 +10061,10 @@
         <v>21</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C324" s="18">
-        <v>3010</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -10057,10 +10072,10 @@
         <v>21</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C325" s="18">
-        <v>376.25</v>
+        <v>52.68</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -10068,10 +10083,10 @@
         <v>21</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C326" s="18">
-        <v>3010</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -10079,10 +10094,10 @@
         <v>21</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C327" s="18">
-        <v>23327.5</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -10090,10 +10105,10 @@
         <v>21</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C328" s="18">
-        <v>376.25</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -10101,10 +10116,10 @@
         <v>21</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C329" s="18">
-        <v>376.25</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -10112,10 +10127,10 @@
         <v>21</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C330" s="18">
-        <v>376.25</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -10123,10 +10138,10 @@
         <v>21</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C331" s="18">
-        <v>376.25</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -10134,10 +10149,10 @@
         <v>21</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C332" s="18">
-        <v>158.03</v>
+        <v>18.059999999999999</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -10145,10 +10160,10 @@
         <v>21</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C333" s="18">
-        <v>376.25</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -10156,7 +10171,7 @@
         <v>21</v>
       </c>
       <c r="B334" s="17" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C334" s="18">
         <v>3010</v>
@@ -10167,7 +10182,7 @@
         <v>21</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C335" s="18">
         <v>376.25</v>
@@ -10178,7 +10193,7 @@
         <v>21</v>
       </c>
       <c r="B336" s="17" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C336" s="18">
         <v>3010</v>
@@ -10189,10 +10204,10 @@
         <v>21</v>
       </c>
       <c r="B337" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C337" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -10200,10 +10215,10 @@
         <v>21</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C338" s="18">
-        <v>474.08</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -10211,10 +10226,10 @@
         <v>21</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C339" s="18">
-        <v>3010</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -10222,7 +10237,7 @@
         <v>21</v>
       </c>
       <c r="B340" s="17" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C340" s="18">
         <v>376.25</v>
@@ -10233,10 +10248,10 @@
         <v>21</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C341" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -10244,10 +10259,10 @@
         <v>21</v>
       </c>
       <c r="B342" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C342" s="18">
-        <v>22.58</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -10255,10 +10270,10 @@
         <v>21</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C343" s="18">
-        <v>23327.5</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -10266,10 +10281,10 @@
         <v>21</v>
       </c>
       <c r="B344" s="17" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C344" s="18">
-        <v>23327.5</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -10277,7 +10292,7 @@
         <v>21</v>
       </c>
       <c r="B345" s="17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C345" s="18">
         <v>376.25</v>
@@ -10288,10 +10303,10 @@
         <v>21</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C346" s="18">
-        <v>10911.25</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -10299,10 +10314,10 @@
         <v>21</v>
       </c>
       <c r="B347" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C347" s="18">
-        <v>3010</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -10310,10 +10325,10 @@
         <v>21</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C348" s="18">
-        <v>376.25</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -10321,10 +10336,10 @@
         <v>21</v>
       </c>
       <c r="B349" s="17" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C349" s="18">
-        <v>376.25</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -10332,7 +10347,7 @@
         <v>21</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C350" s="18">
         <v>376.25</v>
@@ -10343,10 +10358,10 @@
         <v>21</v>
       </c>
       <c r="B351" s="17" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C351" s="18">
-        <v>376.25</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -10354,10 +10369,10 @@
         <v>21</v>
       </c>
       <c r="B352" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C352" s="18">
-        <v>376.25</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -10365,10 +10380,10 @@
         <v>21</v>
       </c>
       <c r="B353" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C353" s="18">
-        <v>376.25</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -10376,7 +10391,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C354" s="18">
         <v>23327.5</v>
@@ -10387,10 +10402,10 @@
         <v>21</v>
       </c>
       <c r="B355" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C355" s="18">
-        <v>23327.5</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -10398,7 +10413,7 @@
         <v>21</v>
       </c>
       <c r="B356" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C356" s="18">
         <v>10911.25</v>
@@ -10409,10 +10424,10 @@
         <v>21</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C357" s="18">
-        <v>23327.5</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -10420,10 +10435,10 @@
         <v>21</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C358" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -10431,10 +10446,10 @@
         <v>21</v>
       </c>
       <c r="B359" s="17" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C359" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -10442,10 +10457,10 @@
         <v>21</v>
       </c>
       <c r="B360" s="17" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C360" s="18">
-        <v>67.73</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -10453,7 +10468,7 @@
         <v>21</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C361" s="18">
         <v>376.25</v>
@@ -10464,7 +10479,7 @@
         <v>21</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C362" s="18">
         <v>376.25</v>
@@ -10475,10 +10490,10 @@
         <v>21</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C363" s="18">
-        <v>10911.25</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -10486,10 +10501,10 @@
         <v>21</v>
       </c>
       <c r="B364" s="17" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C364" s="18">
-        <v>88.69</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -10497,10 +10512,10 @@
         <v>21</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C365" s="18">
-        <v>72.56</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -10508,10 +10523,10 @@
         <v>21</v>
       </c>
       <c r="B366" s="17" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C366" s="18">
-        <v>60.47</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -10519,10 +10534,10 @@
         <v>21</v>
       </c>
       <c r="B367" s="17" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C367" s="18">
-        <v>76.59</v>
+        <v>23327.5</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -10530,10 +10545,10 @@
         <v>21</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C368" s="18">
-        <v>76.59</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -10541,10 +10556,10 @@
         <v>21</v>
       </c>
       <c r="B369" s="17" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C369" s="18">
-        <v>60.47</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -10552,10 +10567,10 @@
         <v>21</v>
       </c>
       <c r="B370" s="17" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C370" s="18">
-        <v>1370.63</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -10563,10 +10578,10 @@
         <v>21</v>
       </c>
       <c r="B371" s="17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C371" s="18">
-        <v>2418.75</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -10574,10 +10589,10 @@
         <v>21</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C372" s="18">
-        <v>403.13</v>
+        <v>376.25</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -10585,10 +10600,10 @@
         <v>21</v>
       </c>
       <c r="B373" s="17" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C373" s="18">
-        <v>806.25</v>
+        <v>10911.25</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -10596,10 +10611,10 @@
         <v>21</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C374" s="18">
-        <v>2418.75</v>
+        <v>88.69</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -10607,10 +10622,10 @@
         <v>21</v>
       </c>
       <c r="B375" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C375" s="18">
-        <v>604.69000000000005</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -10618,10 +10633,10 @@
         <v>21</v>
       </c>
       <c r="B376" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C376" s="18">
-        <v>201.56</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -10629,10 +10644,10 @@
         <v>21</v>
       </c>
       <c r="B377" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C377" s="18">
-        <v>774</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -10640,10 +10655,10 @@
         <v>21</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C378" s="18">
-        <v>4837.5</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -10651,10 +10666,10 @@
         <v>21</v>
       </c>
       <c r="B379" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C379" s="18">
-        <v>3628.13</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -10662,10 +10677,10 @@
         <v>21</v>
       </c>
       <c r="B380" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C380" s="18">
-        <v>1209.3800000000001</v>
+        <v>1370.63</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -10673,10 +10688,10 @@
         <v>21</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C381" s="18">
-        <v>1612.5</v>
+        <v>2418.75</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -10687,7 +10702,7 @@
         <v>91</v>
       </c>
       <c r="C382" s="18">
-        <v>1209.3800000000001</v>
+        <v>403.13</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -10695,10 +10710,10 @@
         <v>21</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C383" s="18">
-        <v>258</v>
+        <v>806.25</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -10706,10 +10721,10 @@
         <v>21</v>
       </c>
       <c r="B384" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C384" s="18">
-        <v>4111.88</v>
+        <v>2418.75</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -10717,10 +10732,10 @@
         <v>21</v>
       </c>
       <c r="B385" s="17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C385" s="18">
-        <v>806.25</v>
+        <v>604.69000000000005</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -10728,10 +10743,10 @@
         <v>21</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C386" s="18">
-        <v>48.38</v>
+        <v>201.56</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -10739,10 +10754,10 @@
         <v>21</v>
       </c>
       <c r="B387" s="17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C387" s="18">
-        <v>60.47</v>
+        <v>774</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -10750,10 +10765,10 @@
         <v>21</v>
       </c>
       <c r="B388" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C388" s="18">
-        <v>181.41</v>
+        <v>4837.5</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -10761,10 +10776,10 @@
         <v>21</v>
       </c>
       <c r="B389" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C389" s="18">
-        <v>72.56</v>
+        <v>3628.13</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -10772,10 +10787,10 @@
         <v>21</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C390" s="18">
-        <v>217.69</v>
+        <v>1209.3800000000001</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -10783,10 +10798,10 @@
         <v>21</v>
       </c>
       <c r="B391" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C391" s="18">
-        <v>16.13</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -10794,10 +10809,10 @@
         <v>21</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C392" s="18">
-        <v>48.38</v>
+        <v>1209.3800000000001</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -10805,10 +10820,10 @@
         <v>21</v>
       </c>
       <c r="B393" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C393" s="18">
-        <v>84.66</v>
+        <v>258</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -10816,10 +10831,10 @@
         <v>21</v>
       </c>
       <c r="B394" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C394" s="18">
-        <v>645</v>
+        <v>4111.88</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -10827,10 +10842,10 @@
         <v>21</v>
       </c>
       <c r="B395" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C395" s="18">
-        <v>253.97</v>
+        <v>806.25</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -10838,10 +10853,10 @@
         <v>21</v>
       </c>
       <c r="B396" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C396" s="18">
-        <v>387</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -10849,10 +10864,10 @@
         <v>21</v>
       </c>
       <c r="B397" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C397" s="18">
-        <v>129</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -10860,10 +10875,10 @@
         <v>21</v>
       </c>
       <c r="B398" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C398" s="18">
-        <v>157.22</v>
+        <v>181.41</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -10871,10 +10886,10 @@
         <v>21</v>
       </c>
       <c r="B399" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C399" s="18">
-        <v>120.94</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -10882,10 +10897,10 @@
         <v>21</v>
       </c>
       <c r="B400" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C400" s="18">
-        <v>16.13</v>
+        <v>217.69</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -10893,10 +10908,10 @@
         <v>21</v>
       </c>
       <c r="B401" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C401" s="18">
-        <v>40.31</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -10904,7 +10919,7 @@
         <v>21</v>
       </c>
       <c r="B402" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C402" s="18">
         <v>48.38</v>
@@ -10915,10 +10930,10 @@
         <v>21</v>
       </c>
       <c r="B403" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C403" s="18">
-        <v>181.41</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -10926,10 +10941,10 @@
         <v>21</v>
       </c>
       <c r="B404" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C404" s="18">
-        <v>60.47</v>
+        <v>645</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -10937,10 +10952,10 @@
         <v>21</v>
       </c>
       <c r="B405" s="17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C405" s="18">
-        <v>161.25</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -10948,10 +10963,10 @@
         <v>21</v>
       </c>
       <c r="B406" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C406" s="18">
-        <v>80.63</v>
+        <v>387</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -10959,10 +10974,10 @@
         <v>21</v>
       </c>
       <c r="B407" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C407" s="18">
-        <v>677.25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -10970,10 +10985,10 @@
         <v>21</v>
       </c>
       <c r="B408" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C408" s="18">
-        <v>225.75</v>
+        <v>157.22</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -10981,10 +10996,10 @@
         <v>21</v>
       </c>
       <c r="B409" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C409" s="18">
-        <v>84.66</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -10992,7 +11007,7 @@
         <v>21</v>
       </c>
       <c r="B410" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C410" s="18">
         <v>16.13</v>
@@ -11003,10 +11018,10 @@
         <v>21</v>
       </c>
       <c r="B411" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C411" s="18">
-        <v>129</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -11014,10 +11029,10 @@
         <v>21</v>
       </c>
       <c r="B412" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C412" s="18">
-        <v>253.97</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
@@ -11025,10 +11040,10 @@
         <v>21</v>
       </c>
       <c r="B413" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C413" s="18">
-        <v>48.38</v>
+        <v>181.41</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -11036,10 +11051,10 @@
         <v>21</v>
       </c>
       <c r="B414" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C414" s="18">
-        <v>24.19</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -11047,10 +11062,10 @@
         <v>21</v>
       </c>
       <c r="B415" s="17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C415" s="18">
-        <v>67.73</v>
+        <v>161.25</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -11058,10 +11073,10 @@
         <v>21</v>
       </c>
       <c r="B416" s="17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C416" s="18">
-        <v>22.58</v>
+        <v>80.63</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -11069,10 +11084,10 @@
         <v>21</v>
       </c>
       <c r="B417" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C417" s="18">
-        <v>158.03</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -11080,10 +11095,10 @@
         <v>21</v>
       </c>
       <c r="B418" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C418" s="18">
-        <v>474.08</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -11091,10 +11106,10 @@
         <v>21</v>
       </c>
       <c r="B419" s="17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C419" s="18">
-        <v>225.75</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -11102,10 +11117,10 @@
         <v>21</v>
       </c>
       <c r="B420" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C420" s="18">
-        <v>677.25</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
@@ -11113,10 +11128,10 @@
         <v>21</v>
       </c>
       <c r="B421" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C421" s="18">
-        <v>112.88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -11124,10 +11139,10 @@
         <v>21</v>
       </c>
       <c r="B422" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C422" s="18">
-        <v>752.5</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -11135,10 +11150,10 @@
         <v>21</v>
       </c>
       <c r="B423" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C423" s="18">
-        <v>112.88</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -11146,10 +11161,10 @@
         <v>21</v>
       </c>
       <c r="B424" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C424" s="18">
-        <v>752.5</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -11157,10 +11172,10 @@
         <v>21</v>
       </c>
       <c r="B425" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C425" s="18">
-        <v>112.88</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -11168,10 +11183,10 @@
         <v>21</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C426" s="18">
-        <v>752.5</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -11179,10 +11194,10 @@
         <v>21</v>
       </c>
       <c r="B427" s="17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C427" s="18">
-        <v>55.9</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -11190,10 +11205,10 @@
         <v>21</v>
       </c>
       <c r="B428" s="17" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C428" s="18">
-        <v>559</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -11201,10 +11216,10 @@
         <v>21</v>
       </c>
       <c r="B429" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C429" s="18">
-        <v>1677</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -11212,10 +11227,10 @@
         <v>21</v>
       </c>
       <c r="B430" s="17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C430" s="18">
-        <v>67.73</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -11223,10 +11238,10 @@
         <v>21</v>
       </c>
       <c r="B431" s="17" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C431" s="18">
-        <v>1053.5</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -11234,10 +11249,10 @@
         <v>21</v>
       </c>
       <c r="B432" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C432" s="18">
-        <v>22.58</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -11245,10 +11260,10 @@
         <v>21</v>
       </c>
       <c r="B433" s="17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C433" s="18">
-        <v>3160.5</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -11256,10 +11271,10 @@
         <v>21</v>
       </c>
       <c r="B434" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C434" s="18">
-        <v>3.01</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
@@ -11267,10 +11282,10 @@
         <v>21</v>
       </c>
       <c r="B435" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C435" s="18">
-        <v>101.59</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -11278,10 +11293,10 @@
         <v>21</v>
       </c>
       <c r="B436" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C436" s="18">
-        <v>304.76</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -11289,10 +11304,10 @@
         <v>21</v>
       </c>
       <c r="B437" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C437" s="18">
-        <v>9.0299999999999994</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -11300,10 +11315,10 @@
         <v>21</v>
       </c>
       <c r="B438" s="17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C438" s="18">
-        <v>225.75</v>
+        <v>559</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -11311,10 +11326,10 @@
         <v>21</v>
       </c>
       <c r="B439" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C439" s="18">
-        <v>100.78</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -11322,10 +11337,10 @@
         <v>21</v>
       </c>
       <c r="B440" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C440" s="18">
-        <v>112.88</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -11333,10 +11348,10 @@
         <v>21</v>
       </c>
       <c r="B441" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C441" s="18">
-        <v>37.630000000000003</v>
+        <v>1053.5</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -11344,10 +11359,10 @@
         <v>21</v>
       </c>
       <c r="B442" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C442" s="18">
-        <v>30.1</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -11355,10 +11370,10 @@
         <v>21</v>
       </c>
       <c r="B443" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C443" s="18">
-        <v>22.58</v>
+        <v>3160.5</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -11366,10 +11381,10 @@
         <v>21</v>
       </c>
       <c r="B444" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C444" s="18">
-        <v>63.96</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -11377,10 +11392,10 @@
         <v>21</v>
       </c>
       <c r="B445" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C445" s="18">
-        <v>191.89</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -11388,10 +11403,10 @@
         <v>21</v>
       </c>
       <c r="B446" s="17" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C446" s="18">
-        <v>1.51</v>
+        <v>304.76</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -11399,10 +11414,10 @@
         <v>21</v>
       </c>
       <c r="B447" s="17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C447" s="18">
-        <v>3047.63</v>
+        <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -11410,10 +11425,10 @@
         <v>21</v>
       </c>
       <c r="B448" s="17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C448" s="18">
-        <v>1015.88</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -11421,10 +11436,10 @@
         <v>21</v>
       </c>
       <c r="B449" s="17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C449" s="18">
-        <v>3047.63</v>
+        <v>100.78</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -11432,10 +11447,10 @@
         <v>21</v>
       </c>
       <c r="B450" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C450" s="18">
-        <v>9142.8799999999992</v>
+        <v>112.88</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -11443,10 +11458,10 @@
         <v>21</v>
       </c>
       <c r="B451" s="17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C451" s="18">
-        <v>5944.75</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -11454,10 +11469,10 @@
         <v>21</v>
       </c>
       <c r="B452" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C452" s="18">
-        <v>17834.25</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -11465,10 +11480,10 @@
         <v>21</v>
       </c>
       <c r="B453" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C453" s="18">
-        <v>27090</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -11476,10 +11491,10 @@
         <v>21</v>
       </c>
       <c r="B454" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C454" s="18">
-        <v>9030</v>
+        <v>63.96</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -11487,10 +11502,10 @@
         <v>21</v>
       </c>
       <c r="B455" s="17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C455" s="18">
-        <v>101.59</v>
+        <v>191.89</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -11498,10 +11513,10 @@
         <v>21</v>
       </c>
       <c r="B456" s="17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C456" s="18">
-        <v>67.73</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -11509,10 +11524,10 @@
         <v>21</v>
       </c>
       <c r="B457" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C457" s="18">
-        <v>304.76</v>
+        <v>3047.63</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -11520,10 +11535,10 @@
         <v>21</v>
       </c>
       <c r="B458" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C458" s="18">
-        <v>22.58</v>
+        <v>1015.88</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -11531,10 +11546,10 @@
         <v>21</v>
       </c>
       <c r="B459" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C459" s="18">
-        <v>55.9</v>
+        <v>3047.63</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -11542,10 +11557,10 @@
         <v>21</v>
       </c>
       <c r="B460" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C460" s="18">
-        <v>17.2</v>
+        <v>9142.8799999999992</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -11553,10 +11568,10 @@
         <v>21</v>
       </c>
       <c r="B461" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C461" s="18">
-        <v>1677</v>
+        <v>5944.75</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -11564,10 +11579,10 @@
         <v>21</v>
       </c>
       <c r="B462" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C462" s="18">
-        <v>559</v>
+        <v>17834.25</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -11575,10 +11590,10 @@
         <v>21</v>
       </c>
       <c r="B463" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C463" s="18">
-        <v>84.66</v>
+        <v>27090</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -11586,10 +11601,10 @@
         <v>21</v>
       </c>
       <c r="B464" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C464" s="18">
-        <v>16.13</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
@@ -11597,10 +11612,10 @@
         <v>21</v>
       </c>
       <c r="B465" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C465" s="18">
-        <v>253.97</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -11608,10 +11623,10 @@
         <v>21</v>
       </c>
       <c r="B466" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C466" s="18">
-        <v>48.38</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -11619,10 +11634,10 @@
         <v>21</v>
       </c>
       <c r="B467" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C467" s="18">
-        <v>387</v>
+        <v>304.76</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -11630,10 +11645,10 @@
         <v>21</v>
       </c>
       <c r="B468" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C468" s="18">
-        <v>129</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -11641,10 +11656,10 @@
         <v>21</v>
       </c>
       <c r="B469" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C469" s="18">
-        <v>40.31</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -11652,10 +11667,10 @@
         <v>21</v>
       </c>
       <c r="B470" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C470" s="18">
-        <v>120.94</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
@@ -11663,10 +11678,10 @@
         <v>21</v>
       </c>
       <c r="B471" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C471" s="18">
-        <v>120.94</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
@@ -11674,10 +11689,10 @@
         <v>21</v>
       </c>
       <c r="B472" s="17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C472" s="18">
-        <v>16.13</v>
+        <v>559</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
@@ -11685,10 +11700,10 @@
         <v>21</v>
       </c>
       <c r="B473" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C473" s="18">
-        <v>52.41</v>
+        <v>84.66</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
@@ -11696,10 +11711,10 @@
         <v>21</v>
       </c>
       <c r="B474" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C474" s="18">
-        <v>48.38</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
@@ -11707,10 +11722,10 @@
         <v>21</v>
       </c>
       <c r="B475" s="17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C475" s="18">
-        <v>157.22</v>
+        <v>253.97</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
@@ -11718,10 +11733,10 @@
         <v>21</v>
       </c>
       <c r="B476" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C476" s="18">
-        <v>158.03</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
@@ -11729,10 +11744,10 @@
         <v>21</v>
       </c>
       <c r="B477" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C477" s="18">
-        <v>67.73</v>
+        <v>387</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -11740,10 +11755,10 @@
         <v>21</v>
       </c>
       <c r="B478" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C478" s="18">
-        <v>22.58</v>
+        <v>129</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -11751,10 +11766,10 @@
         <v>21</v>
       </c>
       <c r="B479" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C479" s="18">
-        <v>474.08</v>
+        <v>40.31</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -11762,10 +11777,10 @@
         <v>21</v>
       </c>
       <c r="B480" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C480" s="18">
-        <v>677.25</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -11773,10 +11788,10 @@
         <v>21</v>
       </c>
       <c r="B481" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C481" s="18">
-        <v>225.75</v>
+        <v>120.94</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -11784,10 +11799,10 @@
         <v>21</v>
       </c>
       <c r="B482" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C482" s="18">
-        <v>19.350000000000001</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
@@ -11795,10 +11810,10 @@
         <v>21</v>
       </c>
       <c r="B483" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C483" s="18">
-        <v>6.45</v>
+        <v>52.41</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
@@ -11806,10 +11821,10 @@
         <v>21</v>
       </c>
       <c r="B484" s="17" t="s">
-        <v>1156</v>
+        <v>151</v>
       </c>
       <c r="C484" s="18">
-        <v>10.84</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -11817,10 +11832,10 @@
         <v>21</v>
       </c>
       <c r="B485" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C485" s="18">
-        <v>0.43</v>
+        <v>157.22</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
@@ -11828,10 +11843,10 @@
         <v>21</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C486" s="18">
-        <v>13545</v>
+        <v>158.03</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
@@ -11839,10 +11854,10 @@
         <v>21</v>
       </c>
       <c r="B487" s="17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C487" s="18">
-        <v>1693.13</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
@@ -11850,10 +11865,10 @@
         <v>21</v>
       </c>
       <c r="B488" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C488" s="18">
-        <v>6772.5</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
@@ -11861,10 +11876,10 @@
         <v>21</v>
       </c>
       <c r="B489" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C489" s="18">
-        <v>27842.5</v>
+        <v>474.08</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -11872,10 +11887,10 @@
         <v>21</v>
       </c>
       <c r="B490" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C490" s="18">
-        <v>564.38</v>
+        <v>677.25</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -11883,10 +11898,10 @@
         <v>21</v>
       </c>
       <c r="B491" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C491" s="18">
-        <v>2257.5</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
@@ -11894,10 +11909,10 @@
         <v>21</v>
       </c>
       <c r="B492" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C492" s="18">
-        <v>4515</v>
+        <v>19.350000000000001</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -11905,10 +11920,10 @@
         <v>21</v>
       </c>
       <c r="B493" s="17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C493" s="18">
-        <v>83527.5</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
@@ -11916,10 +11931,10 @@
         <v>21</v>
       </c>
       <c r="B494" s="17" t="s">
-        <v>159</v>
+        <v>1156</v>
       </c>
       <c r="C494" s="18">
-        <v>12792.5</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -11927,10 +11942,10 @@
         <v>21</v>
       </c>
       <c r="B495" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C495" s="18">
-        <v>38377.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -11938,10 +11953,10 @@
         <v>21</v>
       </c>
       <c r="B496" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C496" s="18">
-        <v>9.1199999999999992</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
@@ -11949,10 +11964,10 @@
         <v>21</v>
       </c>
       <c r="B497" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C497" s="18">
-        <v>14.1</v>
+        <v>1693.13</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -11960,10 +11975,10 @@
         <v>21</v>
       </c>
       <c r="B498" s="17" t="s">
-        <v>1706</v>
+        <v>157</v>
       </c>
       <c r="C498" s="18">
-        <v>18.920000000000002</v>
+        <v>6772.5</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -11971,10 +11986,10 @@
         <v>21</v>
       </c>
       <c r="B499" s="17" t="s">
-        <v>1707</v>
+        <v>158</v>
       </c>
       <c r="C499" s="18">
-        <v>22.7</v>
+        <v>27842.5</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
@@ -11982,10 +11997,10 @@
         <v>21</v>
       </c>
       <c r="B500" s="17" t="s">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="C500" s="18">
-        <v>17.03</v>
+        <v>564.38</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
@@ -11993,10 +12008,10 @@
         <v>21</v>
       </c>
       <c r="B501" s="17" t="s">
-        <v>324</v>
+        <v>157</v>
       </c>
       <c r="C501" s="18">
-        <v>8.86</v>
+        <v>2257.5</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -12004,10 +12019,10 @@
         <v>21</v>
       </c>
       <c r="B502" s="17" t="s">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="C502" s="18">
-        <v>10.75</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
@@ -12015,10 +12030,10 @@
         <v>21</v>
       </c>
       <c r="B503" s="17" t="s">
-        <v>1633</v>
+        <v>158</v>
       </c>
       <c r="C503" s="18">
-        <v>50.79</v>
+        <v>83527.5</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
@@ -12026,10 +12041,10 @@
         <v>21</v>
       </c>
       <c r="B504" s="17" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="C504" s="18">
-        <v>29.07</v>
+        <v>12792.5</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -12037,10 +12052,10 @@
         <v>21</v>
       </c>
       <c r="B505" s="17" t="s">
-        <v>330</v>
+        <v>159</v>
       </c>
       <c r="C505" s="18">
-        <v>47.13</v>
+        <v>38377.5</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -12048,10 +12063,10 @@
         <v>21</v>
       </c>
       <c r="B506" s="17" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="C506" s="18">
-        <v>4.13</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
@@ -12059,10 +12074,10 @@
         <v>21</v>
       </c>
       <c r="B507" s="17" t="s">
-        <v>319</v>
+        <v>163</v>
       </c>
       <c r="C507" s="18">
-        <v>5.16</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
@@ -12070,10 +12085,10 @@
         <v>21</v>
       </c>
       <c r="B508" s="17" t="s">
-        <v>1108</v>
+        <v>1701</v>
       </c>
       <c r="C508" s="18">
-        <v>34.06</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
@@ -12081,10 +12096,10 @@
         <v>21</v>
       </c>
       <c r="B509" s="17" t="s">
-        <v>1109</v>
+        <v>1702</v>
       </c>
       <c r="C509" s="18">
-        <v>34.83</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
@@ -12092,10 +12107,10 @@
         <v>21</v>
       </c>
       <c r="B510" s="17" t="s">
-        <v>1102</v>
+        <v>322</v>
       </c>
       <c r="C510" s="18">
-        <v>81.27</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
@@ -12103,10 +12118,10 @@
         <v>21</v>
       </c>
       <c r="B511" s="17" t="s">
-        <v>1107</v>
+        <v>324</v>
       </c>
       <c r="C511" s="18">
-        <v>27.09</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
@@ -12114,10 +12129,10 @@
         <v>21</v>
       </c>
       <c r="B512" s="17" t="s">
-        <v>1105</v>
+        <v>323</v>
       </c>
       <c r="C512" s="18">
-        <v>98.3</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -12125,10 +12140,10 @@
         <v>21</v>
       </c>
       <c r="B513" s="17" t="s">
-        <v>1103</v>
+        <v>1633</v>
       </c>
       <c r="C513" s="18">
-        <v>125.39</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
@@ -12136,10 +12151,10 @@
         <v>21</v>
       </c>
       <c r="B514" s="17" t="s">
-        <v>1104</v>
+        <v>328</v>
       </c>
       <c r="C514" s="18">
-        <v>105.26</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
@@ -12147,10 +12162,10 @@
         <v>21</v>
       </c>
       <c r="B515" s="17" t="s">
-        <v>1113</v>
+        <v>330</v>
       </c>
       <c r="C515" s="18">
-        <v>246.91</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
@@ -12158,10 +12173,10 @@
         <v>21</v>
       </c>
       <c r="B516" s="17" t="s">
-        <v>1112</v>
+        <v>320</v>
       </c>
       <c r="C516" s="18">
-        <v>61.15</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -12169,10 +12184,10 @@
         <v>21</v>
       </c>
       <c r="B517" s="17" t="s">
-        <v>1114</v>
+        <v>319</v>
       </c>
       <c r="C517" s="18">
-        <v>217.49</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
@@ -12180,10 +12195,10 @@
         <v>21</v>
       </c>
       <c r="B518" s="17" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C518" s="18">
-        <v>24.77</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -12191,10 +12206,10 @@
         <v>21</v>
       </c>
       <c r="B519" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C519" s="18">
-        <v>54.18</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
@@ -12202,10 +12217,10 @@
         <v>21</v>
       </c>
       <c r="B520" s="17" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C520" s="18">
-        <v>41.8</v>
+        <v>81.27</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
@@ -12213,10 +12228,10 @@
         <v>21</v>
       </c>
       <c r="B521" s="17" t="s">
-        <v>1136</v>
+        <v>1107</v>
       </c>
       <c r="C521" s="18">
-        <v>23.99</v>
+        <v>27.09</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
@@ -12224,10 +12239,10 @@
         <v>21</v>
       </c>
       <c r="B522" s="17" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="C522" s="18">
-        <v>102.17</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
@@ -12235,10 +12250,10 @@
         <v>21</v>
       </c>
       <c r="B523" s="17" t="s">
-        <v>1141</v>
+        <v>1103</v>
       </c>
       <c r="C523" s="18">
-        <v>243.81</v>
+        <v>125.39</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
@@ -12246,10 +12261,10 @@
         <v>21</v>
       </c>
       <c r="B524" s="17" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="C524" s="18">
-        <v>58.05</v>
+        <v>105.26</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
@@ -12257,10 +12272,10 @@
         <v>21</v>
       </c>
       <c r="B525" s="17" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="C525" s="18">
-        <v>122.29</v>
+        <v>246.91</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
@@ -12268,10 +12283,10 @@
         <v>21</v>
       </c>
       <c r="B526" s="17" t="s">
-        <v>1135</v>
+        <v>1112</v>
       </c>
       <c r="C526" s="18">
-        <v>21.67</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
@@ -12279,10 +12294,10 @@
         <v>21</v>
       </c>
       <c r="B527" s="17" t="s">
-        <v>1634</v>
+        <v>1114</v>
       </c>
       <c r="C527" s="18">
-        <v>415.64</v>
+        <v>217.49</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -12290,259 +12305,219 @@
         <v>21</v>
       </c>
       <c r="B528" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C528" s="18">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>21</v>
+      </c>
+      <c r="B529" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C529" s="18">
+        <v>54.18</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>21</v>
+      </c>
+      <c r="B530" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C530" s="18">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>21</v>
+      </c>
+      <c r="B531" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C531" s="18">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>21</v>
+      </c>
+      <c r="B532" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C532" s="18">
+        <v>102.17</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>21</v>
+      </c>
+      <c r="B533" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C533" s="18">
+        <v>243.81</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>21</v>
+      </c>
+      <c r="B534" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C534" s="18">
+        <v>58.05</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>21</v>
+      </c>
+      <c r="B535" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C535" s="18">
+        <v>122.29</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>21</v>
+      </c>
+      <c r="B536" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C536" s="18">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>21</v>
+      </c>
+      <c r="B537" s="17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C537" s="18">
+        <v>415.64</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>21</v>
+      </c>
+      <c r="B538" s="17" t="s">
         <v>1140</v>
       </c>
-      <c r="C528" s="18">
+      <c r="C538" s="18">
         <v>214.4</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A529" t="s">
-        <v>21</v>
-      </c>
-      <c r="B529" s="17" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>21</v>
+      </c>
+      <c r="B539" s="17" t="s">
         <v>1138</v>
       </c>
-      <c r="C529" s="18">
+      <c r="C539" s="18">
         <v>31.73</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A530" t="s">
-        <v>21</v>
-      </c>
-      <c r="B530" s="17" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>21</v>
+      </c>
+      <c r="B540" s="17" t="s">
         <v>1635</v>
       </c>
-      <c r="C530" s="18">
+      <c r="C540" s="18">
         <v>1481.44</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A531" t="s">
-        <v>21</v>
-      </c>
-      <c r="B531" s="17" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>21</v>
+      </c>
+      <c r="B541" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="C531" s="18">
+      <c r="C541" s="18">
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A532" t="s">
-        <v>21</v>
-      </c>
-      <c r="B532" s="17" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>21</v>
+      </c>
+      <c r="B542" s="17" t="s">
         <v>1636</v>
       </c>
-      <c r="C532" s="18">
+      <c r="C542" s="18">
         <v>796.45</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A533" t="s">
-        <v>21</v>
-      </c>
-      <c r="B533" s="17" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>21</v>
+      </c>
+      <c r="B543" s="17" t="s">
         <v>1137</v>
       </c>
-      <c r="C533" s="18">
+      <c r="C543" s="18">
         <v>30.96</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A534" t="s">
-        <v>21</v>
-      </c>
-      <c r="B534" s="17" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>21</v>
+      </c>
+      <c r="B544" s="17" t="s">
         <v>1133</v>
       </c>
-      <c r="C534" s="18">
+      <c r="C544" s="18">
         <v>51.08</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A535" t="s">
-        <v>21</v>
-      </c>
-      <c r="B535" s="17" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C535" s="18">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A536" t="s">
-        <v>21</v>
-      </c>
-      <c r="B536" s="17" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C536" s="18">
-        <v>78.17</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A537" t="s">
-        <v>21</v>
-      </c>
-      <c r="B537" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C537" s="18">
-        <v>3.01</v>
-      </c>
-      <c r="D537" s="17"/>
-      <c r="E537" s="17"/>
-      <c r="F537" s="17"/>
-      <c r="G537" s="17"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A538" t="s">
-        <v>21</v>
-      </c>
-      <c r="B538" s="17" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C538" s="18">
-        <v>3.44</v>
-      </c>
-      <c r="D538" s="17"/>
-      <c r="E538" s="17"/>
-      <c r="F538" s="17"/>
-      <c r="G538" s="17"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A539" t="s">
-        <v>21</v>
-      </c>
-      <c r="B539" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C539" s="18">
-        <v>4.04</v>
-      </c>
-      <c r="D539" s="17"/>
-      <c r="E539" s="17"/>
-      <c r="F539" s="17"/>
-      <c r="G539" s="17"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
-        <v>21</v>
-      </c>
-      <c r="B540" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C540" s="18">
-        <v>6.02</v>
-      </c>
-      <c r="D540" s="17"/>
-      <c r="E540" s="17"/>
-      <c r="F540" s="17"/>
-      <c r="G540" s="17"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A541" t="s">
-        <v>21</v>
-      </c>
-      <c r="B541" s="17" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C541" s="18">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D541" s="17"/>
-      <c r="E541" s="17"/>
-      <c r="F541" s="17"/>
-      <c r="G541" s="17"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A542" t="s">
-        <v>21</v>
-      </c>
-      <c r="B542" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C542" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="D542" s="17"/>
-      <c r="E542" s="17"/>
-      <c r="F542" s="17"/>
-      <c r="G542" s="17"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A543" t="s">
-        <v>21</v>
-      </c>
-      <c r="B543" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C543" s="18">
-        <v>5.16</v>
-      </c>
-      <c r="D543" s="17"/>
-      <c r="E543" s="17"/>
-      <c r="F543" s="17"/>
-      <c r="G543" s="17"/>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A544" t="s">
-        <v>21</v>
-      </c>
-      <c r="B544" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C544" s="18">
-        <v>7.74</v>
-      </c>
-      <c r="D544" s="17"/>
-      <c r="E544" s="17"/>
-      <c r="F544" s="17"/>
-      <c r="G544" s="17"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>21</v>
       </c>
       <c r="B545" s="17" t="s">
-        <v>215</v>
+        <v>1134</v>
       </c>
       <c r="C545" s="18">
-        <v>8.94</v>
-      </c>
-      <c r="D545" s="17"/>
-      <c r="E545" s="17"/>
-      <c r="F545" s="17"/>
-      <c r="G545" s="17"/>
+        <v>95.2</v>
+      </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>21</v>
       </c>
       <c r="B546" s="17" t="s">
-        <v>215</v>
+        <v>1131</v>
       </c>
       <c r="C546" s="18">
-        <v>26.83</v>
-      </c>
-      <c r="D546" s="17"/>
-      <c r="E546" s="17"/>
-      <c r="F546" s="17"/>
-      <c r="G546" s="17"/>
+        <v>78.17</v>
+      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>21</v>
       </c>
       <c r="B547" s="17" t="s">
-        <v>1639</v>
+        <v>204</v>
       </c>
       <c r="C547" s="18">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="D547" s="17"/>
       <c r="E547" s="17"/>
@@ -12554,10 +12529,10 @@
         <v>21</v>
       </c>
       <c r="B548" s="17" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C548" s="18">
-        <v>2.92</v>
+        <v>3.44</v>
       </c>
       <c r="D548" s="17"/>
       <c r="E548" s="17"/>
@@ -12569,10 +12544,10 @@
         <v>21</v>
       </c>
       <c r="B549" s="17" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C549" s="18">
-        <v>4.3</v>
+        <v>4.04</v>
       </c>
       <c r="D549" s="17"/>
       <c r="E549" s="17"/>
@@ -12584,10 +12559,10 @@
         <v>21</v>
       </c>
       <c r="B550" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C550" s="18">
-        <v>2.58</v>
+        <v>6.02</v>
       </c>
       <c r="D550" s="17"/>
       <c r="E550" s="17"/>
@@ -12599,10 +12574,10 @@
         <v>21</v>
       </c>
       <c r="B551" s="17" t="s">
-        <v>207</v>
+        <v>1638</v>
       </c>
       <c r="C551" s="18">
-        <v>4.3</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D551" s="17"/>
       <c r="E551" s="17"/>
@@ -12614,10 +12589,10 @@
         <v>21</v>
       </c>
       <c r="B552" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C552" s="18">
-        <v>10.32</v>
+        <v>5.16</v>
       </c>
       <c r="D552" s="17"/>
       <c r="E552" s="17"/>
@@ -12629,7 +12604,7 @@
         <v>21</v>
       </c>
       <c r="B553" s="17" t="s">
-        <v>1641</v>
+        <v>214</v>
       </c>
       <c r="C553" s="18">
         <v>5.16</v>
@@ -12644,7 +12619,7 @@
         <v>21</v>
       </c>
       <c r="B554" s="17" t="s">
-        <v>1642</v>
+        <v>213</v>
       </c>
       <c r="C554" s="18">
         <v>7.74</v>
@@ -12659,10 +12634,10 @@
         <v>21</v>
       </c>
       <c r="B555" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C555" s="18">
-        <v>6.88</v>
+        <v>8.94</v>
       </c>
       <c r="D555" s="17"/>
       <c r="E555" s="17"/>
@@ -12674,10 +12649,10 @@
         <v>21</v>
       </c>
       <c r="B556" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C556" s="18">
-        <v>7.74</v>
+        <v>26.83</v>
       </c>
       <c r="D556" s="17"/>
       <c r="E556" s="17"/>
@@ -12689,10 +12664,10 @@
         <v>21</v>
       </c>
       <c r="B557" s="17" t="s">
-        <v>220</v>
+        <v>1639</v>
       </c>
       <c r="C557" s="18">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="D557" s="17"/>
       <c r="E557" s="17"/>
@@ -12704,7 +12679,7 @@
         <v>21</v>
       </c>
       <c r="B558" s="17" t="s">
-        <v>221</v>
+        <v>1640</v>
       </c>
       <c r="C558" s="18">
         <v>2.92</v>
@@ -12719,7 +12694,7 @@
         <v>21</v>
       </c>
       <c r="B559" s="17" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C559" s="18">
         <v>4.3</v>
@@ -12734,10 +12709,10 @@
         <v>21</v>
       </c>
       <c r="B560" s="17" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C560" s="18">
-        <v>1.72</v>
+        <v>2.58</v>
       </c>
       <c r="D560" s="17"/>
       <c r="E560" s="17"/>
@@ -12749,10 +12724,10 @@
         <v>21</v>
       </c>
       <c r="B561" s="17" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C561" s="18">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="D561" s="17"/>
       <c r="E561" s="17"/>
@@ -12764,10 +12739,10 @@
         <v>21</v>
       </c>
       <c r="B562" s="17" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C562" s="18">
-        <v>1.72</v>
+        <v>10.32</v>
       </c>
       <c r="D562" s="17"/>
       <c r="E562" s="17"/>
@@ -12779,10 +12754,10 @@
         <v>21</v>
       </c>
       <c r="B563" s="17" t="s">
-        <v>226</v>
+        <v>1641</v>
       </c>
       <c r="C563" s="18">
-        <v>1.1499999999999999</v>
+        <v>5.16</v>
       </c>
       <c r="D563" s="17"/>
       <c r="E563" s="17"/>
@@ -12794,10 +12769,10 @@
         <v>21</v>
       </c>
       <c r="B564" s="17" t="s">
-        <v>229</v>
+        <v>1642</v>
       </c>
       <c r="C564" s="18">
-        <v>6.88</v>
+        <v>7.74</v>
       </c>
       <c r="D564" s="17"/>
       <c r="E564" s="17"/>
@@ -12809,10 +12784,10 @@
         <v>21</v>
       </c>
       <c r="B565" s="17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C565" s="18">
-        <v>3.44</v>
+        <v>6.88</v>
       </c>
       <c r="D565" s="17"/>
       <c r="E565" s="17"/>
@@ -12824,10 +12799,10 @@
         <v>21</v>
       </c>
       <c r="B566" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C566" s="18">
-        <v>2.3199999999999998</v>
+        <v>7.74</v>
       </c>
       <c r="D566" s="17"/>
       <c r="E566" s="17"/>
@@ -12839,10 +12814,10 @@
         <v>21</v>
       </c>
       <c r="B567" s="17" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C567" s="18">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="D567" s="17"/>
       <c r="E567" s="17"/>
@@ -12854,10 +12829,10 @@
         <v>21</v>
       </c>
       <c r="B568" s="17" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C568" s="18">
-        <v>2.3199999999999998</v>
+        <v>2.92</v>
       </c>
       <c r="D568" s="17"/>
       <c r="E568" s="17"/>
@@ -12869,10 +12844,10 @@
         <v>21</v>
       </c>
       <c r="B569" s="17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C569" s="18">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="D569" s="17"/>
       <c r="E569" s="17"/>
@@ -12884,10 +12859,10 @@
         <v>21</v>
       </c>
       <c r="B570" s="17" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C570" s="18">
-        <v>5.85</v>
+        <v>1.72</v>
       </c>
       <c r="D570" s="17"/>
       <c r="E570" s="17"/>
@@ -12899,10 +12874,10 @@
         <v>21</v>
       </c>
       <c r="B571" s="17" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C571" s="18">
-        <v>8.6</v>
+        <v>2.58</v>
       </c>
       <c r="D571" s="17"/>
       <c r="E571" s="17"/>
@@ -12914,7 +12889,7 @@
         <v>21</v>
       </c>
       <c r="B572" s="17" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C572" s="18">
         <v>1.72</v>
@@ -12929,10 +12904,10 @@
         <v>21</v>
       </c>
       <c r="B573" s="17" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C573" s="18">
-        <v>86</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D573" s="17"/>
       <c r="E573" s="17"/>
@@ -12944,10 +12919,10 @@
         <v>21</v>
       </c>
       <c r="B574" s="17" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C574" s="18">
-        <v>3225</v>
+        <v>6.88</v>
       </c>
       <c r="D574" s="17"/>
       <c r="E574" s="17"/>
@@ -12959,10 +12934,10 @@
         <v>21</v>
       </c>
       <c r="B575" s="17" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C575" s="18">
-        <v>9675</v>
+        <v>3.44</v>
       </c>
       <c r="D575" s="17"/>
       <c r="E575" s="17"/>
@@ -12974,10 +12949,10 @@
         <v>21</v>
       </c>
       <c r="B576" s="17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C576" s="18">
-        <v>1.72</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D576" s="17"/>
       <c r="E576" s="17"/>
@@ -12989,10 +12964,10 @@
         <v>21</v>
       </c>
       <c r="B577" s="17" t="s">
-        <v>1643</v>
+        <v>230</v>
       </c>
       <c r="C577" s="18">
-        <v>6.88</v>
+        <v>3.44</v>
       </c>
       <c r="D577" s="17"/>
       <c r="E577" s="17"/>
@@ -13004,10 +12979,10 @@
         <v>21</v>
       </c>
       <c r="B578" s="17" t="s">
-        <v>1644</v>
+        <v>231</v>
       </c>
       <c r="C578" s="18">
-        <v>4.5599999999999996</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D578" s="17"/>
       <c r="E578" s="17"/>
@@ -13019,10 +12994,10 @@
         <v>21</v>
       </c>
       <c r="B579" s="17" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C579" s="18">
-        <v>4.5599999999999996</v>
+        <v>2.06</v>
       </c>
       <c r="D579" s="17"/>
       <c r="E579" s="17"/>
@@ -13034,10 +13009,10 @@
         <v>21</v>
       </c>
       <c r="B580" s="17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C580" s="18">
-        <v>3.44</v>
+        <v>5.85</v>
       </c>
       <c r="D580" s="17"/>
       <c r="E580" s="17"/>
@@ -13049,10 +13024,10 @@
         <v>21</v>
       </c>
       <c r="B581" s="17" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C581" s="18">
-        <v>10.32</v>
+        <v>8.6</v>
       </c>
       <c r="D581" s="17"/>
       <c r="E581" s="17"/>
@@ -13064,10 +13039,10 @@
         <v>21</v>
       </c>
       <c r="B582" s="17" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C582" s="18">
-        <v>6.88</v>
+        <v>1.72</v>
       </c>
       <c r="D582" s="17"/>
       <c r="E582" s="17"/>
@@ -13079,10 +13054,10 @@
         <v>21</v>
       </c>
       <c r="B583" s="17" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C583" s="18">
-        <v>34.4</v>
+        <v>86</v>
       </c>
       <c r="D583" s="17"/>
       <c r="E583" s="17"/>
@@ -13094,10 +13069,10 @@
         <v>21</v>
       </c>
       <c r="B584" s="17" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C584" s="18">
-        <v>34.4</v>
+        <v>3225</v>
       </c>
       <c r="D584" s="17"/>
       <c r="E584" s="17"/>
@@ -13109,10 +13084,10 @@
         <v>21</v>
       </c>
       <c r="B585" s="17" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C585" s="18">
-        <v>6.88</v>
+        <v>9675</v>
       </c>
       <c r="D585" s="17"/>
       <c r="E585" s="17"/>
@@ -13124,7 +13099,7 @@
         <v>21</v>
       </c>
       <c r="B586" s="17" t="s">
-        <v>1092</v>
+        <v>239</v>
       </c>
       <c r="C586" s="18">
         <v>1.72</v>
@@ -13139,10 +13114,10 @@
         <v>21</v>
       </c>
       <c r="B587" s="17" t="s">
-        <v>1093</v>
+        <v>1643</v>
       </c>
       <c r="C587" s="18">
-        <v>1.72</v>
+        <v>6.88</v>
       </c>
       <c r="D587" s="17"/>
       <c r="E587" s="17"/>
@@ -13154,10 +13129,10 @@
         <v>21</v>
       </c>
       <c r="B588" s="17" t="s">
-        <v>1094</v>
+        <v>1644</v>
       </c>
       <c r="C588" s="18">
-        <v>5.16</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D588" s="17"/>
       <c r="E588" s="17"/>
@@ -13169,10 +13144,10 @@
         <v>21</v>
       </c>
       <c r="B589" s="17" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C589" s="18">
-        <v>4300</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="D589" s="17"/>
       <c r="E589" s="17"/>
@@ -13184,7 +13159,7 @@
         <v>21</v>
       </c>
       <c r="B590" s="17" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C590" s="18">
         <v>3.44</v>
@@ -13199,7 +13174,7 @@
         <v>21</v>
       </c>
       <c r="B591" s="17" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C591" s="18">
         <v>10.32</v>
@@ -13214,10 +13189,10 @@
         <v>21</v>
       </c>
       <c r="B592" s="17" t="s">
-        <v>1095</v>
+        <v>250</v>
       </c>
       <c r="C592" s="18">
-        <v>1.72</v>
+        <v>6.88</v>
       </c>
       <c r="D592" s="17"/>
       <c r="E592" s="17"/>
@@ -13229,10 +13204,10 @@
         <v>21</v>
       </c>
       <c r="B593" s="17" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C593" s="18">
-        <v>2.58</v>
+        <v>34.4</v>
       </c>
       <c r="D593" s="17"/>
       <c r="E593" s="17"/>
@@ -13244,10 +13219,10 @@
         <v>21</v>
       </c>
       <c r="B594" s="17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C594" s="18">
-        <v>6.71</v>
+        <v>34.4</v>
       </c>
       <c r="D594" s="17"/>
       <c r="E594" s="17"/>
@@ -13259,10 +13234,10 @@
         <v>21</v>
       </c>
       <c r="B595" s="17" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C595" s="18">
-        <v>17.89</v>
+        <v>6.88</v>
       </c>
       <c r="D595" s="17"/>
       <c r="E595" s="17"/>
@@ -13274,10 +13249,10 @@
         <v>21</v>
       </c>
       <c r="B596" s="17" t="s">
-        <v>267</v>
+        <v>1092</v>
       </c>
       <c r="C596" s="18">
-        <v>30.79</v>
+        <v>1.72</v>
       </c>
       <c r="D596" s="17"/>
       <c r="E596" s="17"/>
@@ -13289,10 +13264,10 @@
         <v>21</v>
       </c>
       <c r="B597" s="17" t="s">
-        <v>268</v>
+        <v>1093</v>
       </c>
       <c r="C597" s="18">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="D597" s="17"/>
       <c r="E597" s="17"/>
@@ -13304,10 +13279,10 @@
         <v>21</v>
       </c>
       <c r="B598" s="17" t="s">
-        <v>269</v>
+        <v>1094</v>
       </c>
       <c r="C598" s="18">
-        <v>3.44</v>
+        <v>5.16</v>
       </c>
       <c r="D598" s="17"/>
       <c r="E598" s="17"/>
@@ -13319,10 +13294,10 @@
         <v>21</v>
       </c>
       <c r="B599" s="17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C599" s="18">
-        <v>3.01</v>
+        <v>4300</v>
       </c>
       <c r="D599" s="17"/>
       <c r="E599" s="17"/>
@@ -13334,10 +13309,10 @@
         <v>21</v>
       </c>
       <c r="B600" s="17" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C600" s="18">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
       <c r="D600" s="17"/>
       <c r="E600" s="17"/>
@@ -13349,10 +13324,10 @@
         <v>21</v>
       </c>
       <c r="B601" s="17" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C601" s="18">
-        <v>8.6</v>
+        <v>10.32</v>
       </c>
       <c r="D601" s="17"/>
       <c r="E601" s="17"/>
@@ -13364,10 +13339,10 @@
         <v>21</v>
       </c>
       <c r="B602" s="17" t="s">
-        <v>1645</v>
+        <v>1095</v>
       </c>
       <c r="C602" s="18">
-        <v>25.8</v>
+        <v>1.72</v>
       </c>
       <c r="D602" s="17"/>
       <c r="E602" s="17"/>
@@ -13379,10 +13354,10 @@
         <v>21</v>
       </c>
       <c r="B603" s="17" t="s">
-        <v>1646</v>
+        <v>260</v>
       </c>
       <c r="C603" s="18">
-        <v>47.3</v>
+        <v>2.58</v>
       </c>
       <c r="D603" s="17"/>
       <c r="E603" s="17"/>
@@ -13394,10 +13369,10 @@
         <v>21</v>
       </c>
       <c r="B604" s="17" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C604" s="18">
-        <v>8.6</v>
+        <v>6.71</v>
       </c>
       <c r="D604" s="17"/>
       <c r="E604" s="17"/>
@@ -13409,10 +13384,10 @@
         <v>21</v>
       </c>
       <c r="B605" s="17" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C605" s="18">
-        <v>40.31</v>
+        <v>17.89</v>
       </c>
       <c r="D605" s="17"/>
       <c r="E605" s="17"/>
@@ -13424,10 +13399,10 @@
         <v>21</v>
       </c>
       <c r="B606" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C606" s="18">
-        <v>4.3</v>
+        <v>30.79</v>
       </c>
       <c r="D606" s="17"/>
       <c r="E606" s="17"/>
@@ -13439,10 +13414,10 @@
         <v>21</v>
       </c>
       <c r="B607" s="17" t="s">
-        <v>1096</v>
+        <v>268</v>
       </c>
       <c r="C607" s="18">
-        <v>9.68</v>
+        <v>0.17</v>
       </c>
       <c r="D607" s="17"/>
       <c r="E607" s="17"/>
@@ -13454,10 +13429,10 @@
         <v>21</v>
       </c>
       <c r="B608" s="17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C608" s="18">
-        <v>16.13</v>
+        <v>3.44</v>
       </c>
       <c r="D608" s="17"/>
       <c r="E608" s="17"/>
@@ -13469,10 +13444,10 @@
         <v>21</v>
       </c>
       <c r="B609" s="17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C609" s="18">
-        <v>173.34</v>
+        <v>3.01</v>
       </c>
       <c r="D609" s="17"/>
       <c r="E609" s="17"/>
@@ -13484,10 +13459,10 @@
         <v>21</v>
       </c>
       <c r="B610" s="17" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C610" s="18">
-        <v>80.63</v>
+        <v>4.3</v>
       </c>
       <c r="D610" s="17"/>
       <c r="E610" s="17"/>
@@ -13499,10 +13474,10 @@
         <v>21</v>
       </c>
       <c r="B611" s="17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C611" s="18">
-        <v>12.09</v>
+        <v>8.6</v>
       </c>
       <c r="D611" s="17"/>
       <c r="E611" s="17"/>
@@ -13514,10 +13489,10 @@
         <v>21</v>
       </c>
       <c r="B612" s="17" t="s">
-        <v>280</v>
+        <v>1645</v>
       </c>
       <c r="C612" s="18">
-        <v>12.09</v>
+        <v>25.8</v>
       </c>
       <c r="D612" s="17"/>
       <c r="E612" s="17"/>
@@ -13529,10 +13504,10 @@
         <v>21</v>
       </c>
       <c r="B613" s="17" t="s">
-        <v>281</v>
+        <v>1646</v>
       </c>
       <c r="C613" s="18">
-        <v>129</v>
+        <v>47.3</v>
       </c>
       <c r="D613" s="17"/>
       <c r="E613" s="17"/>
@@ -13544,10 +13519,10 @@
         <v>21</v>
       </c>
       <c r="B614" s="17" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C614" s="18">
-        <v>4300</v>
+        <v>8.6</v>
       </c>
       <c r="D614" s="17"/>
       <c r="E614" s="17"/>
@@ -13559,10 +13534,10 @@
         <v>21</v>
       </c>
       <c r="B615" s="17" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C615" s="18">
-        <v>120.94</v>
+        <v>40.31</v>
       </c>
       <c r="D615" s="17"/>
       <c r="E615" s="17"/>
@@ -13574,10 +13549,10 @@
         <v>21</v>
       </c>
       <c r="B616" s="17" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C616" s="18">
-        <v>17.2</v>
+        <v>4.3</v>
       </c>
       <c r="D616" s="17"/>
       <c r="E616" s="17"/>
@@ -13589,10 +13564,10 @@
         <v>21</v>
       </c>
       <c r="B617" s="17" t="s">
-        <v>285</v>
+        <v>1096</v>
       </c>
       <c r="C617" s="18">
-        <v>8.6</v>
+        <v>9.68</v>
       </c>
       <c r="D617" s="17"/>
       <c r="E617" s="17"/>
@@ -13604,10 +13579,10 @@
         <v>21</v>
       </c>
       <c r="B618" s="17" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C618" s="18">
-        <v>8.6</v>
+        <v>16.13</v>
       </c>
       <c r="D618" s="17"/>
       <c r="E618" s="17"/>
@@ -13619,10 +13594,10 @@
         <v>21</v>
       </c>
       <c r="B619" s="17" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C619" s="18">
-        <v>21.5</v>
+        <v>173.34</v>
       </c>
       <c r="D619" s="17"/>
       <c r="E619" s="17"/>
@@ -13634,10 +13609,10 @@
         <v>21</v>
       </c>
       <c r="B620" s="17" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C620" s="18">
-        <v>64.5</v>
+        <v>80.63</v>
       </c>
       <c r="D620" s="17"/>
       <c r="E620" s="17"/>
@@ -13649,10 +13624,10 @@
         <v>21</v>
       </c>
       <c r="B621" s="17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C621" s="18">
-        <v>32.25</v>
+        <v>12.09</v>
       </c>
       <c r="D621" s="17"/>
       <c r="E621" s="17"/>
@@ -13664,10 +13639,10 @@
         <v>21</v>
       </c>
       <c r="B622" s="17" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C622" s="18">
-        <v>64.5</v>
+        <v>12.09</v>
       </c>
       <c r="D622" s="17"/>
       <c r="E622" s="17"/>
@@ -13679,10 +13654,10 @@
         <v>21</v>
       </c>
       <c r="B623" s="17" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C623" s="18">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D623" s="17"/>
       <c r="E623" s="17"/>
@@ -13694,10 +13669,10 @@
         <v>21</v>
       </c>
       <c r="B624" s="17" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C624" s="18">
-        <v>172</v>
+        <v>4300</v>
       </c>
       <c r="D624" s="17"/>
       <c r="E624" s="17"/>
@@ -13709,10 +13684,10 @@
         <v>21</v>
       </c>
       <c r="B625" s="17" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C625" s="18">
-        <v>4.3</v>
+        <v>120.94</v>
       </c>
       <c r="D625" s="17"/>
       <c r="E625" s="17"/>
@@ -13724,10 +13699,10 @@
         <v>21</v>
       </c>
       <c r="B626" s="17" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C626" s="18">
-        <v>143.36000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="D626" s="17"/>
       <c r="E626" s="17"/>
@@ -13739,10 +13714,10 @@
         <v>21</v>
       </c>
       <c r="B627" s="17" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C627" s="18">
-        <v>14.36</v>
+        <v>8.6</v>
       </c>
       <c r="D627" s="17"/>
       <c r="E627" s="17"/>
@@ -13754,10 +13729,10 @@
         <v>21</v>
       </c>
       <c r="B628" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C628" s="18">
-        <v>1433.36</v>
+        <v>8.6</v>
       </c>
       <c r="D628" s="17"/>
       <c r="E628" s="17"/>
@@ -13769,10 +13744,10 @@
         <v>21</v>
       </c>
       <c r="B629" s="17" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C629" s="18">
-        <v>9.68</v>
+        <v>21.5</v>
       </c>
       <c r="D629" s="17"/>
       <c r="E629" s="17"/>
@@ -13784,10 +13759,10 @@
         <v>21</v>
       </c>
       <c r="B630" s="17" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C630" s="18">
-        <v>6.02</v>
+        <v>64.5</v>
       </c>
       <c r="D630" s="17"/>
       <c r="E630" s="17"/>
@@ -13799,10 +13774,10 @@
         <v>21</v>
       </c>
       <c r="B631" s="17" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C631" s="18">
-        <v>4.3</v>
+        <v>32.25</v>
       </c>
       <c r="D631" s="17"/>
       <c r="E631" s="17"/>
@@ -13814,10 +13789,10 @@
         <v>21</v>
       </c>
       <c r="B632" s="17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C632" s="18">
-        <v>8.6</v>
+        <v>64.5</v>
       </c>
       <c r="D632" s="17"/>
       <c r="E632" s="17"/>
@@ -13829,10 +13804,10 @@
         <v>21</v>
       </c>
       <c r="B633" s="17" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C633" s="18">
-        <v>2.58</v>
+        <v>43</v>
       </c>
       <c r="D633" s="17"/>
       <c r="E633" s="17"/>
@@ -13844,10 +13819,10 @@
         <v>21</v>
       </c>
       <c r="B634" s="17" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C634" s="18">
-        <v>1.72</v>
+        <v>172</v>
       </c>
       <c r="D634" s="17"/>
       <c r="E634" s="17"/>
@@ -13859,10 +13834,10 @@
         <v>21</v>
       </c>
       <c r="B635" s="17" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C635" s="18">
-        <v>6.02</v>
+        <v>4.3</v>
       </c>
       <c r="D635" s="17"/>
       <c r="E635" s="17"/>
@@ -13874,10 +13849,10 @@
         <v>21</v>
       </c>
       <c r="B636" s="17" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C636" s="18">
-        <v>3.44</v>
+        <v>143.36000000000001</v>
       </c>
       <c r="D636" s="17"/>
       <c r="E636" s="17"/>
@@ -13889,10 +13864,10 @@
         <v>21</v>
       </c>
       <c r="B637" s="17" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C637" s="18">
-        <v>21.5</v>
+        <v>14.36</v>
       </c>
       <c r="D637" s="17"/>
       <c r="E637" s="17"/>
@@ -13904,10 +13879,10 @@
         <v>21</v>
       </c>
       <c r="B638" s="17" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C638" s="18">
-        <v>258</v>
+        <v>1433.36</v>
       </c>
       <c r="D638" s="17"/>
       <c r="E638" s="17"/>
@@ -13919,10 +13894,10 @@
         <v>21</v>
       </c>
       <c r="B639" s="17" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C639" s="18">
-        <v>4.3</v>
+        <v>9.68</v>
       </c>
       <c r="D639" s="17"/>
       <c r="E639" s="17"/>
@@ -13934,10 +13909,10 @@
         <v>21</v>
       </c>
       <c r="B640" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C640" s="18">
-        <v>12.9</v>
+        <v>6.02</v>
       </c>
       <c r="D640" s="17"/>
       <c r="E640" s="17"/>
@@ -13949,10 +13924,10 @@
         <v>21</v>
       </c>
       <c r="B641" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C641" s="18">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
       <c r="D641" s="17"/>
       <c r="E641" s="17"/>
@@ -13964,10 +13939,10 @@
         <v>21</v>
       </c>
       <c r="B642" s="17" t="s">
-        <v>1099</v>
+        <v>307</v>
       </c>
       <c r="C642" s="18">
-        <v>6.02</v>
+        <v>8.6</v>
       </c>
       <c r="D642" s="17"/>
       <c r="E642" s="17"/>
@@ -13979,10 +13954,10 @@
         <v>21</v>
       </c>
       <c r="B643" s="17" t="s">
-        <v>1098</v>
+        <v>308</v>
       </c>
       <c r="C643" s="18">
-        <v>11.35</v>
+        <v>2.58</v>
       </c>
       <c r="D643" s="17"/>
       <c r="E643" s="17"/>
@@ -13994,10 +13969,10 @@
         <v>21</v>
       </c>
       <c r="B644" s="17" t="s">
-        <v>1100</v>
+        <v>309</v>
       </c>
       <c r="C644" s="18">
-        <v>6.02</v>
+        <v>1.72</v>
       </c>
       <c r="D644" s="17"/>
       <c r="E644" s="17"/>
@@ -14009,10 +13984,10 @@
         <v>21</v>
       </c>
       <c r="B645" s="17" t="s">
-        <v>1101</v>
+        <v>312</v>
       </c>
       <c r="C645" s="18">
-        <v>9.6999999999999993</v>
+        <v>6.02</v>
       </c>
       <c r="D645" s="17"/>
       <c r="E645" s="17"/>
@@ -14021,156 +13996,196 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>3</v>
-      </c>
-      <c r="B646" t="s">
-        <v>164</v>
+        <v>21</v>
+      </c>
+      <c r="B646" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="C646" s="18">
         <v>3.44</v>
       </c>
+      <c r="D646" s="17"/>
+      <c r="E646" s="17"/>
+      <c r="F646" s="17"/>
+      <c r="G646" s="17"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>3</v>
-      </c>
-      <c r="B647" t="s">
-        <v>339</v>
+        <v>21</v>
+      </c>
+      <c r="B647" s="17" t="s">
+        <v>315</v>
       </c>
       <c r="C647" s="18">
-        <v>6.88</v>
-      </c>
+        <v>21.5</v>
+      </c>
+      <c r="D647" s="17"/>
+      <c r="E647" s="17"/>
+      <c r="F647" s="17"/>
+      <c r="G647" s="17"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>3</v>
-      </c>
-      <c r="B648" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="B648" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="C648" s="18">
-        <v>4.3</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="D648" s="17"/>
+      <c r="E648" s="17"/>
+      <c r="F648" s="17"/>
+      <c r="G648" s="17"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>3</v>
-      </c>
-      <c r="B649" t="s">
-        <v>195</v>
+        <v>21</v>
+      </c>
+      <c r="B649" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="C649" s="18">
-        <v>1.72</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="D649" s="17"/>
+      <c r="E649" s="17"/>
+      <c r="F649" s="17"/>
+      <c r="G649" s="17"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B650" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C650" s="18">
-        <v>18.920000000000002</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="D650" s="17"/>
+      <c r="E650" s="17"/>
+      <c r="F650" s="17"/>
+      <c r="G650" s="17"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B651" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C651" s="18">
-        <v>17.03</v>
-      </c>
+        <v>3.44</v>
+      </c>
+      <c r="D651" s="17"/>
+      <c r="E651" s="17"/>
+      <c r="F651" s="17"/>
+      <c r="G651" s="17"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B652" s="17" t="s">
-        <v>324</v>
+        <v>1099</v>
       </c>
       <c r="C652" s="18">
-        <v>8.86</v>
-      </c>
+        <v>6.02</v>
+      </c>
+      <c r="D652" s="17"/>
+      <c r="E652" s="17"/>
+      <c r="F652" s="17"/>
+      <c r="G652" s="17"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B653" s="17" t="s">
-        <v>323</v>
+        <v>1098</v>
       </c>
       <c r="C653" s="18">
-        <v>10.75</v>
-      </c>
+        <v>11.35</v>
+      </c>
+      <c r="D653" s="17"/>
+      <c r="E653" s="17"/>
+      <c r="F653" s="17"/>
+      <c r="G653" s="17"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B654" s="17" t="s">
-        <v>1633</v>
+        <v>1100</v>
       </c>
       <c r="C654" s="18">
-        <v>50.79</v>
-      </c>
+        <v>6.02</v>
+      </c>
+      <c r="D654" s="17"/>
+      <c r="E654" s="17"/>
+      <c r="F654" s="17"/>
+      <c r="G654" s="17"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B655" s="17" t="s">
-        <v>328</v>
+        <v>1101</v>
       </c>
       <c r="C655" s="18">
-        <v>29.07</v>
-      </c>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D655" s="17"/>
+      <c r="E655" s="17"/>
+      <c r="F655" s="17"/>
+      <c r="G655" s="17"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>3</v>
       </c>
-      <c r="B656" s="17" t="s">
-        <v>330</v>
+      <c r="B656" t="s">
+        <v>164</v>
       </c>
       <c r="C656" s="18">
-        <v>47.13</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>3</v>
       </c>
-      <c r="B657" s="17" t="s">
-        <v>320</v>
+      <c r="B657" t="s">
+        <v>339</v>
       </c>
       <c r="C657" s="18">
-        <v>4.13</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>3</v>
       </c>
-      <c r="B658" s="17" t="s">
-        <v>319</v>
+      <c r="B658" t="s">
+        <v>197</v>
       </c>
       <c r="C658" s="18">
-        <v>5.16</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>3</v>
       </c>
-      <c r="B659" s="17" t="s">
-        <v>1136</v>
+      <c r="B659" t="s">
+        <v>195</v>
       </c>
       <c r="C659" s="18">
-        <v>23.99</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
@@ -14178,10 +14193,10 @@
         <v>3</v>
       </c>
       <c r="B660" s="17" t="s">
-        <v>1130</v>
+        <v>321</v>
       </c>
       <c r="C660" s="18">
-        <v>102.17</v>
+        <v>18.920000000000002</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -14189,10 +14204,10 @@
         <v>3</v>
       </c>
       <c r="B661" s="17" t="s">
-        <v>1141</v>
+        <v>322</v>
       </c>
       <c r="C661" s="18">
-        <v>243.81</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -14200,10 +14215,10 @@
         <v>3</v>
       </c>
       <c r="B662" s="17" t="s">
-        <v>1129</v>
+        <v>324</v>
       </c>
       <c r="C662" s="18">
-        <v>58.05</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
@@ -14211,10 +14226,10 @@
         <v>3</v>
       </c>
       <c r="B663" s="17" t="s">
-        <v>1132</v>
+        <v>323</v>
       </c>
       <c r="C663" s="18">
-        <v>122.29</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
@@ -14222,10 +14237,10 @@
         <v>3</v>
       </c>
       <c r="B664" s="17" t="s">
-        <v>1135</v>
+        <v>1633</v>
       </c>
       <c r="C664" s="18">
-        <v>21.67</v>
+        <v>50.79</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -14233,10 +14248,10 @@
         <v>3</v>
       </c>
       <c r="B665" s="17" t="s">
-        <v>1634</v>
+        <v>328</v>
       </c>
       <c r="C665" s="18">
-        <v>415.64</v>
+        <v>29.07</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -14244,10 +14259,10 @@
         <v>3</v>
       </c>
       <c r="B666" s="17" t="s">
-        <v>1140</v>
+        <v>330</v>
       </c>
       <c r="C666" s="18">
-        <v>214.4</v>
+        <v>47.13</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
@@ -14255,10 +14270,10 @@
         <v>3</v>
       </c>
       <c r="B667" s="17" t="s">
-        <v>1138</v>
+        <v>320</v>
       </c>
       <c r="C667" s="18">
-        <v>31.73</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -14266,10 +14281,10 @@
         <v>3</v>
       </c>
       <c r="B668" s="17" t="s">
-        <v>1635</v>
+        <v>319</v>
       </c>
       <c r="C668" s="18">
-        <v>1481.44</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
@@ -14277,10 +14292,10 @@
         <v>3</v>
       </c>
       <c r="B669" s="17" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C669" s="18">
-        <v>38.700000000000003</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -14288,10 +14303,10 @@
         <v>3</v>
       </c>
       <c r="B670" s="17" t="s">
-        <v>1636</v>
+        <v>1130</v>
       </c>
       <c r="C670" s="18">
-        <v>796.45</v>
+        <v>102.17</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
@@ -14299,10 +14314,10 @@
         <v>3</v>
       </c>
       <c r="B671" s="17" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C671" s="18">
-        <v>30.96</v>
+        <v>243.81</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
@@ -14310,10 +14325,10 @@
         <v>3</v>
       </c>
       <c r="B672" s="17" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C672" s="18">
-        <v>51.08</v>
+        <v>58.05</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -14321,10 +14336,10 @@
         <v>3</v>
       </c>
       <c r="B673" s="17" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C673" s="18">
-        <v>95.2</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -14332,16 +14347,126 @@
         <v>3</v>
       </c>
       <c r="B674" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C674" s="18">
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>3</v>
+      </c>
+      <c r="B675" s="17" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C675" s="18">
+        <v>415.64</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>3</v>
+      </c>
+      <c r="B676" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C676" s="18">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>3</v>
+      </c>
+      <c r="B677" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C677" s="18">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>3</v>
+      </c>
+      <c r="B678" s="17" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C678" s="18">
+        <v>1481.44</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>3</v>
+      </c>
+      <c r="B679" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C679" s="18">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>3</v>
+      </c>
+      <c r="B680" s="17" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C680" s="18">
+        <v>796.45</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>3</v>
+      </c>
+      <c r="B681" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C681" s="18">
+        <v>30.96</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>3</v>
+      </c>
+      <c r="B682" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C682" s="18">
+        <v>51.08</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>3</v>
+      </c>
+      <c r="B683" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C683" s="18">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>3</v>
+      </c>
+      <c r="B684" s="17" t="s">
         <v>1131</v>
       </c>
-      <c r="C674" s="18">
+      <c r="C684" s="18">
         <v>78.17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C674" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:C497">
-      <sortCondition ref="A1:A674"/>
+  <autoFilter ref="A1:C684" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A112:C507">
+      <sortCondition ref="A1:A684"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Apps/Quote Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1986166-C41C-46D3-9FFA-BCD26539D987}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F00462-ADD5-4D3C-9111-C88D55A77B08}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Additional Licenses'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Ariento License Type'!$A$1:$C$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ariento Plans'!$A$1:$A$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Microsoft Licenses'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Microsoft Seat Licenses'!$A$1:$C$684</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5764" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1714">
   <si>
     <t>Plan Name</t>
   </si>
@@ -5189,6 +5189,9 @@
   </si>
   <si>
     <t>Microsoft 365 G5 (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Turnkey CMMC Level 2 Plan (GCC-High) *Legacy</t>
   </si>
 </sst>
 </file>
@@ -5666,7 +5669,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5731,10 +5734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="A55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6340,7 +6343,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>1713</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -6354,54 +6357,54 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C56" s="9">
-        <v>349</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9">
-        <v>9</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="9">
-        <v>179</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="9">
-        <v>99</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60" s="9">
-        <v>349</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -6409,27 +6412,38 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61" s="9">
-        <v>199</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="9">
         <v>249</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C62" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C62">
-      <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:C63" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C63">
+      <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6440,8 +6454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A56"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F00462-ADD5-4D3C-9111-C88D55A77B08}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26865463-2FD5-4319-96DC-54415F3BDB16}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5191,7 +5191,7 @@
     <t>Microsoft 365 G5 (GCC Pricing) *Annual Term</t>
   </si>
   <si>
-    <t>Turnkey CMMC Level 2 Plan (GCC-High) *Legacy</t>
+    <t xml:space="preserve">Turnkey CMMC Level 2 Plan (GCC-High) </t>
   </si>
 </sst>
 </file>
@@ -5737,7 +5737,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="A55:C55"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26865463-2FD5-4319-96DC-54415F3BDB16}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761E2858-EEC9-4B5A-A9A9-96E7F79C8BEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1713">
   <si>
     <t>Plan Name</t>
   </si>
@@ -5189,9 +5189,6 @@
   </si>
   <si>
     <t>Microsoft 365 G5 (GCC Pricing) *Annual Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turnkey CMMC Level 2 Plan (GCC-High) </t>
   </si>
 </sst>
 </file>
@@ -5736,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6343,7 +6340,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1713</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761E2858-EEC9-4B5A-A9A9-96E7F79C8BEB}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D181DF62-F373-4EBA-8F41-53BA38021AEF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5733,8 +5733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ariento Pricing 2025.xlsx
+++ b/Ariento Pricing 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arientogroup-my.sharepoint.com/personal/jeffery_robichaux_ariento_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JefferyRobichaux\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{1C36343F-1D4C-4388-9958-90A0DD56BDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D181DF62-F373-4EBA-8F41-53BA38021AEF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{922B01C3-C890-4F6E-B60A-541624727621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ariento Quote Tool" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1714">
   <si>
     <t>Plan Name</t>
   </si>
@@ -5189,6 +5189,9 @@
   </si>
   <si>
     <t>Microsoft 365 G5 (GCC Pricing) *Annual Term</t>
+  </si>
+  <si>
+    <t>Professional Plan (Commercial)</t>
   </si>
 </sst>
 </file>
@@ -5665,8 +5668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE40B50-ADD7-4F1C-8302-825C83271F83}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5681,7 +5684,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -5731,10 +5734,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5755,7 +5759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1679</v>
       </c>
@@ -5766,7 +5770,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1679</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1679</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>5988</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1680</v>
       </c>
@@ -5799,7 +5803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1680</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1680</v>
       </c>
@@ -5823,7 +5827,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -5832,7 +5836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5843,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -5854,7 +5858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5876,7 +5880,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5887,7 +5891,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5900,7 +5904,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -5909,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -5955,7 +5959,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -5964,7 +5968,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -5975,7 +5979,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -5997,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6036,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -6041,7 +6045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6056,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -6063,7 +6067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -6087,7 +6091,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -6096,7 +6100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6129,7 +6133,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -6164,7 +6168,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -6173,7 +6177,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -6230,7 +6234,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -6239,7 +6243,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -6296,7 +6300,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -6305,7 +6309,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6377,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>1713</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -6382,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -6404,7 +6408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -6439,6 +6443,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C63" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Profession Plan (Commercial)"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C63">
       <sortCondition ref="A1:A63"/>
     </sortState>
